--- a/public/docs/spain_stats_xlsx.xlsx
+++ b/public/docs/spain_stats_xlsx.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C2C0D0-4226-4189-805C-EE45FC2E722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5D85F9-872A-4D2F-841D-295C757091D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>2020T1</t>
   </si>
@@ -230,40 +230,7 @@
     <t>Before 1921</t>
   </si>
   <si>
-    <t>Rainbow curve</t>
-  </si>
-  <si>
-    <t>Rent ROI Gross</t>
-  </si>
-  <si>
-    <t>Rent ROI Net</t>
-  </si>
-  <si>
-    <t>EP+50</t>
-  </si>
-  <si>
-    <t>EP-50</t>
-  </si>
-  <si>
-    <t>EP+100</t>
-  </si>
-  <si>
-    <t>EP-100</t>
-  </si>
-  <si>
-    <t>Total Population</t>
-  </si>
-  <si>
-    <t>Alt. Rainbow</t>
-  </si>
-  <si>
     <t>2021-2040</t>
-  </si>
-  <si>
-    <t>Creditor subrogation</t>
-  </si>
-  <si>
-    <t>Consumer subrogation</t>
   </si>
   <si>
     <t>2022T1</t>
@@ -299,15 +266,6 @@
     <t>Demolish</t>
   </si>
   <si>
-    <t>Price of urban land</t>
-  </si>
-  <si>
-    <t>Tx of land</t>
-  </si>
-  <si>
-    <t>Price %</t>
-  </si>
-  <si>
     <t>Owned</t>
   </si>
   <si>
@@ -315,24 +273,6 @@
   </si>
   <si>
     <t>Rented</t>
-  </si>
-  <si>
-    <t>Freely loaned</t>
-  </si>
-  <si>
-    <t>Owned (%)</t>
-  </si>
-  <si>
-    <t>Mortgaged (%)</t>
-  </si>
-  <si>
-    <t>Rented (%)</t>
-  </si>
-  <si>
-    <t>Freely loaned (%)</t>
-  </si>
-  <si>
-    <t>Home sales</t>
   </si>
   <si>
     <t>Inheritances</t>
@@ -347,16 +287,7 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Upper limit</t>
-  </si>
-  <si>
-    <t>Lower limit</t>
-  </si>
-  <si>
     <t>Optimal</t>
-  </si>
-  <si>
-    <t>Legal entity</t>
   </si>
   <si>
     <t>Nationals</t>
@@ -371,76 +302,13 @@
     <t>Releases</t>
   </si>
   <si>
-    <t>Average amount</t>
-  </si>
-  <si>
-    <t>Total amount</t>
-  </si>
-  <si>
     <t>Land</t>
-  </si>
-  <si>
-    <t>Foreigner (raw)</t>
-  </si>
-  <si>
-    <t>Years to fully pay</t>
-  </si>
-  <si>
-    <t>Ideal wage</t>
-  </si>
-  <si>
-    <t>W/M disconnect</t>
-  </si>
-  <si>
-    <t>Price (e/m2)</t>
-  </si>
-  <si>
-    <t>Nominal price (%)</t>
-  </si>
-  <si>
-    <t>(%)Real price</t>
-  </si>
-  <si>
-    <t>Pop.(%)</t>
-  </si>
-  <si>
-    <t>Sales(%)</t>
-  </si>
-  <si>
-    <t>Credit (%)</t>
   </si>
   <si>
     <t>Unemployment</t>
   </si>
   <si>
-    <t>Net ROI (%)</t>
-  </si>
-  <si>
-    <t>New homes</t>
-  </si>
-  <si>
-    <t>Total homes</t>
-  </si>
-  <si>
-    <t>Homes per 1000</t>
-  </si>
-  <si>
-    <t>(%)New homes</t>
-  </si>
-  <si>
-    <t>% Pop.</t>
-  </si>
-  <si>
     <t>Balance</t>
-  </si>
-  <si>
-    <t>Cement (mT)</t>
-  </si>
-  <si>
-    <t>Population (25-50)</t>
-  </si>
-  <si>
-    <t>Data</t>
   </si>
   <si>
     <t>Year</t>
@@ -453,12 +321,6 @@
   </si>
   <si>
     <t>Spread</t>
-  </si>
-  <si>
-    <t>Sharp change</t>
-  </si>
-  <si>
-    <t>Construction period</t>
   </si>
   <si>
     <t>SUM</t>
@@ -476,12 +338,6 @@
     <t>Demographic limits</t>
   </si>
   <si>
-    <t>Unemployment(%)</t>
-  </si>
-  <si>
-    <t>Minimum wage</t>
-  </si>
-  <si>
     <t>Stock and cement</t>
   </si>
   <si>
@@ -491,46 +347,7 @@
     <t>Rent (source: idealista)</t>
   </si>
   <si>
-    <t>Rent price (e/m2)</t>
-  </si>
-  <si>
-    <t>Idealista price(m2)</t>
-  </si>
-  <si>
-    <t>Age 30</t>
-  </si>
-  <si>
-    <t>Age 40</t>
-  </si>
-  <si>
-    <t>Age 50</t>
-  </si>
-  <si>
     <t>Quarter</t>
-  </si>
-  <si>
-    <t>Price Idealista</t>
-  </si>
-  <si>
-    <t>Price Notaries</t>
-  </si>
-  <si>
-    <t>Ide.1</t>
-  </si>
-  <si>
-    <t>Ide.2</t>
-  </si>
-  <si>
-    <t>Ide.3</t>
-  </si>
-  <si>
-    <t>Not.1</t>
-  </si>
-  <si>
-    <t>Not.2</t>
-  </si>
-  <si>
-    <t>Not.3</t>
   </si>
   <si>
     <t>Cells in red implies that the data is provisional or future projections.</t>
@@ -539,154 +356,340 @@
     <t>Cells in pink imply that the data are past projections.</t>
   </si>
   <si>
-    <t>Rent ROI Net %</t>
-  </si>
-  <si>
-    <t>Rent ROI Gross %</t>
-  </si>
-  <si>
     <t>Houses by type and cost of building</t>
-  </si>
-  <si>
-    <t>Cost Edification</t>
-  </si>
-  <si>
-    <t>SF Average cost</t>
-  </si>
-  <si>
-    <t>Condo Av. Cost</t>
-  </si>
-  <si>
-    <t>Single family m2</t>
-  </si>
-  <si>
-    <t>Condos m2</t>
-  </si>
-  <si>
-    <t>SF cost per m2</t>
-  </si>
-  <si>
-    <t>Condos cost per m2</t>
-  </si>
-  <si>
-    <t>Ratio price/cost</t>
-  </si>
-  <si>
-    <t>%  cost production</t>
-  </si>
-  <si>
-    <t>Single family</t>
-  </si>
-  <si>
-    <t>SF cost (PEM)</t>
-  </si>
-  <si>
-    <t>Condo cost</t>
   </si>
   <si>
     <t>Condominiums</t>
   </si>
   <si>
-    <t>Years mortgage</t>
-  </si>
-  <si>
-    <t>Euribor 1-year</t>
-  </si>
-  <si>
-    <t>Average mortgage rate</t>
-  </si>
-  <si>
-    <t>Fixed mortgages</t>
-  </si>
-  <si>
-    <t>Variable mortgages</t>
-  </si>
-  <si>
-    <t>CPI 1985</t>
-  </si>
-  <si>
-    <t>Overrated inflation</t>
-  </si>
-  <si>
-    <t>Real over.</t>
-  </si>
-  <si>
-    <t>Real price</t>
-  </si>
-  <si>
-    <t>Accum. Infl.</t>
-  </si>
-  <si>
-    <t>Inflation CPI</t>
-  </si>
-  <si>
-    <t>Age 30/2</t>
-  </si>
-  <si>
-    <t>Age 40/2</t>
-  </si>
-  <si>
-    <t>Age 50/2</t>
-  </si>
-  <si>
-    <t>I. Rate % (x10)</t>
-  </si>
-  <si>
     <t>Money</t>
   </si>
   <si>
-    <t>House EUR</t>
+    <t>Population_25_50</t>
   </si>
   <si>
-    <t>House USD</t>
+    <t>Population_over18</t>
   </si>
   <si>
-    <t>Euro M3, bilions</t>
+    <t>Age_30</t>
   </si>
   <si>
-    <t>Euro M3 stock %</t>
+    <t>Age_30halved</t>
   </si>
   <si>
-    <t>House BTC</t>
+    <t>Age_40</t>
   </si>
   <si>
-    <t>House Gold</t>
+    <t>Age_40halved</t>
   </si>
   <si>
-    <t>Population &gt;18</t>
+    <t>Age_50</t>
   </si>
   <si>
-    <t>Ratio Mortgages/Home sales</t>
+    <t>Age_50halved</t>
   </si>
   <si>
-    <t>Real Credit movement</t>
+    <t>Total_population</t>
   </si>
   <si>
-    <t>EUR/USD year aver.</t>
+    <t>Upper_limit</t>
   </si>
   <si>
-    <t>BTC/EUR year aver.</t>
+    <t>Lower_limit</t>
   </si>
   <si>
-    <t>Gold/EUR year aver.</t>
+    <t>Home_sales</t>
   </si>
   <si>
-    <t>Household net disp. income</t>
+    <t>Total_amount</t>
   </si>
   <si>
-    <t>Disposable income &gt;18</t>
+    <t>Average_amount</t>
   </si>
   <si>
-    <t>Income constant to inflation</t>
+    <t>Creditor_subrogation</t>
   </si>
   <si>
-    <t>Income constant to housing</t>
+    <t>Consumer_subrogation</t>
   </si>
   <si>
-    <t>Housing affordability</t>
+    <t>Ratio_mortgages_sales</t>
   </si>
   <si>
-    <t>Income vs house and inflation</t>
+    <t>Real_credit_movement</t>
+  </si>
+  <si>
+    <t>Average_mortgage_rate</t>
+  </si>
+  <si>
+    <t>Fixed_mortgages</t>
+  </si>
+  <si>
+    <t>Variable_mortgages</t>
+  </si>
+  <si>
+    <t>Years_mortgage</t>
+  </si>
+  <si>
+    <t>Euribor_1year</t>
+  </si>
+  <si>
+    <t>EURUSD_year_ave</t>
+  </si>
+  <si>
+    <t>EUR_house</t>
+  </si>
+  <si>
+    <t>USD_house</t>
+  </si>
+  <si>
+    <t>Euro_M3_bilions</t>
+  </si>
+  <si>
+    <t>Euro_M3_stock_per</t>
+  </si>
+  <si>
+    <t>BTCEUR_year_ave</t>
+  </si>
+  <si>
+    <t>BTC_house</t>
+  </si>
+  <si>
+    <t>AUEUR_year_ave</t>
+  </si>
+  <si>
+    <t>Gold_house</t>
+  </si>
+  <si>
+    <t>Household_net_income</t>
+  </si>
+  <si>
+    <t>Disposable_income_over18</t>
+  </si>
+  <si>
+    <t>Income_constant_inflation</t>
+  </si>
+  <si>
+    <t>Income_constant_housing</t>
+  </si>
+  <si>
+    <t>Income_vs_houseandinflation</t>
+  </si>
+  <si>
+    <t>Housing_affordability</t>
+  </si>
+  <si>
+    <t>Years_full_pay</t>
+  </si>
+  <si>
+    <t>Ideal_wage</t>
+  </si>
+  <si>
+    <t>W_M_disconnect</t>
+  </si>
+  <si>
+    <t>Minimum_wage</t>
+  </si>
+  <si>
+    <t>Price_urban_land</t>
+  </si>
+  <si>
+    <t>Tx_land</t>
+  </si>
+  <si>
+    <t>Building_permits</t>
+  </si>
+  <si>
+    <t>Single_family</t>
+  </si>
+  <si>
+    <t>Single_family_m2</t>
+  </si>
+  <si>
+    <t>SF_cost</t>
+  </si>
+  <si>
+    <t>SF_cost_ave</t>
+  </si>
+  <si>
+    <t>SF_cost_m2</t>
+  </si>
+  <si>
+    <t>Condos_m2</t>
+  </si>
+  <si>
+    <t>Condos_cost_m2</t>
+  </si>
+  <si>
+    <t>Condos_cost</t>
+  </si>
+  <si>
+    <t>Condos_cost_ave</t>
+  </si>
+  <si>
+    <t>Ratio_price_cost</t>
+  </si>
+  <si>
+    <t>Cost_production_ave</t>
+  </si>
+  <si>
+    <t>Cost_edification</t>
+  </si>
+  <si>
+    <t>Total_homes</t>
+  </si>
+  <si>
+    <t>New_homes</t>
+  </si>
+  <si>
+    <t>Per_new_homes</t>
+  </si>
+  <si>
+    <t>Population_yoy</t>
+  </si>
+  <si>
+    <t>Cement_mt</t>
+  </si>
+  <si>
+    <t>Legal_entity</t>
+  </si>
+  <si>
+    <t>Foreigner_raw</t>
+  </si>
+  <si>
+    <t>Freely_loaned</t>
+  </si>
+  <si>
+    <t>Owned_per</t>
+  </si>
+  <si>
+    <t>Mortgaged_per</t>
+  </si>
+  <si>
+    <t>Rented_per</t>
+  </si>
+  <si>
+    <t>Freely_loaned_per</t>
+  </si>
+  <si>
+    <t>Homes_1000</t>
+  </si>
+  <si>
+    <t>Rent_price_eum2</t>
+  </si>
+  <si>
+    <t>Price_per</t>
+  </si>
+  <si>
+    <t>Rent_ROI_gross</t>
+  </si>
+  <si>
+    <t>Rent_ROI_gross_per</t>
+  </si>
+  <si>
+    <t>Rent_ROI_net</t>
+  </si>
+  <si>
+    <t>Rent_ROI_net_per</t>
+  </si>
+  <si>
+    <t>Idealista_price</t>
+  </si>
+  <si>
+    <t>Price_eum2</t>
+  </si>
+  <si>
+    <t>Inflation_CPI</t>
+  </si>
+  <si>
+    <t>CPI_1985</t>
+  </si>
+  <si>
+    <t>Overrated_inflation</t>
+  </si>
+  <si>
+    <t>Real_price_over</t>
+  </si>
+  <si>
+    <t>Real_price</t>
+  </si>
+  <si>
+    <t>Accum_Inflation</t>
+  </si>
+  <si>
+    <t>IR_yoy_per</t>
+  </si>
+  <si>
+    <t>Nominal_price_yoy_per</t>
+  </si>
+  <si>
+    <t>Real_price_yoy_per</t>
+  </si>
+  <si>
+    <t>Pop_yoy_per</t>
+  </si>
+  <si>
+    <t>Sales_yoy_per</t>
+  </si>
+  <si>
+    <t>Credit_yoy_per</t>
+  </si>
+  <si>
+    <t>Unemployment_yoy_per</t>
+  </si>
+  <si>
+    <t>Net_ROI_yoy_per</t>
+  </si>
+  <si>
+    <t>Rainbow_curve</t>
+  </si>
+  <si>
+    <t>RC_minus50</t>
+  </si>
+  <si>
+    <t>RC_plus50</t>
+  </si>
+  <si>
+    <t>RC_plus100</t>
+  </si>
+  <si>
+    <t>RC_minus100</t>
+  </si>
+  <si>
+    <t>Alt_rainbow</t>
+  </si>
+  <si>
+    <t>Price_idealista</t>
+  </si>
+  <si>
+    <t>Price_notaries</t>
+  </si>
+  <si>
+    <t>Sharp_change</t>
+  </si>
+  <si>
+    <t>Ide_1</t>
+  </si>
+  <si>
+    <t>Ide_2</t>
+  </si>
+  <si>
+    <t>Ide_3</t>
+  </si>
+  <si>
+    <t>Not_1</t>
+  </si>
+  <si>
+    <t>Not_2</t>
+  </si>
+  <si>
+    <t>Not_3</t>
+  </si>
+  <si>
+    <t>Construction_period</t>
+  </si>
+  <si>
+    <t>Topic</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1047,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1403,6 +1406,7 @@
     <xf numFmtId="1" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1486,16 +1490,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFFF5353"/>
+      <color rgb="FFFF7171"/>
+      <color rgb="FFFF0D0D"/>
+      <color rgb="FF5B9BD5"/>
+      <color rgb="FF00CC99"/>
+      <color rgb="FF00B050"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFFF9900"/>
       <color rgb="FF2F5597"/>
-      <color rgb="FF5B9BD5"/>
-      <color rgb="FFFF7171"/>
-      <color rgb="FF00CC99"/>
       <color rgb="FF00926C"/>
-      <color rgb="FFFF0D0D"/>
-      <color rgb="FF000000"/>
-      <color rgb="FFFF7979"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1798,7 +1802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1808,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2690B0BD-52DB-4489-B150-254A1D421995}">
   <dimension ref="A1:DL251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="AT51" sqref="AT51"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1899,10 +1903,10 @@
   <sheetData>
     <row r="1" spans="1:116" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="B1" s="121" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C1" s="121"/>
       <c r="D1" s="121"/>
@@ -1916,14 +1920,14 @@
       <c r="L1" s="121"/>
       <c r="M1" s="121"/>
       <c r="N1" s="20" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
       <c r="S1" s="122" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="T1" s="122"/>
       <c r="U1" s="122"/>
@@ -1938,7 +1942,7 @@
       <c r="AD1" s="122"/>
       <c r="AE1" s="122"/>
       <c r="AF1" s="20" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AG1" s="20"/>
       <c r="AH1" s="20"/>
@@ -1949,7 +1953,7 @@
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
       <c r="AO1" s="122" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="AP1" s="122"/>
       <c r="AQ1" s="122"/>
@@ -1961,17 +1965,17 @@
       <c r="AW1" s="122"/>
       <c r="AX1" s="122"/>
       <c r="AY1" s="20" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="AZ1" s="20"/>
       <c r="BA1" s="122" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="BB1" s="122"/>
       <c r="BC1" s="122"/>
       <c r="BD1" s="122"/>
       <c r="BE1" s="82" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="BF1" s="82"/>
       <c r="BG1" s="82"/>
@@ -1986,7 +1990,7 @@
       <c r="BP1" s="82"/>
       <c r="BQ1" s="82"/>
       <c r="BR1" s="122" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="BS1" s="122"/>
       <c r="BT1" s="122"/>
@@ -1995,13 +1999,13 @@
       <c r="BW1" s="122"/>
       <c r="BX1" s="122"/>
       <c r="BY1" s="20" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="BZ1" s="20"/>
       <c r="CA1" s="20"/>
       <c r="CB1" s="20"/>
       <c r="CC1" s="122" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="CD1" s="122"/>
       <c r="CE1" s="122"/>
@@ -2011,7 +2015,7 @@
       <c r="CI1" s="122"/>
       <c r="CJ1" s="122"/>
       <c r="CK1" s="20" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="CL1" s="20"/>
       <c r="CM1" s="20"/>
@@ -2020,7 +2024,7 @@
       <c r="CP1" s="20"/>
       <c r="CQ1" s="20"/>
       <c r="CR1" s="122" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="CS1" s="122"/>
       <c r="CT1" s="122"/>
@@ -2037,7 +2041,7 @@
       <c r="DE1" s="122"/>
       <c r="DF1" s="122"/>
       <c r="DG1" s="20" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="DH1" s="20"/>
       <c r="DI1" s="20"/>
@@ -2047,295 +2051,295 @@
     </row>
     <row r="2" spans="1:116" ht="48" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z2" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE2" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF2" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG2" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH2" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="103" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="128" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="AI2" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ2" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK2" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL2" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM2" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN2" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO2" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP2" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ2" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR2" s="103" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS2" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT2" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU2" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV2" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW2" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX2" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY2" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ2" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA2" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" s="19" t="s">
+      <c r="BB2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE2" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="L2" s="19" t="s">
+      <c r="BF2" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z2" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA2" s="18" t="s">
+      <c r="BG2" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH2" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI2" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="BJ2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK2" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL2" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="BM2" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="BN2" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="BO2" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP2" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="BQ2" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="BR2" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BS2" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="BT2" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="BU2" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="BV2" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX2" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="BY2" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="BZ2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB2" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="CC2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF2" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="CG2" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="CH2" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI2" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="CJ2" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="CK2" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL2" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM2" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN2" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="CO2" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="CP2" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="CQ2" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="CR2" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="CS2" s="18" t="s">
         <v>189</v>
-      </c>
-      <c r="AD2" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE2" s="96" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF2" s="103" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG2" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH2" s="103" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI2" s="103" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ2" s="103" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK2" s="103" t="s">
-        <v>211</v>
-      </c>
-      <c r="AL2" s="103" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM2" s="103" t="s">
-        <v>212</v>
-      </c>
-      <c r="AN2" s="103" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO2" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="AP2" s="103" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ2" s="103" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR2" s="103" t="s">
-        <v>216</v>
-      </c>
-      <c r="AS2" s="103" t="s">
-        <v>218</v>
-      </c>
-      <c r="AT2" s="103" t="s">
-        <v>217</v>
-      </c>
-      <c r="AU2" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV2" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW2" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX2" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY2" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="BA2" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB2" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC2" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD2" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE2" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF2" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="BG2" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="BH2" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="BI2" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="BJ2" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="BK2" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="BL2" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="BM2" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="BN2" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="BO2" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP2" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="BQ2" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="BR2" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BS2" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT2" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BU2" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="BV2" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="BW2" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="BX2" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="BY2" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="BZ2" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="CA2" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="CB2" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="CC2" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="CD2" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="CE2" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="CF2" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="CG2" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="CH2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="CI2" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="CJ2" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="CK2" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="CL2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="CM2" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="CN2" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="CO2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="CP2" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="CQ2" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="CR2" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="CS2" s="18" t="s">
-        <v>195</v>
       </c>
       <c r="CT2" s="18" t="s">
         <v>190</v>
@@ -2353,46 +2357,46 @@
         <v>194</v>
       </c>
       <c r="CY2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="CZ2" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="DA2" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="DB2" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="DC2" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="CZ2" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="DA2" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="DB2" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="DC2" s="19" t="s">
-        <v>124</v>
-      </c>
       <c r="DD2" s="18" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="DE2" s="18" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="DF2" s="18" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="DG2" s="18" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="DH2" s="19" t="s">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="DI2" s="19" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="DJ2" s="19" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="DK2" s="19" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="DL2" s="18" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:116" ht="16" x14ac:dyDescent="0.4">
@@ -2452,8 +2456,8 @@
       <c r="AL3" s="104"/>
       <c r="AM3" s="104"/>
       <c r="AN3" s="104"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="131"/>
+      <c r="AO3" s="131"/>
+      <c r="AP3" s="21"/>
       <c r="AQ3" s="134"/>
       <c r="AR3" s="129"/>
       <c r="AS3" s="129"/>
@@ -2613,8 +2617,8 @@
       <c r="AL4" s="104"/>
       <c r="AM4" s="104"/>
       <c r="AN4" s="104"/>
-      <c r="AO4" s="21"/>
-      <c r="AP4" s="131"/>
+      <c r="AO4" s="131"/>
+      <c r="AP4" s="21"/>
       <c r="AQ4" s="134"/>
       <c r="AR4" s="129"/>
       <c r="AS4" s="129"/>
@@ -2774,8 +2778,8 @@
       <c r="AL5" s="104"/>
       <c r="AM5" s="104"/>
       <c r="AN5" s="104"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="131"/>
+      <c r="AO5" s="131"/>
+      <c r="AP5" s="21"/>
       <c r="AQ5" s="134"/>
       <c r="AR5" s="129"/>
       <c r="AS5" s="129"/>
@@ -2935,8 +2939,8 @@
       <c r="AL6" s="104"/>
       <c r="AM6" s="104"/>
       <c r="AN6" s="104"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="131"/>
+      <c r="AO6" s="131"/>
+      <c r="AP6" s="21"/>
       <c r="AQ6" s="134"/>
       <c r="AR6" s="129"/>
       <c r="AS6" s="129"/>
@@ -3096,8 +3100,8 @@
       <c r="AL7" s="104"/>
       <c r="AM7" s="104"/>
       <c r="AN7" s="104"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="131"/>
+      <c r="AO7" s="131"/>
+      <c r="AP7" s="21"/>
       <c r="AQ7" s="134"/>
       <c r="AR7" s="129"/>
       <c r="AS7" s="129"/>
@@ -3259,8 +3263,8 @@
         <v>22.24</v>
       </c>
       <c r="AN8" s="119"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="131"/>
+      <c r="AO8" s="131"/>
+      <c r="AP8" s="21"/>
       <c r="AQ8" s="134"/>
       <c r="AR8" s="129"/>
       <c r="AS8" s="129"/>
@@ -3422,8 +3426,8 @@
         <v>23.789166666666663</v>
       </c>
       <c r="AN9" s="119"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="131"/>
+      <c r="AO9" s="131"/>
+      <c r="AP9" s="21"/>
       <c r="AQ9" s="134"/>
       <c r="AR9" s="129"/>
       <c r="AS9" s="129"/>
@@ -3586,8 +3590,8 @@
         <v>26.610833333333336</v>
       </c>
       <c r="AN10" s="119"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="131"/>
+      <c r="AO10" s="131"/>
+      <c r="AP10" s="21"/>
       <c r="AQ10" s="134"/>
       <c r="AR10" s="129"/>
       <c r="AS10" s="129"/>
@@ -3765,8 +3769,8 @@
         <v>35.909999999999997</v>
       </c>
       <c r="AN11" s="119"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="131"/>
+      <c r="AO11" s="131"/>
+      <c r="AP11" s="21"/>
       <c r="AQ11" s="134"/>
       <c r="AR11" s="129"/>
       <c r="AS11" s="129"/>
@@ -3944,8 +3948,8 @@
         <v>56.747500000000002</v>
       </c>
       <c r="AN12" s="119"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="131"/>
+      <c r="AO12" s="131"/>
+      <c r="AP12" s="21"/>
       <c r="AQ12" s="134"/>
       <c r="AR12" s="129"/>
       <c r="AS12" s="129"/>
@@ -4123,8 +4127,8 @@
         <v>95.59416666666668</v>
       </c>
       <c r="AN13" s="119"/>
-      <c r="AO13" s="21"/>
-      <c r="AP13" s="131"/>
+      <c r="AO13" s="131"/>
+      <c r="AP13" s="21"/>
       <c r="AQ13" s="134"/>
       <c r="AR13" s="129"/>
       <c r="AS13" s="129"/>
@@ -4302,8 +4306,8 @@
         <v>92.156666666666652</v>
       </c>
       <c r="AN14" s="119"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="131"/>
+      <c r="AO14" s="131"/>
+      <c r="AP14" s="21"/>
       <c r="AQ14" s="134"/>
       <c r="AR14" s="129"/>
       <c r="AS14" s="129"/>
@@ -4481,8 +4485,8 @@
         <v>82.542500000000004</v>
       </c>
       <c r="AN15" s="119"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="131"/>
+      <c r="AO15" s="131"/>
+      <c r="AP15" s="21"/>
       <c r="AQ15" s="134"/>
       <c r="AR15" s="129"/>
       <c r="AS15" s="129"/>
@@ -4660,8 +4664,8 @@
         <v>102.25166666666667</v>
       </c>
       <c r="AN16" s="119"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="131"/>
+      <c r="AO16" s="131"/>
+      <c r="AP16" s="21"/>
       <c r="AQ16" s="134"/>
       <c r="AR16" s="129"/>
       <c r="AS16" s="129"/>
@@ -4839,8 +4843,8 @@
         <v>125.8875</v>
       </c>
       <c r="AN17" s="119"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="131"/>
+      <c r="AO17" s="131"/>
+      <c r="AP17" s="21"/>
       <c r="AQ17" s="134"/>
       <c r="AR17" s="129"/>
       <c r="AS17" s="129"/>
@@ -5020,8 +5024,8 @@
         <v>193.33666666666667</v>
       </c>
       <c r="AN18" s="119"/>
-      <c r="AO18" s="21"/>
-      <c r="AP18" s="131"/>
+      <c r="AO18" s="131"/>
+      <c r="AP18" s="21"/>
       <c r="AQ18" s="134"/>
       <c r="AR18" s="129"/>
       <c r="AS18" s="129"/>
@@ -5203,8 +5207,8 @@
         <v>374.74166666666662</v>
       </c>
       <c r="AN19" s="119"/>
-      <c r="AO19" s="21"/>
-      <c r="AP19" s="131"/>
+      <c r="AO19" s="131"/>
+      <c r="AP19" s="21"/>
       <c r="AQ19" s="134"/>
       <c r="AR19" s="129"/>
       <c r="AS19" s="129"/>
@@ -5292,7 +5296,7 @@
       </c>
       <c r="CX19" s="98"/>
       <c r="CY19" s="33">
-        <f t="shared" ref="CY19:CY61" si="17">(AE19-AE18)</f>
+        <f t="shared" ref="CY19:CY60" si="17">(AE19-AE18)</f>
         <v>-1.6747500000000013</v>
       </c>
       <c r="CZ19" s="28"/>
@@ -5392,8 +5396,8 @@
         <v>356.03</v>
       </c>
       <c r="AN20" s="119"/>
-      <c r="AO20" s="21"/>
-      <c r="AP20" s="131"/>
+      <c r="AO20" s="131"/>
+      <c r="AP20" s="21"/>
       <c r="AQ20" s="134"/>
       <c r="AR20" s="129"/>
       <c r="AS20" s="129"/>
@@ -5581,8 +5585,8 @@
         <v>348.6608333333333</v>
       </c>
       <c r="AN21" s="119"/>
-      <c r="AO21" s="21"/>
-      <c r="AP21" s="131"/>
+      <c r="AO21" s="131"/>
+      <c r="AP21" s="21"/>
       <c r="AQ21" s="134"/>
       <c r="AR21" s="129"/>
       <c r="AS21" s="129"/>
@@ -5770,8 +5774,8 @@
         <v>437.62833333333333</v>
       </c>
       <c r="AN22" s="119"/>
-      <c r="AO22" s="21"/>
-      <c r="AP22" s="131"/>
+      <c r="AO22" s="131"/>
+      <c r="AP22" s="21"/>
       <c r="AQ22" s="134"/>
       <c r="AR22" s="129"/>
       <c r="AS22" s="129"/>
@@ -5959,8 +5963,8 @@
         <v>424.69833333333332</v>
       </c>
       <c r="AN23" s="119"/>
-      <c r="AO23" s="21"/>
-      <c r="AP23" s="131"/>
+      <c r="AO23" s="131"/>
+      <c r="AP23" s="21"/>
       <c r="AQ23" s="134"/>
       <c r="AR23" s="129"/>
       <c r="AS23" s="129"/>
@@ -6159,8 +6163,8 @@
         <f t="shared" ref="AN24:AN61" si="22">CR24*100/AM24</f>
         <v>52.164351802525537</v>
       </c>
-      <c r="AO24" s="21"/>
-      <c r="AP24" s="131"/>
+      <c r="AO24" s="131"/>
+      <c r="AP24" s="21"/>
       <c r="AQ24" s="134"/>
       <c r="AR24" s="129"/>
       <c r="AS24" s="129"/>
@@ -6372,8 +6376,8 @@
         <f t="shared" si="22"/>
         <v>70.117125293651384</v>
       </c>
-      <c r="AO25" s="21"/>
-      <c r="AP25" s="131"/>
+      <c r="AO25" s="131"/>
+      <c r="AP25" s="21"/>
       <c r="AQ25" s="134"/>
       <c r="AR25" s="129"/>
       <c r="AS25" s="129"/>
@@ -6487,7 +6491,7 @@
         <v>10.807843137254903</v>
       </c>
       <c r="DB25" s="33">
-        <f t="shared" ref="DB25:DB61" si="27">(B26*100/B25)-100</f>
+        <f>(B26*100/B25)-100</f>
         <v>0.24652273199086494</v>
       </c>
       <c r="DC25" s="33"/>
@@ -6600,8 +6604,8 @@
         <f t="shared" si="22"/>
         <v>84.242388326411913</v>
       </c>
-      <c r="AO26" s="21"/>
-      <c r="AP26" s="131"/>
+      <c r="AO26" s="131"/>
+      <c r="AP26" s="21"/>
       <c r="AQ26" s="134"/>
       <c r="AR26" s="129"/>
       <c r="AS26" s="129"/>
@@ -6707,7 +6711,7 @@
         <v>2.8503333333333316</v>
       </c>
       <c r="CZ26" s="33">
-        <f t="shared" ref="CZ26:CZ61" si="28">(CR26*100/CR25)-100</f>
+        <f t="shared" ref="CZ26:CZ61" si="27">(CR26*100/CR25)-100</f>
         <v>26.229508196721312</v>
       </c>
       <c r="DA26" s="33">
@@ -6715,7 +6719,7 @@
         <v>20.969508196721314</v>
       </c>
       <c r="DB26" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="DB26:DB61" si="28">(B27*100/B26)-100</f>
         <v>0.22003054541688982</v>
       </c>
       <c r="DC26" s="33"/>
@@ -6828,8 +6832,8 @@
         <f t="shared" si="22"/>
         <v>115.51088234102056</v>
       </c>
-      <c r="AO27" s="21"/>
-      <c r="AP27" s="131"/>
+      <c r="AO27" s="131"/>
+      <c r="AP27" s="21"/>
       <c r="AQ27" s="134"/>
       <c r="AR27" s="129"/>
       <c r="AS27" s="129"/>
@@ -6935,15 +6939,15 @@
         <v>-2.7627499999999969</v>
       </c>
       <c r="CZ27" s="33">
+        <f t="shared" si="27"/>
+        <v>31.087662337662351</v>
+      </c>
+      <c r="DA27" s="33">
+        <f t="shared" ref="DA27:DA60" si="31">CZ27-CS27</f>
+        <v>26.257662337662353</v>
+      </c>
+      <c r="DB27" s="33">
         <f t="shared" si="28"/>
-        <v>31.087662337662351</v>
-      </c>
-      <c r="DA27" s="33">
-        <f t="shared" ref="DA27:DA61" si="31">CZ27-CS27</f>
-        <v>26.257662337662353</v>
-      </c>
-      <c r="DB27" s="33">
-        <f t="shared" si="27"/>
         <v>0.19630127079243209</v>
       </c>
       <c r="DC27" s="33"/>
@@ -7056,8 +7060,8 @@
         <f t="shared" si="22"/>
         <v>156.04984278560616</v>
       </c>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="131"/>
+      <c r="AO28" s="131"/>
+      <c r="AP28" s="21"/>
       <c r="AQ28" s="134"/>
       <c r="AR28" s="129"/>
       <c r="AS28" s="129"/>
@@ -7163,7 +7167,7 @@
         <v>3.3411666666666662</v>
       </c>
       <c r="CZ28" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>24.45820433436532</v>
       </c>
       <c r="DA28" s="33">
@@ -7171,7 +7175,7 @@
         <v>17.668204334365321</v>
       </c>
       <c r="DB28" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.15209321509590268</v>
       </c>
       <c r="DC28" s="33"/>
@@ -7284,8 +7288,8 @@
         <f t="shared" si="22"/>
         <v>203.32421777888271</v>
       </c>
-      <c r="AO29" s="21"/>
-      <c r="AP29" s="131"/>
+      <c r="AO29" s="131"/>
+      <c r="AP29" s="21"/>
       <c r="AQ29" s="134"/>
       <c r="AR29" s="129"/>
       <c r="AS29" s="129"/>
@@ -7391,7 +7395,7 @@
         <v>0.29508333333333248</v>
       </c>
       <c r="CZ29" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>13.930348258706474</v>
       </c>
       <c r="DA29" s="33">
@@ -7399,7 +7403,7 @@
         <v>7.2103482587064738</v>
       </c>
       <c r="DB29" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.2290803325525701</v>
       </c>
       <c r="DC29" s="33"/>
@@ -7512,8 +7516,8 @@
         <f t="shared" si="22"/>
         <v>210.49642355691876</v>
       </c>
-      <c r="AO30" s="21"/>
-      <c r="AP30" s="131"/>
+      <c r="AO30" s="131"/>
+      <c r="AP30" s="21"/>
       <c r="AQ30" s="134"/>
       <c r="AR30" s="129"/>
       <c r="AS30" s="129"/>
@@ -7654,7 +7658,7 @@
         <v>-2.3616666666666646</v>
       </c>
       <c r="CZ30" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1.692139737991269</v>
       </c>
       <c r="DA30" s="33">
@@ -7662,7 +7666,7 @@
         <v>-4.2478602620087313</v>
       </c>
       <c r="DB30" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.32871083718541172</v>
       </c>
       <c r="DC30" s="33"/>
@@ -7775,8 +7779,8 @@
         <f t="shared" si="22"/>
         <v>227.3406849054</v>
       </c>
-      <c r="AO31" s="21"/>
-      <c r="AP31" s="131"/>
+      <c r="AO31" s="131"/>
+      <c r="AP31" s="21"/>
       <c r="AQ31" s="134"/>
       <c r="AR31" s="129"/>
       <c r="AS31" s="129"/>
@@ -7920,7 +7924,7 @@
         <v>0.22783333333333111</v>
       </c>
       <c r="CZ31" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-0.96618357487922424</v>
       </c>
       <c r="DA31" s="33">
@@ -7928,7 +7932,7 @@
         <v>-6.896183574879224</v>
       </c>
       <c r="DB31" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.3122760315347648</v>
       </c>
       <c r="DC31" s="33"/>
@@ -8041,8 +8045,8 @@
         <f t="shared" si="22"/>
         <v>186.99048913043481</v>
       </c>
-      <c r="AO32" s="21"/>
-      <c r="AP32" s="131"/>
+      <c r="AO32" s="131"/>
+      <c r="AP32" s="21"/>
       <c r="AQ32" s="134"/>
       <c r="AR32" s="129"/>
       <c r="AS32" s="129"/>
@@ -8186,7 +8190,7 @@
         <v>-2.3956666666666635</v>
       </c>
       <c r="CZ32" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-0.5420054200541955</v>
       </c>
       <c r="DA32" s="33">
@@ -8194,7 +8198,7 @@
         <v>-5.1120054200541949</v>
       </c>
       <c r="DB32" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.26792549119673481</v>
       </c>
       <c r="DC32" s="33"/>
@@ -8307,8 +8311,8 @@
         <f t="shared" si="22"/>
         <v>185.68245256636499</v>
       </c>
-      <c r="AO33" s="21"/>
-      <c r="AP33" s="131"/>
+      <c r="AO33" s="131"/>
+      <c r="AP33" s="21"/>
       <c r="AQ33" s="134"/>
       <c r="AR33" s="129"/>
       <c r="AS33" s="129"/>
@@ -8452,7 +8456,7 @@
         <v>-1.8360833333333364</v>
       </c>
       <c r="CZ33" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>3.0517711171662114</v>
       </c>
       <c r="DA33" s="33">
@@ -8460,7 +8464,7 @@
         <v>-1.6682288828337883</v>
       </c>
       <c r="DB33" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.23412647919582241</v>
       </c>
       <c r="DC33" s="33"/>
@@ -8583,8 +8587,8 @@
         <f t="shared" si="22"/>
         <v>211.1497388326205</v>
       </c>
-      <c r="AO34" s="35"/>
-      <c r="AP34" s="132"/>
+      <c r="AO34" s="132"/>
+      <c r="AP34" s="35"/>
       <c r="AQ34" s="107"/>
       <c r="AR34" s="109"/>
       <c r="AS34" s="109"/>
@@ -8728,7 +8732,7 @@
         <v>0.92008333333333603</v>
       </c>
       <c r="CZ34" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>3.8075092543627704</v>
       </c>
       <c r="DA34" s="33">
@@ -8736,7 +8740,7 @@
         <v>-0.86249074563722949</v>
       </c>
       <c r="DB34" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.23104069870770161</v>
       </c>
       <c r="DC34" s="33"/>
@@ -8862,8 +8866,8 @@
         <f t="shared" si="22"/>
         <v>207.96017828133466</v>
       </c>
-      <c r="AO35" s="35"/>
-      <c r="AP35" s="132"/>
+      <c r="AO35" s="132"/>
+      <c r="AP35" s="35"/>
       <c r="AQ35" s="107"/>
       <c r="AR35" s="109"/>
       <c r="AS35" s="109"/>
@@ -9007,7 +9011,7 @@
         <v>-2.6413333333333346</v>
       </c>
       <c r="CZ35" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1.7320427916454406</v>
       </c>
       <c r="DA35" s="33">
@@ -9015,7 +9019,7 @@
         <v>-1.8279572083545594</v>
       </c>
       <c r="DB35" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.26343786412685688</v>
       </c>
       <c r="DC35" s="33"/>
@@ -9143,8 +9147,8 @@
         <f t="shared" si="22"/>
         <v>220.05999560450854</v>
       </c>
-      <c r="AO36" s="35"/>
-      <c r="AP36" s="132"/>
+      <c r="AO36" s="132"/>
+      <c r="AP36" s="35"/>
       <c r="AQ36" s="107"/>
       <c r="AR36" s="109"/>
       <c r="AS36" s="109"/>
@@ -9288,7 +9292,7 @@
         <v>-2.1580833333333338</v>
       </c>
       <c r="CZ36" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2.9544316474712105</v>
       </c>
       <c r="DA36" s="33">
@@ -9296,7 +9300,7 @@
         <v>0.98443164747121048</v>
       </c>
       <c r="DB36" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.35116972361174703</v>
       </c>
       <c r="DC36" s="33"/>
@@ -9424,8 +9428,8 @@
         <f t="shared" si="22"/>
         <v>253.45734550159446</v>
       </c>
-      <c r="AO37" s="35"/>
-      <c r="AP37" s="132"/>
+      <c r="AO37" s="132"/>
+      <c r="AP37" s="35"/>
       <c r="AQ37" s="107"/>
       <c r="AR37" s="109"/>
       <c r="AS37" s="109"/>
@@ -9569,7 +9573,7 @@
         <v>-1.1930000000000005</v>
       </c>
       <c r="CZ37" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>4.4260700389105097</v>
       </c>
       <c r="DA37" s="33">
@@ -9577,7 +9581,7 @@
         <v>2.5960700389105096</v>
       </c>
       <c r="DB37" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.51861735605851322</v>
       </c>
       <c r="DC37" s="33"/>
@@ -9707,38 +9711,38 @@
         <f t="shared" si="22"/>
         <v>275.34304777491036</v>
       </c>
-      <c r="AO38" s="34">
-        <f>AP38/D38</f>
+      <c r="AO38" s="133">
+        <v>376354000000</v>
+      </c>
+      <c r="AP38" s="34">
+        <f t="shared" ref="AP38:AP61" si="46">AO38/D38</f>
         <v>11532.988286089596</v>
       </c>
-      <c r="AP38" s="133">
-        <v>376354000000</v>
-      </c>
       <c r="AQ38" s="119">
-        <f>AO38</f>
+        <f>AP38</f>
         <v>11532.988286089596</v>
       </c>
       <c r="AR38" s="119">
-        <f>AO38</f>
+        <f>AP38</f>
         <v>11532.988286089596</v>
       </c>
       <c r="AS38" s="119">
-        <f>((AR38+(AQ38-AO38))-AO38)+$AO$38</f>
+        <f t="shared" ref="AS38:AS61" si="47">((AR38+(AQ38-AP38))-AP38)+$AP$38</f>
         <v>11532.988286089596</v>
       </c>
       <c r="AT38" s="119">
         <v>100</v>
       </c>
       <c r="AU38" s="37">
-        <f>V38/AO38</f>
+        <f t="shared" ref="AU38:AU61" si="48">V38/AP38</f>
         <v>5.3610753960825992</v>
       </c>
       <c r="AV38" s="34">
-        <f t="shared" ref="AV38:AV41" si="46">V38/5</f>
+        <f t="shared" ref="AV38:AV61" si="49">V38/5</f>
         <v>12365.843948772752</v>
       </c>
       <c r="AW38" s="34">
-        <f>100-((AO38*100)/AV38)</f>
+        <f t="shared" ref="AW38:AW61" si="50">100-((AP38*100)/AV38)</f>
         <v>6.7351299768408666</v>
       </c>
       <c r="AX38" s="10">
@@ -9877,7 +9881,7 @@
         <v>-0.85000000000000009</v>
       </c>
       <c r="CZ38" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>8.6632510479739153</v>
       </c>
       <c r="DA38" s="33">
@@ -9885,7 +9889,7 @@
         <v>6.3532510479739148</v>
       </c>
       <c r="DB38" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.84404037368196327</v>
       </c>
       <c r="DC38" s="33"/>
@@ -10015,12 +10019,12 @@
         <f t="shared" si="22"/>
         <v>269.71473956286633</v>
       </c>
-      <c r="AO39" s="34">
-        <f t="shared" ref="AO39:AO61" si="47">AP39/D39</f>
+      <c r="AO39" s="133">
+        <v>410675000000</v>
+      </c>
+      <c r="AP39" s="34">
+        <f t="shared" si="46"/>
         <v>12461.740854901367</v>
-      </c>
-      <c r="AP39" s="133">
-        <v>410675000000</v>
       </c>
       <c r="AQ39" s="119">
         <f>AQ38*(1+(CS39/100))</f>
@@ -10031,7 +10035,7 @@
         <v>12847.936800491583</v>
       </c>
       <c r="AS39" s="119">
-        <f t="shared" ref="AS39:AS61" si="48">((AR39+(AQ39-AO39))-AO39)+$AO$38</f>
+        <f t="shared" si="47"/>
         <v>11386.013161080913</v>
       </c>
       <c r="AT39" s="119">
@@ -10039,15 +10043,15 @@
         <v>98.725611078735284</v>
       </c>
       <c r="AU39" s="37">
-        <f t="shared" ref="AU39:AU41" si="49">V39/AO39</f>
+        <f t="shared" si="48"/>
         <v>5.5420327406372634</v>
       </c>
       <c r="AV39" s="34">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>13812.675164640075</v>
       </c>
       <c r="AW39" s="34">
-        <f t="shared" ref="AW39:AW41" si="50">100-((AO39*100)/AV39)</f>
+        <f t="shared" si="50"/>
         <v>9.7803958584145221</v>
       </c>
       <c r="AX39" s="10">
@@ -10186,7 +10190,7 @@
         <v>1.6181666666666676</v>
       </c>
       <c r="CZ39" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>11.401628804114878</v>
       </c>
       <c r="DA39" s="33">
@@ -10194,7 +10198,7 @@
         <v>7.9716288041148786</v>
       </c>
       <c r="DB39" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.52652493542618117</v>
       </c>
       <c r="DC39" s="33"/>
@@ -10324,15 +10328,15 @@
         <f t="shared" si="22"/>
         <v>293.2687831673029</v>
       </c>
-      <c r="AO40" s="34">
-        <f t="shared" si="47"/>
+      <c r="AO40" s="133">
+        <v>442044000000</v>
+      </c>
+      <c r="AP40" s="34">
+        <f t="shared" si="46"/>
         <v>13289.187559203525</v>
       </c>
-      <c r="AP40" s="133">
-        <v>442044000000</v>
-      </c>
       <c r="AQ40" s="119">
-        <f t="shared" ref="AQ40:AQ61" si="51">AQ39*(1+(CS40/100))</f>
+        <f t="shared" ref="AQ40:AQ60" si="51">AQ39*(1+(CS40/100))</f>
         <v>12356.805439558928</v>
       </c>
       <c r="AR40" s="119">
@@ -10340,7 +10344,7 @@
         <v>14118.394575684481</v>
       </c>
       <c r="AS40" s="119">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>11429.813182925955</v>
       </c>
       <c r="AT40" s="119">
@@ -10348,11 +10352,11 @@
         <v>99.105391416307214</v>
       </c>
       <c r="AU40" s="37">
+        <f t="shared" si="48"/>
+        <v>5.692190590590176</v>
+      </c>
+      <c r="AV40" s="34">
         <f t="shared" si="49"/>
-        <v>5.692190590590176</v>
-      </c>
-      <c r="AV40" s="34">
-        <f t="shared" si="46"/>
         <v>15128.917676217266</v>
       </c>
       <c r="AW40" s="34">
@@ -10495,7 +10499,7 @@
         <v>-0.69641666666666691</v>
       </c>
       <c r="CZ40" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>9.8884186225471353</v>
       </c>
       <c r="DA40" s="33">
@@ -10503,7 +10507,7 @@
         <v>6.2984186225471355</v>
       </c>
       <c r="DB40" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.3810653226603478</v>
       </c>
       <c r="DC40" s="33"/>
@@ -10553,7 +10557,7 @@
         <v>16417960</v>
       </c>
       <c r="D41" s="126">
-        <v>33673697</v>
+        <v>33673695.183534995</v>
       </c>
       <c r="E41" s="10">
         <f t="shared" si="38"/>
@@ -10633,12 +10637,12 @@
         <f t="shared" si="22"/>
         <v>305.7219634901553</v>
       </c>
-      <c r="AO41" s="34">
-        <f t="shared" si="47"/>
-        <v>13869.014738714315</v>
-      </c>
-      <c r="AP41" s="133">
+      <c r="AO41" s="133">
         <v>467021000000</v>
+      </c>
+      <c r="AP41" s="34">
+        <f t="shared" si="46"/>
+        <v>13869.015486852581</v>
       </c>
       <c r="AQ41" s="119">
         <f t="shared" si="51"/>
@@ -10649,24 +10653,24 @@
         <v>15957.345129660191</v>
       </c>
       <c r="AS41" s="119">
-        <f t="shared" si="48"/>
-        <v>12488.463304874542</v>
+        <f t="shared" si="47"/>
+        <v>12488.461808598011</v>
       </c>
       <c r="AT41" s="119">
         <f t="shared" si="53"/>
-        <v>108.2847133378032</v>
+        <v>108.28470036391913</v>
       </c>
       <c r="AU41" s="37">
+        <f t="shared" si="48"/>
+        <v>6.1617898561173376</v>
+      </c>
+      <c r="AV41" s="34">
         <f t="shared" si="49"/>
-        <v>6.1617901885036579</v>
-      </c>
-      <c r="AV41" s="34">
-        <f t="shared" si="46"/>
         <v>17091.591788244499</v>
       </c>
       <c r="AW41" s="34">
         <f t="shared" si="50"/>
-        <v>18.854750859113395</v>
+        <v>18.854746481883495</v>
       </c>
       <c r="AX41" s="10">
         <v>442</v>
@@ -10804,7 +10808,7 @@
         <v>-0.58236666666666714</v>
       </c>
       <c r="CZ41" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>13.025210084033617</v>
       </c>
       <c r="DA41" s="33">
@@ -10812,7 +10816,7 @@
         <v>9.9552100840336166</v>
       </c>
       <c r="DB41" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.9300597051297643</v>
       </c>
       <c r="DC41" s="33"/>
@@ -10862,7 +10866,7 @@
         <v>16984055</v>
       </c>
       <c r="D42" s="127">
-        <v>34394753</v>
+        <v>34394751.119045995</v>
       </c>
       <c r="E42" s="10">
         <f>C42/26</f>
@@ -10974,12 +10978,12 @@
         <f t="shared" si="22"/>
         <v>362.01104749491844</v>
       </c>
-      <c r="AO42" s="34">
-        <f t="shared" si="47"/>
-        <v>14544.28237935013</v>
-      </c>
-      <c r="AP42" s="133">
+      <c r="AO42" s="133">
         <v>500247000000</v>
+      </c>
+      <c r="AP42" s="34">
+        <f t="shared" si="46"/>
+        <v>14544.283174736789</v>
       </c>
       <c r="AQ42" s="119">
         <f t="shared" si="51"/>
@@ -10990,24 +10994,24 @@
         <v>18453.769940836894</v>
       </c>
       <c r="AS42" s="119">
-        <f t="shared" si="48"/>
-        <v>14021.53207952284</v>
+        <f t="shared" si="47"/>
+        <v>14021.530488749522</v>
       </c>
       <c r="AT42" s="119">
         <f t="shared" si="53"/>
-        <v>121.57761485316669</v>
+        <v>121.5776010599218</v>
       </c>
       <c r="AU42" s="37">
-        <f>V42/AO42</f>
-        <v>6.6831838089328706</v>
+        <f t="shared" si="48"/>
+        <v>6.6831834434480148</v>
       </c>
       <c r="AV42" s="34">
-        <f>V42/5</f>
+        <f t="shared" si="49"/>
         <v>19440.422502044086</v>
       </c>
       <c r="AW42" s="34">
-        <f>100-((AO42*100)/AV42)</f>
-        <v>25.185358611311784</v>
+        <f t="shared" si="50"/>
+        <v>25.185354519905559</v>
       </c>
       <c r="AX42" s="10">
         <v>451</v>
@@ -11145,7 +11149,7 @@
         <v>-1.1912545454545458</v>
       </c>
       <c r="CZ42" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>15.644361833952914</v>
       </c>
       <c r="DA42" s="33">
@@ -11153,7 +11157,7 @@
         <v>12.604361833952915</v>
       </c>
       <c r="DB42" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.7213761445955953</v>
       </c>
       <c r="DC42" s="33"/>
@@ -11203,7 +11207,7 @@
         <v>17468532</v>
       </c>
       <c r="D43" s="127">
-        <v>35021214</v>
+        <v>35021216.215986006</v>
       </c>
       <c r="E43" s="10">
         <f t="shared" ref="E43:E105" si="62">C43/26</f>
@@ -11315,12 +11319,12 @@
         <f t="shared" si="22"/>
         <v>411.98978622508304</v>
       </c>
-      <c r="AO43" s="34">
-        <f t="shared" si="47"/>
-        <v>15066.525106753867</v>
-      </c>
-      <c r="AP43" s="133">
+      <c r="AO43" s="133">
         <v>527648000000</v>
+      </c>
+      <c r="AP43" s="34">
+        <f t="shared" si="46"/>
+        <v>15066.52415341151</v>
       </c>
       <c r="AQ43" s="119">
         <f t="shared" si="51"/>
@@ -11331,24 +11335,24 @@
         <v>21439.592883313584</v>
       </c>
       <c r="AS43" s="119">
-        <f t="shared" si="48"/>
-        <v>16361.819060975471</v>
+        <f t="shared" si="47"/>
+        <v>16361.820967660185</v>
       </c>
       <c r="AT43" s="119">
         <f t="shared" si="53"/>
-        <v>141.86972755976979</v>
+        <v>141.86974409221278</v>
       </c>
       <c r="AU43" s="37">
-        <f>V43/AO43</f>
-        <v>7.319194155785806</v>
+        <f t="shared" si="48"/>
+        <v>7.3191946189117223</v>
       </c>
       <c r="AV43" s="34">
-        <f>V43/5</f>
+        <f t="shared" si="49"/>
         <v>22054.964501870603</v>
       </c>
       <c r="AW43" s="34">
-        <f t="shared" ref="AW43:AW61" si="63">100-((AO43*100)/AV43)</f>
-        <v>31.686468570484465</v>
+        <f t="shared" si="50"/>
+        <v>31.68647289305936</v>
       </c>
       <c r="AX43" s="10">
         <v>460</v>
@@ -11418,7 +11422,7 @@
         <v>22417950</v>
       </c>
       <c r="BS43" s="34">
-        <f t="shared" ref="BS43:BS58" si="64">BR43-BR42</f>
+        <f t="shared" ref="BS43:BS58" si="63">BR43-BR42</f>
         <v>491541</v>
       </c>
       <c r="BT43" s="10">
@@ -11426,7 +11430,7 @@
         <v>526.89848873011022</v>
       </c>
       <c r="BU43" s="30">
-        <f t="shared" ref="BU43:BU59" si="65">(BR43*100/BR42)-100</f>
+        <f t="shared" ref="BU43:BU59" si="64">(BR43*100/BR42)-100</f>
         <v>2.241776115733316</v>
       </c>
       <c r="BV43" s="30">
@@ -11434,7 +11438,7 @@
         <v>1.7213761445955953</v>
       </c>
       <c r="BW43" s="30">
-        <f t="shared" ref="BW43:BW59" si="66">BU43-BV43</f>
+        <f t="shared" ref="BW43:BW59" si="65">BU43-BV43</f>
         <v>0.52039997113772074</v>
       </c>
       <c r="BX43" s="10">
@@ -11490,7 +11494,7 @@
         <v>-2.4154545454544873E-2</v>
       </c>
       <c r="CZ43" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>16.180016072863651</v>
       </c>
       <c r="DA43" s="33">
@@ -11498,15 +11502,15 @@
         <v>13.140016072863652</v>
       </c>
       <c r="DB43" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.7604061390932344</v>
       </c>
       <c r="DC43" s="33">
-        <f t="shared" ref="DC43:DC61" si="67">(N43*100/N42)-100</f>
+        <f t="shared" ref="DC43:DC61" si="66">(N43*100/N42)-100</f>
         <v>11.94869011631846</v>
       </c>
       <c r="DD43" s="33">
-        <f t="shared" ref="DD43:DD61" si="68">(S43*100/S42)-100</f>
+        <f t="shared" ref="DD43:DD61" si="67">(S43*100/S42)-100</f>
         <v>11.948690116318446</v>
       </c>
       <c r="DE43" s="37">
@@ -11552,7 +11556,7 @@
         <v>17953604</v>
       </c>
       <c r="D44" s="127">
-        <v>35680163</v>
+        <v>35680161.197958998</v>
       </c>
       <c r="E44" s="10">
         <f t="shared" si="62"/>
@@ -11609,7 +11613,7 @@
         <v>156946440</v>
       </c>
       <c r="V44" s="10">
-        <f t="shared" ref="V44:V61" si="69">U44*1000/S44</f>
+        <f t="shared" ref="V44:V61" si="68">U44*1000/S44</f>
         <v>124797.08781636322</v>
       </c>
       <c r="W44" s="22"/>
@@ -11664,12 +11668,12 @@
         <f t="shared" si="22"/>
         <v>421.82556059980743</v>
       </c>
-      <c r="AO44" s="34">
-        <f t="shared" si="47"/>
-        <v>15783.0837263832</v>
-      </c>
-      <c r="AP44" s="133">
+      <c r="AO44" s="133">
         <v>563143000000</v>
+      </c>
+      <c r="AP44" s="34">
+        <f t="shared" si="46"/>
+        <v>15783.084523514241</v>
       </c>
       <c r="AQ44" s="119">
         <f t="shared" si="51"/>
@@ -11680,24 +11684,24 @@
         <v>24252.396284421589</v>
       </c>
       <c r="AS44" s="119">
-        <f t="shared" si="48"/>
-        <v>18197.206331966008</v>
+        <f t="shared" si="47"/>
+        <v>18197.204737703927</v>
       </c>
       <c r="AT44" s="119">
         <f t="shared" si="53"/>
-        <v>157.78396613750482</v>
+        <v>157.78395231400964</v>
       </c>
       <c r="AU44" s="37">
-        <f>V44/AO44</f>
-        <v>7.9070155097606714</v>
+        <f t="shared" si="48"/>
+        <v>7.9070151104136688</v>
       </c>
       <c r="AV44" s="34">
-        <f t="shared" ref="AV44:AV61" si="70">V44/5</f>
+        <f t="shared" si="49"/>
         <v>24959.417563272644</v>
       </c>
       <c r="AW44" s="34">
-        <f t="shared" si="63"/>
-        <v>36.765015904827287</v>
+        <f t="shared" si="50"/>
+        <v>36.765012711118786</v>
       </c>
       <c r="AX44" s="10">
         <v>490</v>
@@ -11769,7 +11773,7 @@
         <v>22927382</v>
       </c>
       <c r="BS44" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>509432</v>
       </c>
       <c r="BT44" s="10">
@@ -11777,7 +11781,7 @@
         <v>529.54965816703623</v>
       </c>
       <c r="BU44" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>2.2724290133575948</v>
       </c>
       <c r="BV44" s="30">
@@ -11785,7 +11789,7 @@
         <v>1.7604061390932344</v>
       </c>
       <c r="BW44" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.51202287426436044</v>
       </c>
       <c r="BX44" s="10">
@@ -11841,7 +11845,7 @@
         <v>5.7263636363636294E-2</v>
       </c>
       <c r="CZ44" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>13.119667973253399</v>
       </c>
       <c r="DA44" s="33">
@@ -11849,15 +11853,15 @@
         <v>9.7496679732533984</v>
       </c>
       <c r="DB44" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.6468033998521747</v>
       </c>
       <c r="DC44" s="33">
+        <f t="shared" si="66"/>
+        <v>13.537408455993855</v>
+      </c>
+      <c r="DD44" s="33">
         <f t="shared" si="67"/>
-        <v>13.537408455993855</v>
-      </c>
-      <c r="DD44" s="33">
-        <f t="shared" si="68"/>
         <v>13.537408455993869</v>
       </c>
       <c r="DE44" s="37">
@@ -11903,7 +11907,7 @@
         <v>18401584</v>
       </c>
       <c r="D45" s="127">
-        <v>36280528</v>
+        <v>36280525.295378998</v>
       </c>
       <c r="E45" s="10">
         <f t="shared" si="62"/>
@@ -11959,7 +11963,7 @@
         <v>188339112</v>
       </c>
       <c r="V45" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>140324.22992301278</v>
       </c>
       <c r="W45" s="22">
@@ -12018,12 +12022,12 @@
         <f t="shared" si="22"/>
         <v>350.92564867683348</v>
       </c>
-      <c r="AO45" s="34">
-        <f t="shared" si="47"/>
-        <v>16394.11091260855</v>
-      </c>
-      <c r="AP45" s="133">
+      <c r="AO45" s="133">
         <v>594787000000</v>
+      </c>
+      <c r="AP45" s="34">
+        <f t="shared" si="46"/>
+        <v>16394.112134747873</v>
       </c>
       <c r="AQ45" s="119">
         <f t="shared" si="51"/>
@@ -12034,24 +12038,24 @@
         <v>26882.29331322556</v>
       </c>
       <c r="AS45" s="119">
-        <f t="shared" si="48"/>
-        <v>20097.074208659862</v>
+        <f t="shared" si="47"/>
+        <v>20097.07176438122</v>
       </c>
       <c r="AT45" s="119">
         <f t="shared" si="53"/>
-        <v>174.25730183823873</v>
+        <v>174.25728064443726</v>
       </c>
       <c r="AU45" s="37">
-        <f t="shared" ref="AU45:AU61" si="71">V45/AO45</f>
-        <v>8.5594290944494453</v>
+        <f t="shared" si="48"/>
+        <v>8.5594284563657972</v>
       </c>
       <c r="AV45" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>28064.845984602558</v>
       </c>
       <c r="AW45" s="34">
-        <f t="shared" si="63"/>
-        <v>41.584889075810416</v>
+        <f t="shared" si="50"/>
+        <v>41.584884721112289</v>
       </c>
       <c r="AX45" s="10">
         <v>513</v>
@@ -12123,7 +12127,7 @@
         <v>23493772</v>
       </c>
       <c r="BS45" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>566390</v>
       </c>
       <c r="BT45" s="10">
@@ -12131,7 +12135,7 @@
         <v>533.84016905632939</v>
       </c>
       <c r="BU45" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>2.4703649112663584</v>
       </c>
       <c r="BV45" s="30">
@@ -12139,7 +12143,7 @@
         <v>1.6468033998521747</v>
       </c>
       <c r="BW45" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.82356151141418366</v>
       </c>
       <c r="BX45" s="10">
@@ -12197,7 +12201,7 @@
         <v>1.1549363636363634</v>
       </c>
       <c r="CZ45" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>10.843864655523845</v>
       </c>
       <c r="DA45" s="33">
@@ -12205,15 +12209,15 @@
         <v>7.3238646555238454</v>
       </c>
       <c r="DB45" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.7610034311163645</v>
       </c>
       <c r="DC45" s="33">
+        <f t="shared" si="66"/>
+        <v>6.7236900381913927</v>
+      </c>
+      <c r="DD45" s="33">
         <f t="shared" si="67"/>
-        <v>6.7236900381913927</v>
-      </c>
-      <c r="DD45" s="33">
-        <f t="shared" si="68"/>
         <v>6.7236900381913927</v>
       </c>
       <c r="DE45" s="38">
@@ -12259,7 +12263,7 @@
         <v>18807430</v>
       </c>
       <c r="D46" s="127">
-        <v>36913700</v>
+        <v>36913702.206436016</v>
       </c>
       <c r="E46" s="10">
         <f>C46/26</f>
@@ -12319,7 +12323,7 @@
         <v>184427159</v>
       </c>
       <c r="V46" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>148864.83787906918</v>
       </c>
       <c r="W46" s="22">
@@ -12378,12 +12382,12 @@
         <f t="shared" si="22"/>
         <v>351.08630463593471</v>
       </c>
-      <c r="AO46" s="34">
-        <f t="shared" si="47"/>
-        <v>16941.921292094805</v>
-      </c>
-      <c r="AP46" s="133">
+      <c r="AO46" s="133">
         <v>625389000000</v>
+      </c>
+      <c r="AP46" s="34">
+        <f t="shared" si="46"/>
+        <v>16941.920279428421</v>
       </c>
       <c r="AQ46" s="119">
         <f t="shared" si="51"/>
@@ -12394,24 +12398,24 @@
         <v>28321.512701264313</v>
       </c>
       <c r="AS46" s="119">
-        <f t="shared" si="48"/>
-        <v>20844.386240450382</v>
+        <f t="shared" si="47"/>
+        <v>20844.388265783149</v>
       </c>
       <c r="AT46" s="119">
         <f t="shared" si="53"/>
-        <v>180.73707978695893</v>
+        <v>180.73709734817305</v>
       </c>
       <c r="AU46" s="37">
-        <f t="shared" si="71"/>
-        <v>8.7867742573287924</v>
+        <f t="shared" si="48"/>
+        <v>8.7867747825390854</v>
       </c>
       <c r="AV46" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>29772.967575813836</v>
       </c>
       <c r="AW46" s="34">
-        <f t="shared" si="63"/>
-        <v>43.096296165459748</v>
+        <f t="shared" si="50"/>
+        <v>43.096299566754496</v>
       </c>
       <c r="AX46" s="10">
         <v>540</v>
@@ -12483,7 +12487,7 @@
         <v>24034966</v>
       </c>
       <c r="BS46" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>541194</v>
       </c>
       <c r="BT46" s="10">
@@ -12491,7 +12495,7 @@
         <v>536.68645051804219</v>
       </c>
       <c r="BU46" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>2.3035636848778438</v>
       </c>
       <c r="BV46" s="30">
@@ -12499,7 +12503,7 @@
         <v>1.7610034311163645</v>
       </c>
       <c r="BW46" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.54256025376147932</v>
       </c>
       <c r="BX46" s="10">
@@ -12521,7 +12525,7 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="CL46" s="30">
-        <f t="shared" ref="CL46:CL59" si="72">((CK46*100)/CK45)-100</f>
+        <f t="shared" ref="CL46:CL59" si="69">((CK46*100)/CK45)-100</f>
         <v>-7.6502732240437297</v>
       </c>
       <c r="CM46" s="30">
@@ -12575,7 +12579,7 @@
         <v>0.9936181818181824</v>
       </c>
       <c r="CZ46" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>5.3537820277062735</v>
       </c>
       <c r="DA46" s="33">
@@ -12583,22 +12587,22 @@
         <v>2.5637820277062735</v>
       </c>
       <c r="DB46" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.9739192568774513</v>
       </c>
       <c r="DC46" s="33">
+        <f t="shared" si="66"/>
+        <v>-7.6950701512698458</v>
+      </c>
+      <c r="DD46" s="33">
         <f t="shared" si="67"/>
         <v>-7.6950701512698458</v>
       </c>
-      <c r="DD46" s="33">
-        <f t="shared" si="68"/>
-        <v>-7.6950701512698458</v>
-      </c>
       <c r="DE46" s="38">
         <v>8.23</v>
       </c>
       <c r="DF46" s="30">
-        <f t="shared" ref="DF46:DF61" si="73">(CP46+CZ46)</f>
+        <f t="shared" ref="DF46:DF61" si="70">(CP46+CZ46)</f>
         <v>9.1093375832618282</v>
       </c>
       <c r="DG46" s="30">
@@ -12637,7 +12641,7 @@
         <v>19246126</v>
       </c>
       <c r="D47" s="127">
-        <v>37631692</v>
+        <v>37631693.419524007</v>
       </c>
       <c r="E47" s="10">
         <f>C47/26</f>
@@ -12697,7 +12701,7 @@
         <v>116809939</v>
       </c>
       <c r="V47" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>139654.81295857698</v>
       </c>
       <c r="W47" s="22">
@@ -12756,12 +12760,12 @@
         <f t="shared" si="22"/>
         <v>294.32515763451016</v>
       </c>
-      <c r="AO47" s="34">
-        <f t="shared" si="47"/>
-        <v>17512.579556614142</v>
-      </c>
-      <c r="AP47" s="133">
+      <c r="AO47" s="133">
         <v>659028000000</v>
+      </c>
+      <c r="AP47" s="34">
+        <f t="shared" si="46"/>
+        <v>17512.578896013336</v>
       </c>
       <c r="AQ47" s="119">
         <f t="shared" si="51"/>
@@ -12772,24 +12776,24 @@
         <v>27936.22949093422</v>
       </c>
       <c r="AS47" s="119">
-        <f t="shared" si="48"/>
-        <v>19924.634596842887</v>
+        <f t="shared" si="47"/>
+        <v>19924.6359180445</v>
       </c>
       <c r="AT47" s="119">
         <f t="shared" si="53"/>
-        <v>172.76211596325641</v>
+        <v>172.76212741910444</v>
       </c>
       <c r="AU47" s="37">
-        <f t="shared" si="71"/>
-        <v>7.9745426712898055</v>
+        <f t="shared" si="48"/>
+        <v>7.9745429721015446</v>
       </c>
       <c r="AV47" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>27930.962591715397</v>
       </c>
       <c r="AW47" s="34">
-        <f t="shared" si="63"/>
-        <v>37.300479712759532</v>
+        <f t="shared" si="50"/>
+        <v>37.300482077879614</v>
       </c>
       <c r="AX47" s="10">
         <v>570</v>
@@ -12861,7 +12865,7 @@
         <v>24569715</v>
       </c>
       <c r="BS47" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>534749</v>
       </c>
       <c r="BT47" s="10">
@@ -12869,7 +12873,7 @@
         <v>538.00724796356315</v>
       </c>
       <c r="BU47" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>2.2248793694985949</v>
       </c>
       <c r="BV47" s="30">
@@ -12877,7 +12881,7 @@
         <v>1.9739192568774513</v>
       </c>
       <c r="BW47" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.25096011262114359</v>
       </c>
       <c r="BX47" s="10">
@@ -12899,23 +12903,23 @@
         <v>8</v>
       </c>
       <c r="CL47" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-5.325443786982234</v>
       </c>
       <c r="CM47" s="30">
-        <f t="shared" ref="CM47:CM59" si="74">CQ47/(CK47*12)</f>
+        <f t="shared" ref="CM47:CM59" si="71">CQ47/(CK47*12)</f>
         <v>20.627604166666668</v>
       </c>
       <c r="CN47" s="30">
-        <f t="shared" ref="CN47:CN59" si="75">100/CM47</f>
+        <f t="shared" ref="CN47:CN59" si="72">100/CM47</f>
         <v>4.8478727433404867</v>
       </c>
       <c r="CO47" s="30">
-        <f t="shared" ref="CO47:CO60" si="76">CQ47/((CK47*12)*0.75)</f>
+        <f t="shared" ref="CO47:CO60" si="73">CQ47/((CK47*12)*0.75)</f>
         <v>27.503472222222221</v>
       </c>
       <c r="CP47" s="30">
-        <f t="shared" ref="CP47:CP59" si="77">100/CO47</f>
+        <f t="shared" ref="CP47:CP59" si="74">100/CO47</f>
         <v>3.6359045575053655</v>
       </c>
       <c r="CQ47" s="10">
@@ -12953,7 +12957,7 @@
         <v>0.35745454545454436</v>
       </c>
       <c r="CZ47" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-1.3603906486001165</v>
       </c>
       <c r="DA47" s="33">
@@ -12961,22 +12965,22 @@
         <v>-5.4403906486001166</v>
       </c>
       <c r="DB47" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.2503284575632847</v>
       </c>
       <c r="DC47" s="33">
+        <f t="shared" si="66"/>
+        <v>-28.791435573326453</v>
+      </c>
+      <c r="DD47" s="33">
         <f t="shared" si="67"/>
-        <v>-28.791435573326453</v>
-      </c>
-      <c r="DD47" s="33">
-        <f t="shared" si="68"/>
         <v>-32.486419294691217</v>
       </c>
       <c r="DE47" s="38">
         <v>11.25</v>
       </c>
       <c r="DF47" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>2.275513908905249</v>
       </c>
       <c r="DG47" s="30">
@@ -13015,7 +13019,7 @@
         <v>19428733</v>
       </c>
       <c r="D48" s="127">
-        <v>38051707</v>
+        <v>38051704.392753989</v>
       </c>
       <c r="E48" s="10">
         <f t="shared" si="62"/>
@@ -13075,7 +13079,7 @@
         <v>76677074</v>
       </c>
       <c r="V48" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>117803.61013936324</v>
       </c>
       <c r="W48" s="22">
@@ -13134,12 +13138,12 @@
         <f t="shared" si="22"/>
         <v>240.71959794705452</v>
       </c>
-      <c r="AO48" s="34">
-        <f t="shared" si="47"/>
-        <v>17213.60358419663</v>
-      </c>
-      <c r="AP48" s="133">
+      <c r="AO48" s="133">
         <v>655007000000</v>
+      </c>
+      <c r="AP48" s="34">
+        <f t="shared" si="46"/>
+        <v>17213.604763647065</v>
       </c>
       <c r="AQ48" s="119">
         <f t="shared" si="51"/>
@@ -13150,24 +13154,24 @@
         <v>26765.628708188393</v>
       </c>
       <c r="AS48" s="119">
-        <f t="shared" si="48"/>
-        <v>19307.092088726247</v>
+        <f t="shared" si="47"/>
+        <v>19307.089729825377</v>
       </c>
       <c r="AT48" s="119">
         <f t="shared" si="53"/>
-        <v>167.40754095808205</v>
+        <v>167.40752050457243</v>
       </c>
       <c r="AU48" s="37">
-        <f t="shared" si="71"/>
-        <v>6.8436344291973663</v>
+        <f t="shared" si="48"/>
+        <v>6.8436339602817782</v>
       </c>
       <c r="AV48" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>23560.722027872649</v>
       </c>
       <c r="AW48" s="34">
-        <f>100-((AO48*100)/AV48)</f>
-        <v>26.93940549091532</v>
+        <f t="shared" si="50"/>
+        <v>26.939400484912397</v>
       </c>
       <c r="AX48" s="10">
         <v>600</v>
@@ -13239,7 +13243,7 @@
         <v>24908126</v>
       </c>
       <c r="BS48" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>338411</v>
       </c>
       <c r="BT48" s="10">
@@ -13247,7 +13251,7 @@
         <v>538.68219468414111</v>
       </c>
       <c r="BU48" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1.3773501239228807</v>
       </c>
       <c r="BV48" s="30">
@@ -13255,7 +13259,7 @@
         <v>1.2503284575632847</v>
       </c>
       <c r="BW48" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.127021666359596</v>
       </c>
       <c r="BX48" s="10">
@@ -13277,23 +13281,23 @@
         <v>7.65</v>
       </c>
       <c r="CL48" s="30">
+        <f t="shared" si="69"/>
+        <v>-4.375</v>
+      </c>
+      <c r="CM48" s="30">
+        <f t="shared" si="71"/>
+        <v>20.687182280319533</v>
+      </c>
+      <c r="CN48" s="30">
         <f t="shared" si="72"/>
-        <v>-4.375</v>
-      </c>
-      <c r="CM48" s="30">
+        <v>4.8339110974593007</v>
+      </c>
+      <c r="CO48" s="30">
+        <f t="shared" si="73"/>
+        <v>27.582909707092714</v>
+      </c>
+      <c r="CP48" s="30">
         <f t="shared" si="74"/>
-        <v>20.687182280319533</v>
-      </c>
-      <c r="CN48" s="30">
-        <f t="shared" si="75"/>
-        <v>4.8339110974593007</v>
-      </c>
-      <c r="CO48" s="30">
-        <f t="shared" si="76"/>
-        <v>27.582909707092714</v>
-      </c>
-      <c r="CP48" s="30">
-        <f t="shared" si="77"/>
         <v>3.6254333230944753</v>
       </c>
       <c r="CQ48" s="10">
@@ -13331,7 +13335,7 @@
         <v>-3.3155181818181814</v>
       </c>
       <c r="CZ48" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-4.1902604756511863</v>
       </c>
       <c r="DA48" s="33">
@@ -13339,22 +13343,22 @@
         <v>-3.9002604756511863</v>
       </c>
       <c r="DB48" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.53418110253250006</v>
       </c>
       <c r="DC48" s="33">
+        <f t="shared" si="66"/>
+        <v>-25.120815823793649</v>
+      </c>
+      <c r="DD48" s="33">
         <f t="shared" si="67"/>
-        <v>-25.120815823793649</v>
-      </c>
-      <c r="DD48" s="33">
-        <f t="shared" si="68"/>
         <v>-22.181466465969805</v>
       </c>
       <c r="DE48" s="38">
         <v>17.86</v>
       </c>
       <c r="DF48" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>-0.56482715255671101</v>
       </c>
       <c r="DG48" s="30">
@@ -13393,7 +13397,7 @@
         <v>19403020</v>
       </c>
       <c r="D49" s="127">
-        <v>38223384</v>
+        <v>38223381.611099005</v>
       </c>
       <c r="E49" s="10">
         <f t="shared" si="62"/>
@@ -13453,7 +13457,7 @@
         <v>71041231</v>
       </c>
       <c r="V49" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>116933.56102940571</v>
       </c>
       <c r="W49" s="22">
@@ -13507,7 +13511,7 @@
         <v>8.1666666666666679E-2</v>
       </c>
       <c r="AL49" s="106">
-        <f t="shared" ref="AL49:AL61" si="78">CR49*100/AK49</f>
+        <f t="shared" ref="AL49:AL61" si="75">CR49*100/AK49</f>
         <v>2035102.0408163262</v>
       </c>
       <c r="AM49" s="118">
@@ -13517,12 +13521,12 @@
         <f t="shared" si="22"/>
         <v>177.85815758425392</v>
       </c>
-      <c r="AO49" s="34">
-        <f t="shared" si="47"/>
-        <v>17210.40711623021</v>
-      </c>
-      <c r="AP49" s="133">
+      <c r="AO49" s="133">
         <v>657840000000</v>
+      </c>
+      <c r="AP49" s="34">
+        <f t="shared" si="46"/>
+        <v>17210.408191853479</v>
       </c>
       <c r="AQ49" s="119">
         <f t="shared" si="51"/>
@@ -13533,24 +13537,24 @@
         <v>26291.060823291435</v>
       </c>
       <c r="AS49" s="119">
-        <f t="shared" si="48"/>
-        <v>19116.759420493276</v>
+        <f t="shared" si="47"/>
+        <v>19116.757269246737</v>
       </c>
       <c r="AT49" s="119">
         <f t="shared" si="53"/>
-        <v>165.75720833386063</v>
+        <v>165.75718968087597</v>
       </c>
       <c r="AU49" s="37">
-        <f t="shared" si="71"/>
-        <v>6.7943518267578895</v>
+        <f t="shared" si="48"/>
+        <v>6.7943514021216558</v>
       </c>
       <c r="AV49" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>23386.712205881144</v>
       </c>
       <c r="AW49" s="34">
-        <f t="shared" si="63"/>
-        <v>26.409462926121591</v>
+        <f t="shared" si="50"/>
+        <v>26.409458326829224</v>
       </c>
       <c r="AX49" s="10">
         <v>624</v>
@@ -13622,7 +13626,7 @@
         <v>25106251</v>
       </c>
       <c r="BS49" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>198125</v>
       </c>
       <c r="BT49" s="10">
@@ -13630,7 +13634,7 @@
         <v>540.08198167190119</v>
       </c>
       <c r="BU49" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.79542314825290816</v>
       </c>
       <c r="BV49" s="30">
@@ -13638,14 +13642,14 @@
         <v>0.53418110253250006</v>
       </c>
       <c r="BW49" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.2612420457204081</v>
       </c>
       <c r="BX49" s="10">
         <v>24456.010000000002</v>
       </c>
       <c r="BY49" s="22"/>
-      <c r="BZ49" s="22"/>
+      <c r="BZ49" s="33"/>
       <c r="CA49" s="33"/>
       <c r="CB49" s="22"/>
       <c r="CC49" s="22"/>
@@ -13660,23 +13664,23 @@
         <v>7.65</v>
       </c>
       <c r="CL49" s="30">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="CM49" s="30">
+        <f t="shared" si="71"/>
+        <v>20.875998547567171</v>
+      </c>
+      <c r="CN49" s="30">
         <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="CM49" s="30">
+        <v>4.7901900247858427</v>
+      </c>
+      <c r="CO49" s="30">
+        <f t="shared" si="73"/>
+        <v>27.83466473008956</v>
+      </c>
+      <c r="CP49" s="30">
         <f t="shared" si="74"/>
-        <v>20.875998547567171</v>
-      </c>
-      <c r="CN49" s="30">
-        <f t="shared" si="75"/>
-        <v>4.7901900247858427</v>
-      </c>
-      <c r="CO49" s="30">
-        <f t="shared" si="76"/>
-        <v>27.83466473008956</v>
-      </c>
-      <c r="CP49" s="30">
-        <f t="shared" si="77"/>
         <v>3.5926425185893822</v>
       </c>
       <c r="CQ49" s="10">
@@ -13714,7 +13718,7 @@
         <v>-0.16546363636363637</v>
       </c>
       <c r="CZ49" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-1.7730496453900741</v>
       </c>
       <c r="DA49" s="33">
@@ -13722,22 +13726,22 @@
         <v>-3.573049645390074</v>
       </c>
       <c r="DB49" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.38936453986146091</v>
       </c>
       <c r="DC49" s="33">
+        <f t="shared" si="66"/>
+        <v>6.3373109849465266</v>
+      </c>
+      <c r="DD49" s="33">
         <f t="shared" si="67"/>
-        <v>6.3373109849465266</v>
-      </c>
-      <c r="DD49" s="33">
-        <f t="shared" si="68"/>
         <v>-6.6607363160231614</v>
       </c>
       <c r="DE49" s="38">
         <v>19.86</v>
       </c>
       <c r="DF49" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>1.8195928731993081</v>
       </c>
       <c r="DG49" s="30">
@@ -13776,7 +13780,7 @@
         <v>19304501</v>
       </c>
       <c r="D50" s="127">
-        <v>38356621</v>
+        <v>38356621.864022002</v>
       </c>
       <c r="E50" s="10">
         <f t="shared" si="62"/>
@@ -13836,7 +13840,7 @@
         <v>45715937</v>
       </c>
       <c r="V50" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>111922.40385250979</v>
       </c>
       <c r="W50" s="22">
@@ -13890,7 +13894,7 @@
         <v>3.5887000000000002</v>
       </c>
       <c r="AL50" s="106">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>42856.744782233116</v>
       </c>
       <c r="AM50" s="118">
@@ -13900,12 +13904,12 @@
         <f t="shared" si="22"/>
         <v>137.14907382017688</v>
       </c>
-      <c r="AO50" s="34">
-        <f t="shared" si="47"/>
-        <v>17290.887015308257</v>
-      </c>
-      <c r="AP50" s="133">
+      <c r="AO50" s="133">
         <v>663220000000</v>
+      </c>
+      <c r="AP50" s="34">
+        <f t="shared" si="46"/>
+        <v>17290.886625813404</v>
       </c>
       <c r="AQ50" s="119">
         <f t="shared" si="51"/>
@@ -13916,24 +13920,24 @@
         <v>24329.513565717345</v>
       </c>
       <c r="AS50" s="119">
-        <f t="shared" si="48"/>
-        <v>17497.085150157418</v>
+        <f t="shared" si="47"/>
+        <v>17497.085929147124</v>
       </c>
       <c r="AT50" s="119">
         <f t="shared" si="53"/>
-        <v>151.71336964992292</v>
+        <v>151.71337640437099</v>
       </c>
       <c r="AU50" s="37">
-        <f t="shared" si="71"/>
-        <v>6.472912798135849</v>
+        <f t="shared" si="48"/>
+        <v>6.4729129439448103</v>
       </c>
       <c r="AV50" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>22384.480770501956</v>
       </c>
       <c r="AW50" s="34">
-        <f t="shared" si="63"/>
-        <v>22.755023033216759</v>
+        <f t="shared" si="50"/>
+        <v>22.755024773238603</v>
       </c>
       <c r="AX50" s="10">
         <v>633</v>
@@ -14005,7 +14009,7 @@
         <v>25249053</v>
       </c>
       <c r="BS50" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>142802</v>
       </c>
       <c r="BT50" s="10">
@@ -14013,7 +14017,7 @@
         <v>541.04727109092073</v>
       </c>
       <c r="BU50" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.5687906171255861</v>
       </c>
       <c r="BV50" s="30">
@@ -14021,7 +14025,7 @@
         <v>0.38936453986146091</v>
       </c>
       <c r="BW50" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.17942607726412518</v>
       </c>
       <c r="BX50" s="10">
@@ -14031,11 +14035,11 @@
         <v>12.77</v>
       </c>
       <c r="BZ50" s="33">
-        <f t="shared" ref="BZ50:BZ60" si="79">100-(BY50+CA50)</f>
+        <f t="shared" ref="BZ50:BZ60" si="76">100-(BY50+CA50)</f>
         <v>81.961308000000002</v>
       </c>
       <c r="CA50" s="33">
-        <f t="shared" ref="CA50:CA60" si="80">(CB50*(100-BY50))/100</f>
+        <f t="shared" ref="CA50:CA60" si="77">(CB50*(100-BY50))/100</f>
         <v>5.2686919999999997</v>
       </c>
       <c r="CB50" s="22">
@@ -14053,23 +14057,23 @@
         <v>7.9</v>
       </c>
       <c r="CL50" s="30">
+        <f t="shared" si="69"/>
+        <v>3.2679738562091387</v>
+      </c>
+      <c r="CM50" s="30">
+        <f t="shared" si="71"/>
+        <v>20.683895921237688</v>
+      </c>
+      <c r="CN50" s="30">
         <f t="shared" si="72"/>
-        <v>3.2679738562091387</v>
-      </c>
-      <c r="CM50" s="30">
+        <v>4.8346791330216758</v>
+      </c>
+      <c r="CO50" s="30">
+        <f t="shared" si="73"/>
+        <v>27.578527894983587</v>
+      </c>
+      <c r="CP50" s="30">
         <f t="shared" si="74"/>
-        <v>20.683895921237688</v>
-      </c>
-      <c r="CN50" s="30">
-        <f t="shared" si="75"/>
-        <v>4.8346791330216758</v>
-      </c>
-      <c r="CO50" s="30">
-        <f t="shared" si="76"/>
-        <v>27.578527894983587</v>
-      </c>
-      <c r="CP50" s="30">
-        <f t="shared" si="77"/>
         <v>3.6260093497662562</v>
       </c>
       <c r="CQ50" s="10">
@@ -14107,7 +14111,7 @@
         <v>0.6859909090909091</v>
       </c>
       <c r="CZ50" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-7.4608904933814699</v>
       </c>
       <c r="DA50" s="33">
@@ -14115,22 +14119,22 @@
         <v>-10.660890493381469</v>
       </c>
       <c r="DB50" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.32356911736344784</v>
       </c>
       <c r="DC50" s="33">
+        <f t="shared" si="66"/>
+        <v>-18.145730918057922</v>
+      </c>
+      <c r="DD50" s="33">
         <f t="shared" si="67"/>
-        <v>-18.145730918057922</v>
-      </c>
-      <c r="DD50" s="33">
-        <f t="shared" si="68"/>
         <v>-32.76749487683837</v>
       </c>
       <c r="DE50" s="38">
         <v>21.39</v>
       </c>
       <c r="DF50" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>-3.8348811436152137</v>
       </c>
       <c r="DG50" s="30">
@@ -14169,7 +14173,7 @@
         <v>19150018</v>
       </c>
       <c r="D51" s="127">
-        <v>38460725</v>
+        <v>38460725.691791013</v>
       </c>
       <c r="E51" s="10">
         <f>C51/26</f>
@@ -14229,7 +14233,7 @@
         <v>28328881</v>
       </c>
       <c r="V51" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>103438.02054236818</v>
       </c>
       <c r="W51" s="22">
@@ -14283,7 +14287,7 @@
         <v>5.5066416666666678</v>
       </c>
       <c r="AL51" s="106">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>24770.088241926034</v>
       </c>
       <c r="AM51" s="118">
@@ -14293,12 +14297,12 @@
         <f t="shared" si="22"/>
         <v>105.0085646648233</v>
       </c>
-      <c r="AO51" s="34">
-        <f t="shared" si="47"/>
-        <v>16365.786136376784</v>
-      </c>
-      <c r="AP51" s="133">
+      <c r="AO51" s="133">
         <v>629440000000</v>
+      </c>
+      <c r="AP51" s="34">
+        <f t="shared" si="46"/>
+        <v>16365.785842006266</v>
       </c>
       <c r="AQ51" s="119">
         <f t="shared" si="51"/>
@@ -14309,24 +14313,24 @@
         <v>21577.019833314993</v>
       </c>
       <c r="AS51" s="119">
-        <f t="shared" si="48"/>
-        <v>16992.093930177703</v>
+        <f t="shared" si="47"/>
+        <v>16992.094518918741</v>
       </c>
       <c r="AT51" s="119">
         <f t="shared" si="53"/>
-        <v>147.3347020621928</v>
+        <v>147.33470716703661</v>
       </c>
       <c r="AU51" s="37">
-        <f t="shared" si="71"/>
-        <v>6.3203820262842738</v>
+        <f t="shared" si="48"/>
+        <v>6.3203821399686486</v>
       </c>
       <c r="AV51" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>20687.604108473635</v>
       </c>
       <c r="AW51" s="34">
-        <f t="shared" si="63"/>
-        <v>20.890857875256017</v>
+        <f t="shared" si="50"/>
+        <v>20.89085929818792</v>
       </c>
       <c r="AX51" s="10">
         <v>641</v>
@@ -14398,7 +14402,7 @@
         <v>25382415</v>
       </c>
       <c r="BS51" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>133362</v>
       </c>
       <c r="BT51" s="10">
@@ -14414,7 +14418,7 @@
         <v>0.32356911736344784</v>
       </c>
       <c r="BW51" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.20461702886548494</v>
       </c>
       <c r="BX51" s="10">
@@ -14424,11 +14428,11 @@
         <v>18.649999999999999</v>
       </c>
       <c r="BZ51" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>74.744380000000007</v>
       </c>
       <c r="CA51" s="33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>6.6056199999999992</v>
       </c>
       <c r="CB51" s="22">
@@ -14446,23 +14450,23 @@
         <v>7.75</v>
       </c>
       <c r="CL51" s="30">
+        <f t="shared" si="69"/>
+        <v>-1.8987341772151893</v>
+      </c>
+      <c r="CM51" s="30">
+        <f t="shared" si="71"/>
+        <v>19.378136200716845</v>
+      </c>
+      <c r="CN51" s="30">
         <f t="shared" si="72"/>
-        <v>-1.8987341772151893</v>
-      </c>
-      <c r="CM51" s="30">
+        <v>5.1604550078609082</v>
+      </c>
+      <c r="CO51" s="30">
+        <f t="shared" si="73"/>
+        <v>25.837514934289125</v>
+      </c>
+      <c r="CP51" s="30">
         <f t="shared" si="74"/>
-        <v>19.378136200716845</v>
-      </c>
-      <c r="CN51" s="30">
-        <f t="shared" si="75"/>
-        <v>5.1604550078609082</v>
-      </c>
-      <c r="CO51" s="30">
-        <f t="shared" si="76"/>
-        <v>25.837514934289125</v>
-      </c>
-      <c r="CP51" s="30">
-        <f t="shared" si="77"/>
         <v>3.8703412558956818</v>
       </c>
       <c r="CQ51" s="10">
@@ -14500,7 +14504,7 @@
         <v>-1.0022545454545453</v>
       </c>
       <c r="CZ51" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-11.313394018205457</v>
       </c>
       <c r="DA51" s="33">
@@ -14508,22 +14512,22 @@
         <v>-13.763394018205457</v>
       </c>
       <c r="DB51" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.19223375624760308</v>
       </c>
       <c r="DC51" s="33">
+        <f t="shared" si="66"/>
+        <v>-11.475054471074742</v>
+      </c>
+      <c r="DD51" s="33">
         <f t="shared" si="67"/>
-        <v>-11.475054471074742</v>
-      </c>
-      <c r="DD51" s="33">
-        <f t="shared" si="68"/>
         <v>-32.950024604552212</v>
       </c>
       <c r="DE51" s="38">
         <v>24.79</v>
       </c>
       <c r="DF51" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>-7.443052762309776</v>
       </c>
       <c r="DG51" s="30">
@@ -14562,7 +14566,7 @@
         <v>18863926</v>
       </c>
       <c r="D52" s="127">
-        <v>38356540</v>
+        <v>38356537.256903015</v>
       </c>
       <c r="E52" s="10">
         <f t="shared" si="62"/>
@@ -14622,7 +14626,7 @@
         <v>19972573</v>
       </c>
       <c r="V52" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>100011.38190212466</v>
       </c>
       <c r="W52" s="22">
@@ -14676,7 +14680,7 @@
         <v>117.12691666666665</v>
       </c>
       <c r="AL52" s="106">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>1067.2183948608456</v>
       </c>
       <c r="AM52" s="118">
@@ -14686,12 +14690,12 @@
         <f t="shared" si="22"/>
         <v>119.14861168037669</v>
       </c>
-      <c r="AO52" s="34">
-        <f t="shared" si="47"/>
-        <v>16402.678656625441</v>
-      </c>
-      <c r="AP52" s="133">
+      <c r="AO52" s="133">
         <v>629150000000</v>
+      </c>
+      <c r="AP52" s="34">
+        <f t="shared" si="46"/>
+        <v>16402.679829675501</v>
       </c>
       <c r="AQ52" s="119">
         <f t="shared" si="51"/>
@@ -14702,24 +14706,24 @@
         <v>19773.661870706554</v>
       </c>
       <c r="AS52" s="119">
-        <f t="shared" si="48"/>
-        <v>15349.203506049675</v>
+        <f t="shared" si="47"/>
+        <v>15349.201159949556</v>
       </c>
       <c r="AT52" s="119">
         <f t="shared" si="53"/>
-        <v>133.08956122467384</v>
+        <v>133.08954088215671</v>
       </c>
       <c r="AU52" s="37">
-        <f t="shared" si="71"/>
-        <v>6.0972591121101809</v>
+        <f t="shared" si="48"/>
+        <v>6.0972586760600826</v>
       </c>
       <c r="AV52" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>20002.276380424933</v>
       </c>
       <c r="AW52" s="34">
-        <f>100-((AO52*100)/AV52)</f>
-        <v>17.995940338681706</v>
+        <f t="shared" si="50"/>
+        <v>17.995934474098902</v>
       </c>
       <c r="AX52" s="10">
         <v>641</v>
@@ -14791,7 +14795,7 @@
         <v>25441306</v>
       </c>
       <c r="BS52" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>58891</v>
       </c>
       <c r="BT52" s="10">
@@ -14799,7 +14803,7 @@
         <v>544.45527306967983</v>
       </c>
       <c r="BU52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.23201495996342203</v>
       </c>
       <c r="BV52" s="30">
@@ -14807,7 +14811,7 @@
         <v>-0.19223375624760308</v>
       </c>
       <c r="BW52" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.42424871621102511</v>
       </c>
       <c r="BX52" s="10">
@@ -14817,11 +14821,11 @@
         <v>21.93</v>
       </c>
       <c r="BZ52" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>69.365195</v>
       </c>
       <c r="CA52" s="33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>8.7048050000000003</v>
       </c>
       <c r="CB52" s="22">
@@ -14859,7 +14863,7 @@
         <v>7.3</v>
       </c>
       <c r="CL52" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-5.8064516129032313</v>
       </c>
       <c r="CM52" s="30">
@@ -14871,11 +14875,11 @@
         <v>5.3263072557762472</v>
       </c>
       <c r="CO52" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>25.032978183663118</v>
       </c>
       <c r="CP52" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>3.9947304418321843</v>
       </c>
       <c r="CQ52" s="10">
@@ -14913,7 +14917,7 @@
         <v>-0.51223636363636371</v>
       </c>
       <c r="CZ52" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-8.3577712609970689</v>
       </c>
       <c r="DA52" s="33">
@@ -14921,22 +14925,22 @@
         <v>-9.767771260997069</v>
       </c>
       <c r="DB52" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.47080979284369562</v>
       </c>
       <c r="DC52" s="33">
+        <f t="shared" si="66"/>
+        <v>-1.8651070215424426</v>
+      </c>
+      <c r="DD52" s="33">
         <f t="shared" si="67"/>
-        <v>-1.8651070215424426</v>
-      </c>
-      <c r="DD52" s="33">
-        <f t="shared" si="68"/>
         <v>-27.081895623153798</v>
       </c>
       <c r="DE52" s="38">
         <v>26.09</v>
       </c>
       <c r="DF52" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>-4.3630408191648851</v>
       </c>
       <c r="DG52" s="30">
@@ -14975,7 +14979,7 @@
         <v>18485411</v>
       </c>
       <c r="D53" s="127">
-        <v>38162985</v>
+        <v>38162986.049431995</v>
       </c>
       <c r="E53" s="10">
         <f t="shared" si="62"/>
@@ -15035,7 +15039,7 @@
         <v>20890540</v>
       </c>
       <c r="V53" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>102253.23295905082</v>
       </c>
       <c r="W53" s="22">
@@ -15089,7 +15093,7 @@
         <v>374.17320000000001</v>
       </c>
       <c r="AL53" s="106">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>334.87165836569801</v>
       </c>
       <c r="AM53" s="118">
@@ -15099,12 +15103,12 @@
         <f t="shared" si="22"/>
         <v>131.82766662575182</v>
       </c>
-      <c r="AO53" s="34">
-        <f t="shared" si="47"/>
-        <v>16480.969714502153</v>
-      </c>
-      <c r="AP53" s="133">
+      <c r="AO53" s="133">
         <v>628963000000</v>
+      </c>
+      <c r="AP53" s="34">
+        <f t="shared" si="46"/>
+        <v>16480.969261297134</v>
       </c>
       <c r="AQ53" s="119">
         <f t="shared" si="51"/>
@@ -15115,24 +15119,24 @@
         <v>19821.118659196247</v>
       </c>
       <c r="AS53" s="119">
-        <f t="shared" si="48"/>
-        <v>15214.806312792189</v>
+        <f t="shared" si="47"/>
+        <v>15214.807219202226</v>
       </c>
       <c r="AT53" s="119">
         <f t="shared" si="53"/>
-        <v>131.92423277792957</v>
+        <v>131.92424063721128</v>
       </c>
       <c r="AU53" s="37">
-        <f t="shared" si="71"/>
-        <v>6.2043213919066185</v>
+        <f t="shared" si="48"/>
+        <v>6.2043215625173112</v>
       </c>
       <c r="AV53" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>20450.646591810164</v>
       </c>
       <c r="AW53" s="34">
-        <f>100-((AO53*100)/AV53)</f>
-        <v>19.411009131113445</v>
+        <f t="shared" si="50"/>
+        <v>19.411011347204834</v>
       </c>
       <c r="AX53" s="10">
         <v>645</v>
@@ -15204,7 +15208,7 @@
         <v>25492335</v>
       </c>
       <c r="BS53" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>51029</v>
       </c>
       <c r="BT53" s="10">
@@ -15212,7 +15216,7 @@
         <v>548.12795648060558</v>
       </c>
       <c r="BU53" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.20057539498955634</v>
       </c>
       <c r="BV53" s="30">
@@ -15220,7 +15224,7 @@
         <v>-0.47080979284369562</v>
       </c>
       <c r="BW53" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.67138518783325196</v>
       </c>
       <c r="BX53" s="10">
@@ -15230,11 +15234,11 @@
         <v>15.28</v>
       </c>
       <c r="BZ53" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>73.69792799999999</v>
       </c>
       <c r="CA53" s="33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>11.022072000000001</v>
       </c>
       <c r="CB53" s="22">
@@ -15272,23 +15276,23 @@
         <v>7.25</v>
       </c>
       <c r="CL53" s="30">
+        <f t="shared" si="69"/>
+        <v>-0.68493150684930981</v>
+      </c>
+      <c r="CM53" s="30">
+        <f t="shared" si="71"/>
+        <v>17.995210727969351</v>
+      </c>
+      <c r="CN53" s="30">
         <f t="shared" si="72"/>
-        <v>-0.68493150684930981</v>
-      </c>
-      <c r="CM53" s="30">
+        <v>5.557034119337839</v>
+      </c>
+      <c r="CO53" s="30">
+        <f t="shared" si="73"/>
+        <v>23.993614303959134</v>
+      </c>
+      <c r="CP53" s="30">
         <f t="shared" si="74"/>
-        <v>17.995210727969351</v>
-      </c>
-      <c r="CN53" s="30">
-        <f t="shared" si="75"/>
-        <v>5.557034119337839</v>
-      </c>
-      <c r="CO53" s="30">
-        <f t="shared" si="76"/>
-        <v>23.993614303959134</v>
-      </c>
-      <c r="CP53" s="30">
-        <f t="shared" si="77"/>
         <v>4.1677755895033792</v>
       </c>
       <c r="CQ53" s="10">
@@ -15326,7 +15330,7 @@
         <v>-6.4054545454545309E-2</v>
       </c>
       <c r="CZ53" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.23999999999999488</v>
       </c>
       <c r="DA53" s="33">
@@ -15334,22 +15338,22 @@
         <v>0.38999999999999491</v>
       </c>
       <c r="DB53" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.12685989507181716</v>
       </c>
       <c r="DC53" s="33">
+        <f t="shared" si="66"/>
+        <v>1.9952462147264924</v>
+      </c>
+      <c r="DD53" s="33">
         <f t="shared" si="67"/>
-        <v>1.9952462147264924</v>
-      </c>
-      <c r="DD53" s="33">
-        <f t="shared" si="68"/>
         <v>2.302919835956402</v>
       </c>
       <c r="DE53" s="38">
         <v>24.44</v>
       </c>
       <c r="DF53" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>4.4077755895033741</v>
       </c>
       <c r="DG53" s="30">
@@ -15388,7 +15392,7 @@
         <v>18171401</v>
       </c>
       <c r="D54" s="127">
-        <v>38102546</v>
+        <v>38102545.920077994</v>
       </c>
       <c r="E54" s="10">
         <f t="shared" si="62"/>
@@ -15448,7 +15452,7 @@
         <v>26338940</v>
       </c>
       <c r="V54" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>106736.07086847107</v>
       </c>
       <c r="W54" s="22">
@@ -15502,7 +15506,7 @@
         <v>251.56777449999996</v>
       </c>
       <c r="AL54" s="106">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>508.01419320899555</v>
       </c>
       <c r="AM54" s="118">
@@ -15512,12 +15516,12 @@
         <f t="shared" si="22"/>
         <v>122.53360765435551</v>
       </c>
-      <c r="AO54" s="34">
-        <f t="shared" si="47"/>
-        <v>17159.32578363661</v>
-      </c>
-      <c r="AP54" s="133">
+      <c r="AO54" s="133">
         <v>653814000000</v>
+      </c>
+      <c r="AP54" s="34">
+        <f t="shared" si="46"/>
+        <v>17159.325819629157</v>
       </c>
       <c r="AQ54" s="119">
         <f t="shared" si="51"/>
@@ -15528,24 +15532,24 @@
         <v>20216.591896610378</v>
       </c>
       <c r="AS54" s="119">
-        <f t="shared" si="48"/>
-        <v>14169.454217954852</v>
+        <f t="shared" si="47"/>
+        <v>14169.454145969758</v>
       </c>
       <c r="AT54" s="119">
         <f t="shared" si="53"/>
-        <v>122.86021511913961</v>
+        <v>122.86021449497274</v>
       </c>
       <c r="AU54" s="37">
-        <f t="shared" si="71"/>
-        <v>6.220295145293889</v>
+        <f t="shared" si="48"/>
+        <v>6.2202951322465081</v>
       </c>
       <c r="AV54" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>21347.214173694214</v>
       </c>
       <c r="AW54" s="34">
-        <f>100-((AO54*100)/AV54)</f>
-        <v>19.617962119002229</v>
+        <f t="shared" si="50"/>
+        <v>19.617961950396861</v>
       </c>
       <c r="AX54" s="10">
         <v>645</v>
@@ -15617,7 +15621,7 @@
         <v>25541915</v>
       </c>
       <c r="BS54" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>49580</v>
       </c>
       <c r="BT54" s="10">
@@ -15625,7 +15629,7 @@
         <v>549.89160154147567</v>
       </c>
       <c r="BU54" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.19448983390498142</v>
       </c>
       <c r="BV54" s="30">
@@ -15633,7 +15637,7 @@
         <v>-0.12685989507181716</v>
       </c>
       <c r="BW54" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.32134972897679859</v>
       </c>
       <c r="BX54" s="10">
@@ -15643,11 +15647,11 @@
         <v>12.71</v>
       </c>
       <c r="BZ54" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>75.785178000000002</v>
       </c>
       <c r="CA54" s="33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>11.504821999999999</v>
       </c>
       <c r="CB54" s="22">
@@ -15685,23 +15689,23 @@
         <v>7.4</v>
       </c>
       <c r="CL54" s="30">
+        <f t="shared" si="69"/>
+        <v>2.0689655172413808</v>
+      </c>
+      <c r="CM54" s="30">
+        <f t="shared" si="71"/>
+        <v>17.334834834834833</v>
+      </c>
+      <c r="CN54" s="30">
         <f t="shared" si="72"/>
-        <v>2.0689655172413808</v>
-      </c>
-      <c r="CM54" s="30">
+        <v>5.7687310524036386</v>
+      </c>
+      <c r="CO54" s="30">
+        <f t="shared" si="73"/>
+        <v>23.113113113113108</v>
+      </c>
+      <c r="CP54" s="30">
         <f t="shared" si="74"/>
-        <v>17.334834834834833</v>
-      </c>
-      <c r="CN54" s="30">
-        <f t="shared" si="75"/>
-        <v>5.7687310524036386</v>
-      </c>
-      <c r="CO54" s="30">
-        <f t="shared" si="76"/>
-        <v>23.113113113113108</v>
-      </c>
-      <c r="CP54" s="30">
-        <f t="shared" si="77"/>
         <v>4.3265482893027292</v>
       </c>
       <c r="CQ54" s="10">
@@ -15739,7 +15743,7 @@
         <v>-0.31189090909090922</v>
       </c>
       <c r="CZ54" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1.9952114924181927</v>
       </c>
       <c r="DA54" s="33">
@@ -15747,22 +15751,22 @@
         <v>2.4952114924181927</v>
       </c>
       <c r="DB54" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1.9376089905051685E-2</v>
       </c>
       <c r="DC54" s="33">
+        <f t="shared" si="66"/>
+        <v>11.518991311984436</v>
+      </c>
+      <c r="DD54" s="33">
         <f t="shared" si="67"/>
-        <v>11.518991311984436</v>
-      </c>
-      <c r="DD54" s="33">
-        <f t="shared" si="68"/>
         <v>20.785405918688994</v>
       </c>
       <c r="DE54" s="38">
         <v>22.06</v>
       </c>
       <c r="DF54" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>6.3217597817209219</v>
       </c>
       <c r="DG54" s="30">
@@ -15801,7 +15805,7 @@
         <v>17870984</v>
       </c>
       <c r="D55" s="127">
-        <v>38093064</v>
+        <v>38103799.890201993</v>
       </c>
       <c r="E55" s="10">
         <f t="shared" si="62"/>
@@ -15861,7 +15865,7 @@
         <v>31036970</v>
       </c>
       <c r="V55" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>109784.93634752589</v>
       </c>
       <c r="W55" s="22">
@@ -15915,7 +15919,7 @@
         <v>538.52805583333338</v>
       </c>
       <c r="AL55" s="106">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>243.25566436327432</v>
       </c>
       <c r="AM55" s="118">
@@ -15925,12 +15929,12 @@
         <f t="shared" si="22"/>
         <v>115.9336493729848</v>
       </c>
-      <c r="AO55" s="34">
-        <f t="shared" si="47"/>
-        <v>17620.136831208958</v>
-      </c>
-      <c r="AP55" s="133">
+      <c r="AO55" s="133">
         <v>671205000000</v>
+      </c>
+      <c r="AP55" s="34">
+        <f t="shared" si="46"/>
+        <v>17615.172290798051</v>
       </c>
       <c r="AQ55" s="119">
         <f t="shared" si="51"/>
@@ -15941,24 +15945,24 @@
         <v>20722.797640500463</v>
       </c>
       <c r="AS55" s="119">
-        <f t="shared" si="48"/>
-        <v>13720.560815495184</v>
+        <f t="shared" si="47"/>
+        <v>13730.489896316998</v>
       </c>
       <c r="AT55" s="119">
         <f t="shared" si="53"/>
-        <v>118.9679593453165</v>
+        <v>119.05405221713352</v>
       </c>
       <c r="AU55" s="37">
-        <f t="shared" si="71"/>
-        <v>6.2306517480087749</v>
+        <f t="shared" si="48"/>
+        <v>6.2324077525416079</v>
       </c>
       <c r="AV55" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>21956.987269505178</v>
       </c>
       <c r="AW55" s="34">
-        <f t="shared" si="63"/>
-        <v>19.751573314975801</v>
+        <f t="shared" si="50"/>
+        <v>19.774183613692898</v>
       </c>
       <c r="AX55" s="10">
         <v>648</v>
@@ -16030,7 +16034,7 @@
         <v>25586279</v>
       </c>
       <c r="BS55" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>44364</v>
       </c>
       <c r="BT55" s="10">
@@ -16038,7 +16042,7 @@
         <v>550.95346683893194</v>
       </c>
       <c r="BU55" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.17369097031291858</v>
       </c>
       <c r="BV55" s="30">
@@ -16046,7 +16050,7 @@
         <v>-1.9376089905051685E-2</v>
       </c>
       <c r="BW55" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>0.19306706021797027</v>
       </c>
       <c r="BX55" s="10">
@@ -16056,11 +16060,11 @@
         <v>12.54</v>
       </c>
       <c r="BZ55" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>75.871549999999999</v>
       </c>
       <c r="CA55" s="33">
-        <f t="shared" si="80"/>
+        <f>(CB55*(100-BY55))/100</f>
         <v>11.58845</v>
       </c>
       <c r="CB55" s="22">
@@ -16098,11 +16102,11 @@
         <v>7.9</v>
       </c>
       <c r="CL55" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>6.7567567567567579</v>
       </c>
       <c r="CM55" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>15.974859353023909</v>
       </c>
       <c r="CN55" s="30">
@@ -16110,11 +16114,11 @@
         <v>6.2598360204699279</v>
       </c>
       <c r="CO55" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>21.299812470698544</v>
       </c>
       <c r="CP55" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>4.6948770153524464</v>
       </c>
       <c r="CQ55" s="10">
@@ -16152,7 +16156,7 @@
         <v>-0.19812727272727274</v>
       </c>
       <c r="CZ55" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2.5039123630672862</v>
       </c>
       <c r="DA55" s="33">
@@ -16160,22 +16164,22 @@
         <v>2.7039123630672863</v>
       </c>
       <c r="DB55" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.23471145564168694</v>
       </c>
       <c r="DC55" s="33">
+        <f t="shared" si="66"/>
+        <v>14.014388732014083</v>
+      </c>
+      <c r="DD55" s="33">
         <f t="shared" si="67"/>
-        <v>14.014388732014083</v>
-      </c>
-      <c r="DD55" s="33">
-        <f t="shared" si="68"/>
         <v>14.564346124076565</v>
       </c>
       <c r="DE55" s="38">
         <v>19.63</v>
       </c>
       <c r="DF55" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>7.1987893784197325</v>
       </c>
       <c r="DG55" s="30">
@@ -16214,7 +16218,7 @@
         <v>17626310</v>
       </c>
       <c r="D56" s="127">
-        <v>38169924</v>
+        <v>38181116.413720004</v>
       </c>
       <c r="E56" s="10">
         <f t="shared" si="62"/>
@@ -16274,7 +16278,7 @@
         <v>36664867</v>
       </c>
       <c r="V56" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>117198.93684691683</v>
       </c>
       <c r="W56" s="22">
@@ -16328,7 +16332,7 @@
         <v>3705.6640219166661</v>
       </c>
       <c r="AL56" s="106">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>37.024403504621169</v>
       </c>
       <c r="AM56" s="118">
@@ -16338,12 +16342,12 @@
         <f t="shared" si="22"/>
         <v>123.33655958120704</v>
       </c>
-      <c r="AO56" s="34">
-        <f t="shared" si="47"/>
-        <v>18142.504030136399</v>
-      </c>
-      <c r="AP56" s="133">
+      <c r="AO56" s="133">
         <v>692498000000</v>
+      </c>
+      <c r="AP56" s="34">
+        <f t="shared" si="46"/>
+        <v>18137.185735908908</v>
       </c>
       <c r="AQ56" s="119">
         <f t="shared" si="51"/>
@@ -16354,24 +16358,24 @@
         <v>21703.571269287509</v>
       </c>
       <c r="AS56" s="119">
-        <f t="shared" si="48"/>
-        <v>13984.018998033283</v>
+        <f t="shared" si="47"/>
+        <v>13994.655586488265</v>
       </c>
       <c r="AT56" s="119">
         <f t="shared" si="53"/>
-        <v>121.25234719001644</v>
+        <v>121.34457470461308</v>
       </c>
       <c r="AU56" s="37">
-        <f t="shared" si="71"/>
-        <v>6.4599096493096217</v>
+        <f t="shared" si="48"/>
+        <v>6.4618038627062466</v>
       </c>
       <c r="AV56" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>23439.787369383364</v>
       </c>
       <c r="AW56" s="34">
-        <f t="shared" si="63"/>
-        <v>22.599536658622526</v>
+        <f t="shared" si="50"/>
+        <v>22.622225832989514</v>
       </c>
       <c r="AX56" s="10">
         <v>655</v>
@@ -16443,7 +16447,7 @@
         <v>25645100</v>
       </c>
       <c r="BS56" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>58821</v>
       </c>
       <c r="BT56" s="10">
@@ -16451,7 +16455,7 @@
         <v>550.92698017143232</v>
       </c>
       <c r="BU56" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.22989274837502194</v>
       </c>
       <c r="BV56" s="30">
@@ -16459,7 +16463,7 @@
         <v>0.23471145564168694</v>
       </c>
       <c r="BW56" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>-4.818707266665001E-3</v>
       </c>
       <c r="BX56" s="10">
@@ -16469,11 +16473,11 @@
         <v>12.55</v>
       </c>
       <c r="BZ56" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>75.985304999999997</v>
       </c>
       <c r="CA56" s="33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>11.464694999999999</v>
       </c>
       <c r="CB56" s="22">
@@ -16515,7 +16519,7 @@
         <v>13.291139240506311</v>
       </c>
       <c r="CM56" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>14.351334574798262</v>
       </c>
       <c r="CN56" s="30">
@@ -16523,11 +16527,11 @@
         <v>6.9679930795847751</v>
       </c>
       <c r="CO56" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>19.135112766397683</v>
       </c>
       <c r="CP56" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>5.2259948096885811</v>
       </c>
       <c r="CQ56" s="10">
@@ -16565,7 +16569,7 @@
         <v>-0.10842727272727271</v>
       </c>
       <c r="CZ56" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>4.7328244274809208</v>
       </c>
       <c r="DA56" s="33">
@@ -16573,22 +16577,22 @@
         <v>2.7728244274809208</v>
       </c>
       <c r="DB56" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.23512212936904575</v>
       </c>
       <c r="DC56" s="33">
+        <f t="shared" si="66"/>
+        <v>15.357993018981958</v>
+      </c>
+      <c r="DD56" s="33">
         <f t="shared" si="67"/>
-        <v>15.357993018981958</v>
-      </c>
-      <c r="DD56" s="33">
-        <f t="shared" si="68"/>
         <v>10.659799721973627</v>
       </c>
       <c r="DE56" s="38">
         <v>17.22</v>
       </c>
       <c r="DF56" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>9.9588192371695019</v>
       </c>
       <c r="DG56" s="30">
@@ -16627,7 +16631,7 @@
         <v>17425139</v>
       </c>
       <c r="D57" s="127">
-        <v>38306475</v>
+        <v>38317702.677854009</v>
       </c>
       <c r="E57" s="10">
         <f>C57/26</f>
@@ -16687,7 +16691,7 @@
         <v>43284882</v>
       </c>
       <c r="V57" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>124265.43525318237</v>
       </c>
       <c r="W57" s="22">
@@ -16741,7 +16745,7 @@
         <v>6065.6484375</v>
       </c>
       <c r="AL57" s="106">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>23.196200942036544</v>
       </c>
       <c r="AM57" s="118">
@@ -16751,12 +16755,12 @@
         <f t="shared" si="22"/>
         <v>131.10283543659014</v>
       </c>
-      <c r="AO57" s="34">
-        <f t="shared" si="47"/>
-        <v>18592.418122523672</v>
-      </c>
-      <c r="AP57" s="133">
+      <c r="AO57" s="133">
         <v>712210000000</v>
+      </c>
+      <c r="AP57" s="34">
+        <f t="shared" si="46"/>
+        <v>18586.970257265108</v>
       </c>
       <c r="AQ57" s="119">
         <f t="shared" si="51"/>
@@ -16767,24 +16771,24 @@
         <v>22257.233801667291</v>
       </c>
       <c r="AS57" s="119">
-        <f t="shared" si="48"/>
-        <v>13922.295552937434</v>
+        <f t="shared" si="47"/>
+        <v>13933.191283454562</v>
       </c>
       <c r="AT57" s="119">
         <f t="shared" si="53"/>
-        <v>120.71715679907244</v>
+        <v>120.81163127738496</v>
       </c>
       <c r="AU57" s="37">
-        <f t="shared" si="71"/>
-        <v>6.6836618257117273</v>
+        <f t="shared" si="48"/>
+        <v>6.685620815722273</v>
       </c>
       <c r="AV57" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>24853.087050636474</v>
       </c>
       <c r="AW57" s="34">
-        <f t="shared" si="63"/>
-        <v>25.190709368848687</v>
+        <f t="shared" si="50"/>
+        <v>25.21262964477846</v>
       </c>
       <c r="AX57" s="10">
         <v>707</v>
@@ -16856,7 +16860,7 @@
         <v>25712558</v>
       </c>
       <c r="BS57" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>67458</v>
       </c>
       <c r="BT57" s="10">
@@ -16864,7 +16868,7 @@
         <v>551.08045066309217</v>
       </c>
       <c r="BU57" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.26304440224448911</v>
       </c>
       <c r="BV57" s="30">
@@ -16872,7 +16876,7 @@
         <v>0.23512212936904575</v>
       </c>
       <c r="BW57" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>2.7922272875443355E-2</v>
       </c>
       <c r="BX57" s="10">
@@ -16882,11 +16886,11 @@
         <v>12.18</v>
       </c>
       <c r="BZ57" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>76.719551999999993</v>
       </c>
       <c r="CA57" s="33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>11.100447999999998</v>
       </c>
       <c r="CB57" s="22">
@@ -16928,7 +16932,7 @@
         <v>12.290502793296113</v>
       </c>
       <c r="CM57" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>13.574488667772249</v>
       </c>
       <c r="CN57" s="30">
@@ -16936,7 +16940,7 @@
         <v>7.3667599898192933</v>
       </c>
       <c r="CO57" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>18.099318223696333</v>
       </c>
       <c r="CP57" s="30">
@@ -16978,7 +16982,7 @@
         <v>-2.1663636363636385E-2</v>
       </c>
       <c r="CZ57" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2.5510204081632679</v>
       </c>
       <c r="DA57" s="33">
@@ -16986,22 +16990,22 @@
         <v>0.88102040816326799</v>
       </c>
       <c r="DB57" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.59713303359625058</v>
       </c>
       <c r="DC57" s="33">
+        <f t="shared" si="66"/>
+        <v>10.764598711840634</v>
+      </c>
+      <c r="DD57" s="33">
         <f t="shared" si="67"/>
-        <v>10.764598711840634</v>
-      </c>
-      <c r="DD57" s="33">
-        <f t="shared" si="68"/>
         <v>11.34211089907717</v>
       </c>
       <c r="DE57" s="38">
         <v>15.25</v>
       </c>
       <c r="DF57" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>8.0760904005277361</v>
       </c>
       <c r="DG57" s="30">
@@ -17040,7 +17044,7 @@
         <v>17297371</v>
       </c>
       <c r="D58" s="127">
-        <v>38600665</v>
+        <v>38612346.577307008</v>
       </c>
       <c r="E58" s="10">
         <f t="shared" si="62"/>
@@ -17100,7 +17104,7 @@
         <v>45383450</v>
       </c>
       <c r="V58" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>125614.67072249239</v>
       </c>
       <c r="W58" s="22">
@@ -17154,7 +17158,7 @@
         <v>6584.3950399166679</v>
       </c>
       <c r="AL58" s="106">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>21.839515874767432</v>
       </c>
       <c r="AM58" s="118">
@@ -17164,12 +17168,12 @@
         <f t="shared" si="22"/>
         <v>114.50632419171714</v>
       </c>
-      <c r="AO58" s="34">
-        <f t="shared" si="47"/>
-        <v>19374.718026230894</v>
-      </c>
-      <c r="AP58" s="133">
+      <c r="AO58" s="133">
         <v>747877000000</v>
+      </c>
+      <c r="AP58" s="34">
+        <f t="shared" si="46"/>
+        <v>19368.856500411122</v>
       </c>
       <c r="AQ58" s="119">
         <f t="shared" si="51"/>
@@ -17180,24 +17184,24 @@
         <v>22747.620616060816</v>
       </c>
       <c r="AS58" s="119">
-        <f t="shared" si="48"/>
-        <v>12969.300927888107</v>
+        <f t="shared" si="47"/>
+        <v>12981.02397952765</v>
       </c>
       <c r="AT58" s="119">
         <f t="shared" si="53"/>
-        <v>112.45395040876706</v>
+        <v>112.55559840622216</v>
       </c>
       <c r="AU58" s="37">
-        <f t="shared" si="71"/>
-        <v>6.4834322002738913</v>
+        <f t="shared" si="48"/>
+        <v>6.4853942575198538</v>
       </c>
       <c r="AV58" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>25122.934144498478</v>
       </c>
       <c r="AW58" s="34">
-        <f t="shared" si="63"/>
-        <v>22.880353406197784</v>
+        <f t="shared" si="50"/>
+        <v>22.90368478057492</v>
       </c>
       <c r="AX58" s="10">
         <v>735</v>
@@ -17269,7 +17273,7 @@
         <v>25793043</v>
       </c>
       <c r="BS58" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>80485</v>
       </c>
       <c r="BT58" s="10">
@@ -17277,7 +17281,7 @@
         <v>549.52404347438892</v>
       </c>
       <c r="BU58" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.31301825357088831</v>
       </c>
       <c r="BV58" s="30">
@@ -17285,7 +17289,7 @@
         <v>0.59713303359625058</v>
       </c>
       <c r="BW58" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>-0.28411478002536228</v>
       </c>
       <c r="BX58" s="10">
@@ -17295,11 +17299,11 @@
         <v>12.03</v>
       </c>
       <c r="BZ58" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>76.876982999999996</v>
       </c>
       <c r="CA58" s="33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>11.093017</v>
       </c>
       <c r="CB58" s="22">
@@ -17337,23 +17341,23 @@
         <v>10.65</v>
       </c>
       <c r="CL58" s="30">
+        <f t="shared" si="69"/>
+        <v>5.9701492537313356</v>
+      </c>
+      <c r="CM58" s="30">
+        <f t="shared" si="71"/>
+        <v>13.513302034428794</v>
+      </c>
+      <c r="CN58" s="30">
         <f t="shared" si="72"/>
-        <v>5.9701492537313356</v>
-      </c>
-      <c r="CM58" s="30">
+        <v>7.4001158077591205</v>
+      </c>
+      <c r="CO58" s="30">
+        <f t="shared" si="73"/>
+        <v>18.017736045905057</v>
+      </c>
+      <c r="CP58" s="30">
         <f t="shared" si="74"/>
-        <v>13.513302034428794</v>
-      </c>
-      <c r="CN58" s="30">
-        <f t="shared" si="75"/>
-        <v>7.4001158077591205</v>
-      </c>
-      <c r="CO58" s="30">
-        <f t="shared" si="76"/>
-        <v>18.017736045905057</v>
-      </c>
-      <c r="CP58" s="30">
-        <f t="shared" si="77"/>
         <v>5.550086855819341</v>
       </c>
       <c r="CQ58" s="10">
@@ -17391,7 +17395,7 @@
         <v>-5.3054545454545493E-2</v>
       </c>
       <c r="CZ58" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>2.2032693674484705</v>
       </c>
       <c r="DA58" s="33">
@@ -17399,22 +17403,22 @@
         <v>1.5032693674484703</v>
       </c>
       <c r="DB58" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.84273280005182016</v>
       </c>
       <c r="DC58" s="33">
+        <f t="shared" si="66"/>
+        <v>-2.7873447828504396</v>
+      </c>
+      <c r="DD58" s="33">
         <f t="shared" si="67"/>
-        <v>-2.7873447828504396</v>
-      </c>
-      <c r="DD58" s="33">
-        <f t="shared" si="68"/>
         <v>3.7220879291238731</v>
       </c>
       <c r="DE58" s="38">
         <v>14.1</v>
       </c>
       <c r="DF58" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>7.7533562232678115</v>
       </c>
       <c r="DG58" s="30">
@@ -17450,22 +17454,22 @@
         <v>47332614</v>
       </c>
       <c r="C59" s="10">
-        <v>17226469</v>
+        <v>17228035</v>
       </c>
       <c r="D59" s="127">
-        <v>39006857</v>
+        <v>39019391.287652001</v>
       </c>
       <c r="E59" s="10">
         <f t="shared" si="62"/>
-        <v>662556.5</v>
+        <v>662616.73076923075</v>
       </c>
       <c r="F59" s="10">
         <f t="shared" si="54"/>
-        <v>331278.25</v>
+        <v>331308.36538461538</v>
       </c>
       <c r="G59" s="10">
         <f t="shared" si="41"/>
-        <v>496917.375</v>
+        <v>496962.54807692306</v>
       </c>
       <c r="H59" s="10">
         <v>533950</v>
@@ -17513,7 +17517,7 @@
         <v>45020403</v>
       </c>
       <c r="V59" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>134904.31528132781</v>
       </c>
       <c r="W59" s="39">
@@ -17567,7 +17571,7 @@
         <v>10600.186686166666</v>
       </c>
       <c r="AL59" s="106">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>13.433725670684009</v>
       </c>
       <c r="AM59" s="118">
@@ -17577,12 +17581,12 @@
         <f t="shared" si="22"/>
         <v>91.952637503847512</v>
       </c>
-      <c r="AO59" s="34">
-        <f t="shared" si="47"/>
-        <v>18741.448458664589</v>
-      </c>
-      <c r="AP59" s="133">
+      <c r="AO59" s="133">
         <v>731045000000</v>
+      </c>
+      <c r="AP59" s="34">
+        <f t="shared" si="46"/>
+        <v>18735.428100626086</v>
       </c>
       <c r="AQ59" s="119">
         <f t="shared" si="51"/>
@@ -17593,24 +17597,24 @@
         <v>22526.155603108902</v>
       </c>
       <c r="AS59" s="119">
-        <f t="shared" si="48"/>
-        <v>13958.573040218565</v>
+        <f t="shared" si="47"/>
+        <v>13970.61375629557</v>
       </c>
       <c r="AT59" s="119">
         <f t="shared" si="53"/>
-        <v>121.03171089711905</v>
+        <v>121.13611329291034</v>
       </c>
       <c r="AU59" s="37">
-        <f t="shared" si="71"/>
-        <v>7.1981797767054951</v>
+        <f t="shared" si="48"/>
+        <v>7.2004928073578256</v>
       </c>
       <c r="AV59" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>26980.863056265564</v>
       </c>
       <c r="AW59" s="34">
-        <f t="shared" si="63"/>
-        <v>30.537994950045146</v>
+        <f t="shared" si="50"/>
+        <v>30.560308387632176</v>
       </c>
       <c r="AX59" s="10">
         <v>900</v>
@@ -17690,7 +17694,7 @@
         <v>546.81228887971406</v>
       </c>
       <c r="BU59" s="37">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.34510080877234373</v>
       </c>
       <c r="BV59" s="30">
@@ -17698,7 +17702,7 @@
         <v>0.84273280005182016</v>
       </c>
       <c r="BW59" s="37">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>-0.49763199127947644</v>
       </c>
       <c r="BX59" s="10">
@@ -17708,11 +17712,11 @@
         <v>11.16</v>
       </c>
       <c r="BZ59" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>78.783311999999995</v>
       </c>
       <c r="CA59" s="33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>10.056688000000001</v>
       </c>
       <c r="CB59" s="22">
@@ -17750,23 +17754,23 @@
         <v>11.05</v>
       </c>
       <c r="CL59" s="30">
+        <f t="shared" si="69"/>
+        <v>3.7558685446009292</v>
+      </c>
+      <c r="CM59" s="30">
+        <f t="shared" si="71"/>
+        <v>13.10646053293112</v>
+      </c>
+      <c r="CN59" s="30">
         <f t="shared" si="72"/>
-        <v>3.7558685446009292</v>
-      </c>
-      <c r="CM59" s="30">
+        <v>7.6298249820187012</v>
+      </c>
+      <c r="CO59" s="30">
+        <f t="shared" si="73"/>
+        <v>17.475280710574825</v>
+      </c>
+      <c r="CP59" s="30">
         <f t="shared" si="74"/>
-        <v>13.10646053293112</v>
-      </c>
-      <c r="CN59" s="30">
-        <f t="shared" si="75"/>
-        <v>7.6298249820187012</v>
-      </c>
-      <c r="CO59" s="30">
-        <f t="shared" si="76"/>
-        <v>17.475280710574825</v>
-      </c>
-      <c r="CP59" s="30">
-        <f t="shared" si="77"/>
         <v>5.7223687365140261</v>
       </c>
       <c r="CQ59" s="10">
@@ -17804,7 +17808,7 @@
         <v>-8.3318181818181819E-2</v>
       </c>
       <c r="CZ59" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-0.97357440890125702</v>
       </c>
       <c r="DA59" s="33">
@@ -17812,22 +17816,22 @@
         <v>-0.65357440890125695</v>
       </c>
       <c r="DB59" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.13954648691068883</v>
       </c>
       <c r="DC59" s="33">
+        <f t="shared" si="66"/>
+        <v>-17.43594428314394</v>
+      </c>
+      <c r="DD59" s="33">
         <f t="shared" si="67"/>
-        <v>-17.43594428314394</v>
-      </c>
-      <c r="DD59" s="33">
-        <f t="shared" si="68"/>
         <v>-7.6309678347924574</v>
       </c>
       <c r="DE59" s="38">
         <v>15.53</v>
       </c>
       <c r="DF59" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>4.7487943276127691</v>
       </c>
       <c r="DG59" s="30">
@@ -17866,7 +17870,7 @@
         <v>17044268</v>
       </c>
       <c r="D60" s="119">
-        <v>39156568</v>
+        <v>39169588.30671601</v>
       </c>
       <c r="E60" s="34">
         <f t="shared" si="62"/>
@@ -17926,7 +17930,7 @@
         <v>57582131</v>
       </c>
       <c r="V60" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>137920.94150672693</v>
       </c>
       <c r="W60" s="39">
@@ -17980,7 +17984,7 @@
         <v>39995.684733083333</v>
       </c>
       <c r="AL60" s="106">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>3.785408376188296</v>
       </c>
       <c r="AM60" s="118">
@@ -17990,12 +17994,12 @@
         <f t="shared" si="22"/>
         <v>99.722371337392914</v>
       </c>
-      <c r="AO60" s="34">
-        <f t="shared" si="47"/>
-        <v>19224.054569848919</v>
-      </c>
-      <c r="AP60" s="133">
+      <c r="AO60" s="133">
         <v>752748000000</v>
+      </c>
+      <c r="AP60" s="34">
+        <f t="shared" si="46"/>
+        <v>19217.664329418902</v>
       </c>
       <c r="AQ60" s="119">
         <f t="shared" si="51"/>
@@ -18006,24 +18010,24 @@
         <v>23949.859257799773</v>
       </c>
       <c r="AS60" s="119">
-        <f t="shared" si="48"/>
-        <v>14954.178348052767</v>
+        <f t="shared" si="47"/>
+        <v>14966.958828912801</v>
       </c>
       <c r="AT60" s="119">
         <f t="shared" si="53"/>
-        <v>129.6643851280904</v>
+        <v>129.77520186129954</v>
       </c>
       <c r="AU60" s="37">
-        <f t="shared" si="71"/>
-        <v>7.1743939867421451</v>
+        <f t="shared" si="48"/>
+        <v>7.1767796097673511</v>
       </c>
       <c r="AV60" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>27584.188301345384</v>
       </c>
       <c r="AW60" s="34">
-        <f t="shared" si="63"/>
-        <v>30.307702514808867</v>
+        <f t="shared" si="50"/>
+        <v>30.330868831541494</v>
       </c>
       <c r="AX60" s="34">
         <v>950</v>
@@ -18107,10 +18111,10 @@
         <v>0.3641519191578908</v>
       </c>
       <c r="BV60" s="30">
-        <f t="shared" si="61"/>
+        <f>(B60*100/B59)-100</f>
         <v>0.13954648691068883</v>
       </c>
-      <c r="BW60" s="41">
+      <c r="BW60" s="37">
         <f>BU60-BV60</f>
         <v>0.22460543224720197</v>
       </c>
@@ -18121,11 +18125,11 @@
         <v>9.44</v>
       </c>
       <c r="BZ60" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>80.779519999999991</v>
       </c>
       <c r="CA60" s="33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>9.7804800000000007</v>
       </c>
       <c r="CB60" s="22">
@@ -18155,7 +18159,7 @@
         <v>7.2013274336283191</v>
       </c>
       <c r="CO60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>18.515104966717868</v>
       </c>
       <c r="CP60" s="30">
@@ -18197,7 +18201,7 @@
         <v>-0.18181818181818171</v>
       </c>
       <c r="CZ60" s="42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.3202247191011196</v>
       </c>
       <c r="DA60" s="33">
@@ -18205,22 +18209,22 @@
         <v>3.2302247191011197</v>
       </c>
       <c r="DB60" s="42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.2027345073962579E-2</v>
       </c>
       <c r="DC60" s="33">
+        <f t="shared" si="66"/>
+        <v>36.025428865562787</v>
+      </c>
+      <c r="DD60" s="33">
         <f t="shared" si="67"/>
-        <v>36.025428865562787</v>
-      </c>
-      <c r="DD60" s="33">
-        <f t="shared" si="68"/>
         <v>25.104803113978448</v>
       </c>
       <c r="DE60" s="37">
         <v>14.8</v>
       </c>
       <c r="DF60" s="37">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>11.721220294322359</v>
       </c>
       <c r="DG60" s="30">
@@ -18255,23 +18259,23 @@
       <c r="B61" s="16">
         <v>47432805</v>
       </c>
-      <c r="C61" s="40">
-        <v>16745758.088183999</v>
-      </c>
-      <c r="D61" s="107">
-        <v>39295441</v>
+      <c r="C61" s="34">
+        <v>16801598</v>
+      </c>
+      <c r="D61" s="119">
+        <v>39309094.859484002</v>
       </c>
       <c r="E61" s="40">
         <f>C61/26</f>
-        <v>644067.61877630767</v>
+        <v>646215.30769230775</v>
       </c>
       <c r="F61" s="40">
         <f t="shared" si="54"/>
-        <v>322033.80938815384</v>
+        <v>323107.65384615387</v>
       </c>
       <c r="G61" s="40">
         <f t="shared" si="41"/>
-        <v>483050.71408223076</v>
+        <v>484661.48076923081</v>
       </c>
       <c r="H61" s="40">
         <v>528019.09555600001</v>
@@ -18319,7 +18323,7 @@
         <v>68796162</v>
       </c>
       <c r="V61" s="40">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>145421.22084543484</v>
       </c>
       <c r="W61" s="35">
@@ -18334,7 +18338,7 @@
       </c>
       <c r="Z61" s="93">
         <f t="shared" si="42"/>
-        <v>-3.0118995514599867</v>
+        <v>-2.9618995514599877</v>
       </c>
       <c r="AA61" s="93">
         <v>2.5</v>
@@ -18349,18 +18353,18 @@
         <v>25</v>
       </c>
       <c r="AE61" s="46">
-        <v>1.0900000000000001</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="AF61" s="112">
         <v>1.052225</v>
       </c>
       <c r="AG61" s="115">
         <f t="shared" si="19"/>
-        <v>161800</v>
+        <v>161100</v>
       </c>
       <c r="AH61" s="115">
         <f t="shared" si="20"/>
-        <v>170250.005</v>
+        <v>169513.44749999998</v>
       </c>
       <c r="AI61" s="110">
         <v>15.9</v>
@@ -18373,67 +18377,69 @@
         <v>26159.403401916668</v>
       </c>
       <c r="AL61" s="120">
-        <f t="shared" si="78"/>
-        <v>6.1851563475696505</v>
+        <f t="shared" si="75"/>
+        <v>6.1583973275245407</v>
       </c>
       <c r="AM61" s="107">
         <v>1709.7609090909091</v>
       </c>
       <c r="AN61" s="107">
         <f t="shared" si="22"/>
-        <v>94.633114571574865</v>
-      </c>
-      <c r="AO61" s="40">
-        <f t="shared" si="47"/>
-        <v>19922.359950102098</v>
-      </c>
-      <c r="AP61" s="132">
-        <v>782857920000</v>
+        <v>94.223700602476583</v>
+      </c>
+      <c r="AO61" s="132">
+        <v>770665920000</v>
+      </c>
+      <c r="AP61" s="40">
+        <f t="shared" si="46"/>
+        <v>19605.282766109365</v>
       </c>
       <c r="AQ61" s="107">
-        <f t="shared" si="51"/>
-        <v>19433.63261911751</v>
+        <f>AQ60*(1+(CS61/100))</f>
+        <v>19424.672899145578</v>
       </c>
       <c r="AR61" s="107">
         <f t="shared" si="52"/>
-        <v>25595.027925442559</v>
+        <v>25484.295418966605</v>
       </c>
       <c r="AS61" s="107">
-        <f t="shared" si="48"/>
-        <v>16716.928930445469</v>
+        <f t="shared" si="47"/>
+        <v>17231.391071983049</v>
       </c>
       <c r="AT61" s="107">
         <f t="shared" si="53"/>
-        <v>144.94880698533643</v>
+        <v>149.40959484686661</v>
       </c>
       <c r="AU61" s="41">
-        <f t="shared" si="71"/>
-        <v>7.2993973208826395</v>
+        <f t="shared" si="48"/>
+        <v>7.4174508258976486</v>
       </c>
       <c r="AV61" s="40">
-        <f t="shared" si="70"/>
+        <f t="shared" si="49"/>
         <v>29084.244169086967</v>
       </c>
       <c r="AW61" s="40">
-        <f t="shared" si="63"/>
-        <v>31.501194137005783</v>
+        <f t="shared" si="50"/>
+        <v>32.591396729685655</v>
       </c>
       <c r="AX61" s="40"/>
-      <c r="AY61" s="35">
-        <v>162</v>
-      </c>
-      <c r="AZ61" s="35"/>
+      <c r="AY61" s="40">
+        <v>158.5</v>
+      </c>
+      <c r="AZ61" s="35">
+        <v>27512</v>
+      </c>
       <c r="BA61" s="35">
-        <v>80433</v>
+        <v>76449</v>
       </c>
       <c r="BB61" s="35">
-        <v>27504</v>
+        <v>27604</v>
       </c>
       <c r="BC61" s="35">
-        <v>45434</v>
+        <v>45693</v>
       </c>
       <c r="BD61" s="35">
-        <v>3091</v>
+        <v>3152</v>
       </c>
       <c r="BE61" s="40">
         <v>26871</v>
@@ -18471,7 +18477,7 @@
       </c>
       <c r="BO61" s="92">
         <f>CR61/((BN61+BI61)/2)</f>
-        <v>2.0007185400912664</v>
+        <v>1.992062773848597</v>
       </c>
       <c r="BP61" s="90">
         <f t="shared" si="37"/>
@@ -18504,7 +18510,7 @@
         <v>0.30523955258526314</v>
       </c>
       <c r="BX61" s="40">
-        <v>14724</v>
+        <v>14989</v>
       </c>
       <c r="BY61" s="40"/>
       <c r="BZ61" s="40"/>
@@ -18519,87 +18525,87 @@
       <c r="CI61" s="22"/>
       <c r="CJ61" s="22"/>
       <c r="CK61" s="41">
-        <v>11</v>
+        <v>11.07</v>
       </c>
       <c r="CL61" s="41">
         <f>((CK61*100)/CK60)-100</f>
-        <v>1.3824884792626762</v>
+        <v>2.0276497695852527</v>
       </c>
       <c r="CM61" s="41">
         <f>CQ61/(CK61*12)</f>
-        <v>14.121212121212121</v>
+        <v>14.031918096958748</v>
       </c>
       <c r="CN61" s="41">
         <f>100/CM61</f>
-        <v>7.0815450643776821</v>
+        <v>7.1266094420600856</v>
       </c>
       <c r="CO61" s="41">
         <f>CQ61/((CK61*12)*0.75)</f>
-        <v>18.828282828282827</v>
+        <v>18.709224129278329</v>
       </c>
       <c r="CP61" s="41">
         <f>100/CO61</f>
-        <v>5.3111587982832624</v>
+        <v>5.3449570815450649</v>
       </c>
       <c r="CQ61" s="35">
         <v>1864</v>
       </c>
       <c r="CR61" s="40">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="CS61" s="46">
-        <v>8.4499999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="CT61" s="41">
         <f>CT60+CS61</f>
-        <v>221.1</v>
+        <v>221.05</v>
       </c>
       <c r="CU61" s="41">
         <f t="shared" si="26"/>
-        <v>1118.0902652500001</v>
+        <v>1116.6932652500002</v>
       </c>
       <c r="CV61" s="41">
         <f t="shared" si="23"/>
-        <v>499.90973474999987</v>
+        <v>494.3067347499998</v>
       </c>
       <c r="CW61" s="41">
         <f t="shared" si="24"/>
-        <v>731.79556761646313</v>
+        <v>728.79439040940963</v>
       </c>
       <c r="CX61" s="41">
         <f t="shared" si="25"/>
-        <v>886.20443238353687</v>
+        <v>882.20560959059037</v>
       </c>
       <c r="CY61" s="33">
-        <f t="shared" si="17"/>
-        <v>1.5796727272727273</v>
+        <f>(AE61-AE60)</f>
+        <v>1.5776727272727273</v>
       </c>
       <c r="CZ61" s="46">
+        <f t="shared" si="27"/>
+        <v>6.4068692206076605</v>
+      </c>
+      <c r="DA61" s="46">
+        <f>CZ61-CS61</f>
+        <v>-1.9931307793923398</v>
+      </c>
+      <c r="DB61" s="46">
         <f t="shared" si="28"/>
-        <v>6.8692206076618163</v>
-      </c>
-      <c r="DA61" s="33">
-        <f t="shared" si="31"/>
-        <v>-1.580779392338183</v>
-      </c>
-      <c r="DB61" s="46">
-        <f t="shared" si="27"/>
         <v>0.10541227743119919</v>
       </c>
       <c r="DC61" s="46">
+        <f t="shared" si="66"/>
+        <v>16.916553349731132</v>
+      </c>
+      <c r="DD61" s="46">
         <f t="shared" si="67"/>
-        <v>16.916553349731132</v>
-      </c>
-      <c r="DD61" s="46">
-        <f t="shared" si="68"/>
         <v>13.312782484353335</v>
       </c>
       <c r="DE61" s="47">
         <v>12.93</v>
       </c>
       <c r="DF61" s="37">
-        <f t="shared" si="73"/>
-        <v>12.180379405945079</v>
+        <f t="shared" si="70"/>
+        <v>11.751826302152725</v>
       </c>
       <c r="DG61" s="30">
         <f t="shared" si="43"/>
@@ -18691,15 +18697,20 @@
       <c r="AC62" s="48"/>
       <c r="AD62" s="48"/>
       <c r="AE62" s="46">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AF62" s="108"/>
       <c r="AG62" s="108"/>
       <c r="AH62" s="108"/>
       <c r="AI62" s="108"/>
       <c r="AJ62" s="108"/>
-      <c r="AK62" s="108"/>
-      <c r="AL62" s="108"/>
+      <c r="AK62" s="107">
+        <v>16000</v>
+      </c>
+      <c r="AL62" s="120">
+        <f>CR62*100/AK62</f>
+        <v>10.175000000000001</v>
+      </c>
       <c r="AM62" s="108"/>
       <c r="AN62" s="108"/>
       <c r="AO62" s="22"/>
@@ -18757,14 +18768,19 @@
       <c r="CO62" s="40"/>
       <c r="CP62" s="40"/>
       <c r="CQ62" s="40"/>
-      <c r="CR62" s="40"/>
+      <c r="CR62" s="40">
+        <v>1628</v>
+      </c>
       <c r="CS62" s="46"/>
       <c r="CT62" s="41"/>
       <c r="CU62" s="41"/>
       <c r="CV62" s="41"/>
       <c r="CW62" s="41"/>
       <c r="CX62" s="41"/>
-      <c r="CY62" s="33"/>
+      <c r="CY62" s="33">
+        <f>(AE62-AE61)</f>
+        <v>2.2119999999999997</v>
+      </c>
       <c r="CZ62" s="46"/>
       <c r="DA62" s="46"/>
       <c r="DB62" s="46"/>
@@ -18843,7 +18859,7 @@
       </c>
       <c r="N63" s="40"/>
       <c r="O63" s="40">
-        <f t="shared" ref="O63:O109" si="81">O62*1.03</f>
+        <f t="shared" ref="O63:O109" si="78">O62*1.03</f>
         <v>209005.78720000002</v>
       </c>
       <c r="P63" s="35"/>
@@ -19012,7 +19028,7 @@
       </c>
       <c r="N64" s="40"/>
       <c r="O64" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>215275.96081600004</v>
       </c>
       <c r="P64" s="35"/>
@@ -19181,7 +19197,7 @@
       </c>
       <c r="N65" s="40"/>
       <c r="O65" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>221734.23964048005</v>
       </c>
       <c r="P65" s="35"/>
@@ -19350,7 +19366,7 @@
       </c>
       <c r="N66" s="40"/>
       <c r="O66" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>228386.26682969445</v>
       </c>
       <c r="P66" s="35"/>
@@ -19493,7 +19509,7 @@
         <v>294450.90909019229</v>
       </c>
       <c r="G67" s="40">
-        <f t="shared" ref="G67:G98" si="82">F67*1.5</f>
+        <f t="shared" ref="G67:G98" si="79">F67*1.5</f>
         <v>441676.36363528844</v>
       </c>
       <c r="H67" s="40">
@@ -19519,7 +19535,7 @@
       </c>
       <c r="N67" s="40"/>
       <c r="O67" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>235237.85483458528</v>
       </c>
       <c r="P67" s="35"/>
@@ -19618,7 +19634,7 @@
       <c r="DE67" s="35"/>
       <c r="DF67" s="40"/>
       <c r="DG67" s="30">
-        <f t="shared" ref="DG67:DG98" si="83">-0.06*((A67-1963)^2)+8.5*(A67-1963)+140</f>
+        <f t="shared" ref="DG67:DG98" si="80">-0.06*((A67-1963)^2)+8.5*(A67-1963)+140</f>
         <v>439</v>
       </c>
       <c r="DH67" s="41">
@@ -19638,7 +19654,7 @@
         <v>339</v>
       </c>
       <c r="DL67" s="30">
-        <f t="shared" ref="DL67:DL98" si="84">-0.025*((A67-1963)^2)+5.5*(A67-1963)+175</f>
+        <f t="shared" ref="DL67:DL98" si="81">-0.025*((A67-1963)^2)+5.5*(A67-1963)+175</f>
         <v>426.875</v>
       </c>
     </row>
@@ -19662,7 +19678,7 @@
         <v>290819.41271875001</v>
       </c>
       <c r="G68" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>436229.11907812499</v>
       </c>
       <c r="H68" s="40">
@@ -19688,7 +19704,7 @@
       </c>
       <c r="N68" s="40"/>
       <c r="O68" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>242294.99047962285</v>
       </c>
       <c r="P68" s="35"/>
@@ -19787,27 +19803,27 @@
       <c r="DE68" s="35"/>
       <c r="DF68" s="40"/>
       <c r="DG68" s="30">
-        <f t="shared" si="83"/>
+        <f t="shared" si="80"/>
         <v>439.64</v>
       </c>
       <c r="DH68" s="41">
-        <f t="shared" ref="DH68:DH109" si="85">DG68+50</f>
+        <f t="shared" ref="DH68:DH109" si="82">DG68+50</f>
         <v>489.64</v>
       </c>
       <c r="DI68" s="41">
-        <f t="shared" ref="DI68:DI109" si="86">DG68-50</f>
+        <f t="shared" ref="DI68:DI109" si="83">DG68-50</f>
         <v>389.64</v>
       </c>
       <c r="DJ68" s="41">
-        <f t="shared" ref="DJ68:DJ99" si="87">DG68+100</f>
+        <f t="shared" ref="DJ68:DJ99" si="84">DG68+100</f>
         <v>539.64</v>
       </c>
       <c r="DK68" s="41">
-        <f t="shared" ref="DK68:DK99" si="88">DG68-100</f>
+        <f t="shared" ref="DK68:DK99" si="85">DG68-100</f>
         <v>339.64</v>
       </c>
       <c r="DL68" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>429.1</v>
       </c>
     </row>
@@ -19831,7 +19847,7 @@
         <v>287751.2977272307</v>
       </c>
       <c r="G69" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>431626.94659084606</v>
       </c>
       <c r="H69" s="40">
@@ -19857,7 +19873,7 @@
       </c>
       <c r="N69" s="40"/>
       <c r="O69" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>249563.84019401154</v>
       </c>
       <c r="P69" s="35"/>
@@ -19956,27 +19972,27 @@
       <c r="DE69" s="35"/>
       <c r="DF69" s="40"/>
       <c r="DG69" s="30">
+        <f t="shared" si="80"/>
+        <v>440.16</v>
+      </c>
+      <c r="DH69" s="41">
+        <f t="shared" si="82"/>
+        <v>490.16</v>
+      </c>
+      <c r="DI69" s="41">
         <f t="shared" si="83"/>
-        <v>440.16</v>
-      </c>
-      <c r="DH69" s="41">
+        <v>390.16</v>
+      </c>
+      <c r="DJ69" s="41">
+        <f t="shared" si="84"/>
+        <v>540.16000000000008</v>
+      </c>
+      <c r="DK69" s="41">
         <f t="shared" si="85"/>
-        <v>490.16</v>
-      </c>
-      <c r="DI69" s="41">
-        <f t="shared" si="86"/>
-        <v>390.16</v>
-      </c>
-      <c r="DJ69" s="41">
-        <f t="shared" si="87"/>
-        <v>540.16000000000008</v>
-      </c>
-      <c r="DK69" s="41">
-        <f t="shared" si="88"/>
         <v>340.16</v>
       </c>
       <c r="DL69" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>431.27499999999998</v>
       </c>
     </row>
@@ -20000,7 +20016,7 @@
         <v>285621.39348255767</v>
       </c>
       <c r="G70" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>428432.09022383648</v>
       </c>
       <c r="H70" s="40">
@@ -20026,7 +20042,7 @@
       </c>
       <c r="N70" s="40"/>
       <c r="O70" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>257050.75539983189</v>
       </c>
       <c r="P70" s="35"/>
@@ -20125,27 +20141,27 @@
       <c r="DE70" s="35"/>
       <c r="DF70" s="40"/>
       <c r="DG70" s="30">
+        <f t="shared" si="80"/>
+        <v>440.56</v>
+      </c>
+      <c r="DH70" s="41">
+        <f t="shared" si="82"/>
+        <v>490.56</v>
+      </c>
+      <c r="DI70" s="41">
         <f t="shared" si="83"/>
-        <v>440.56</v>
-      </c>
-      <c r="DH70" s="41">
+        <v>390.56</v>
+      </c>
+      <c r="DJ70" s="41">
+        <f t="shared" si="84"/>
+        <v>540.55999999999995</v>
+      </c>
+      <c r="DK70" s="41">
         <f t="shared" si="85"/>
-        <v>490.56</v>
-      </c>
-      <c r="DI70" s="41">
-        <f t="shared" si="86"/>
-        <v>390.56</v>
-      </c>
-      <c r="DJ70" s="41">
-        <f t="shared" si="87"/>
-        <v>540.55999999999995</v>
-      </c>
-      <c r="DK70" s="41">
-        <f t="shared" si="88"/>
         <v>340.56</v>
       </c>
       <c r="DL70" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>433.4</v>
       </c>
     </row>
@@ -20169,7 +20185,7 @@
         <v>284295.40834148077</v>
       </c>
       <c r="G71" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>426443.11251222115</v>
       </c>
       <c r="H71" s="40">
@@ -20195,7 +20211,7 @@
       </c>
       <c r="N71" s="40"/>
       <c r="O71" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>264762.27806182683</v>
       </c>
       <c r="P71" s="35"/>
@@ -20294,27 +20310,27 @@
       <c r="DE71" s="35"/>
       <c r="DF71" s="40"/>
       <c r="DG71" s="30">
+        <f t="shared" si="80"/>
+        <v>440.84000000000003</v>
+      </c>
+      <c r="DH71" s="41">
+        <f t="shared" si="82"/>
+        <v>490.84000000000003</v>
+      </c>
+      <c r="DI71" s="41">
         <f t="shared" si="83"/>
-        <v>440.84000000000003</v>
-      </c>
-      <c r="DH71" s="41">
+        <v>390.84000000000003</v>
+      </c>
+      <c r="DJ71" s="41">
+        <f t="shared" si="84"/>
+        <v>540.84</v>
+      </c>
+      <c r="DK71" s="41">
         <f t="shared" si="85"/>
-        <v>490.84000000000003</v>
-      </c>
-      <c r="DI71" s="41">
-        <f t="shared" si="86"/>
-        <v>390.84000000000003</v>
-      </c>
-      <c r="DJ71" s="41">
-        <f t="shared" si="87"/>
-        <v>540.84</v>
-      </c>
-      <c r="DK71" s="41">
-        <f t="shared" si="88"/>
         <v>340.84000000000003</v>
       </c>
       <c r="DL71" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>435.47500000000002</v>
       </c>
     </row>
@@ -20338,7 +20354,7 @@
         <v>283822.04382590385</v>
       </c>
       <c r="G72" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>425733.06573885574</v>
       </c>
       <c r="H72" s="40">
@@ -20364,7 +20380,7 @@
       </c>
       <c r="N72" s="40"/>
       <c r="O72" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>272705.14640368166</v>
       </c>
       <c r="P72" s="35"/>
@@ -20463,27 +20479,27 @@
       <c r="DE72" s="35"/>
       <c r="DF72" s="40"/>
       <c r="DG72" s="30">
+        <f t="shared" si="80"/>
+        <v>441</v>
+      </c>
+      <c r="DH72" s="41">
+        <f t="shared" si="82"/>
+        <v>491</v>
+      </c>
+      <c r="DI72" s="41">
         <f t="shared" si="83"/>
-        <v>441</v>
-      </c>
-      <c r="DH72" s="41">
+        <v>391</v>
+      </c>
+      <c r="DJ72" s="41">
+        <f t="shared" si="84"/>
+        <v>541</v>
+      </c>
+      <c r="DK72" s="41">
         <f t="shared" si="85"/>
-        <v>491</v>
-      </c>
-      <c r="DI72" s="41">
-        <f t="shared" si="86"/>
-        <v>391</v>
-      </c>
-      <c r="DJ72" s="41">
-        <f t="shared" si="87"/>
-        <v>541</v>
-      </c>
-      <c r="DK72" s="41">
-        <f t="shared" si="88"/>
         <v>341</v>
       </c>
       <c r="DL72" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>437.5</v>
       </c>
     </row>
@@ -20507,7 +20523,7 @@
         <v>284378.80092942301</v>
       </c>
       <c r="G73" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>426568.20139413455</v>
       </c>
       <c r="H73" s="40">
@@ -20533,7 +20549,7 @@
       </c>
       <c r="N73" s="40"/>
       <c r="O73" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>280886.30079579214</v>
       </c>
       <c r="P73" s="35"/>
@@ -20632,27 +20648,27 @@
       <c r="DE73" s="35"/>
       <c r="DF73" s="40"/>
       <c r="DG73" s="30">
+        <f t="shared" si="80"/>
+        <v>441.04</v>
+      </c>
+      <c r="DH73" s="41">
+        <f t="shared" si="82"/>
+        <v>491.04</v>
+      </c>
+      <c r="DI73" s="41">
         <f t="shared" si="83"/>
-        <v>441.04</v>
-      </c>
-      <c r="DH73" s="41">
+        <v>391.04</v>
+      </c>
+      <c r="DJ73" s="41">
+        <f t="shared" si="84"/>
+        <v>541.04</v>
+      </c>
+      <c r="DK73" s="41">
         <f t="shared" si="85"/>
-        <v>491.04</v>
-      </c>
-      <c r="DI73" s="41">
-        <f t="shared" si="86"/>
-        <v>391.04</v>
-      </c>
-      <c r="DJ73" s="41">
-        <f t="shared" si="87"/>
-        <v>541.04</v>
-      </c>
-      <c r="DK73" s="41">
-        <f t="shared" si="88"/>
         <v>341.04</v>
       </c>
       <c r="DL73" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>439.47500000000002</v>
       </c>
     </row>
@@ -20676,7 +20692,7 @@
         <v>285184.07383169228</v>
       </c>
       <c r="G74" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>427776.11074753839</v>
       </c>
       <c r="H74" s="40">
@@ -20702,7 +20718,7 @@
       </c>
       <c r="N74" s="40"/>
       <c r="O74" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>289312.88981966593</v>
       </c>
       <c r="P74" s="11"/>
@@ -20801,27 +20817,27 @@
       <c r="DE74" s="35"/>
       <c r="DF74" s="40"/>
       <c r="DG74" s="30">
+        <f t="shared" si="80"/>
+        <v>440.96000000000004</v>
+      </c>
+      <c r="DH74" s="41">
+        <f t="shared" si="82"/>
+        <v>490.96000000000004</v>
+      </c>
+      <c r="DI74" s="41">
         <f t="shared" si="83"/>
-        <v>440.96000000000004</v>
-      </c>
-      <c r="DH74" s="41">
+        <v>390.96000000000004</v>
+      </c>
+      <c r="DJ74" s="41">
+        <f t="shared" si="84"/>
+        <v>540.96</v>
+      </c>
+      <c r="DK74" s="41">
         <f t="shared" si="85"/>
-        <v>490.96000000000004</v>
-      </c>
-      <c r="DI74" s="41">
-        <f t="shared" si="86"/>
-        <v>390.96000000000004</v>
-      </c>
-      <c r="DJ74" s="41">
-        <f t="shared" si="87"/>
-        <v>540.96</v>
-      </c>
-      <c r="DK74" s="41">
-        <f t="shared" si="88"/>
         <v>340.96000000000004</v>
       </c>
       <c r="DL74" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>441.4</v>
       </c>
     </row>
@@ -20845,7 +20861,7 @@
         <v>286209.5341071923</v>
       </c>
       <c r="G75" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>429314.30116078845</v>
       </c>
       <c r="H75" s="40">
@@ -20871,7 +20887,7 @@
       </c>
       <c r="N75" s="40"/>
       <c r="O75" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>297992.27651425591</v>
       </c>
       <c r="P75" s="35"/>
@@ -20970,27 +20986,27 @@
       <c r="DE75" s="35"/>
       <c r="DF75" s="35"/>
       <c r="DG75" s="30">
+        <f t="shared" si="80"/>
+        <v>440.76</v>
+      </c>
+      <c r="DH75" s="41">
+        <f t="shared" si="82"/>
+        <v>490.76</v>
+      </c>
+      <c r="DI75" s="41">
         <f t="shared" si="83"/>
-        <v>440.76</v>
-      </c>
-      <c r="DH75" s="41">
+        <v>390.76</v>
+      </c>
+      <c r="DJ75" s="41">
+        <f t="shared" si="84"/>
+        <v>540.76</v>
+      </c>
+      <c r="DK75" s="41">
         <f t="shared" si="85"/>
-        <v>490.76</v>
-      </c>
-      <c r="DI75" s="41">
-        <f t="shared" si="86"/>
-        <v>390.76</v>
-      </c>
-      <c r="DJ75" s="41">
-        <f t="shared" si="87"/>
-        <v>540.76</v>
-      </c>
-      <c r="DK75" s="41">
-        <f t="shared" si="88"/>
         <v>340.76</v>
       </c>
       <c r="DL75" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>443.27499999999998</v>
       </c>
     </row>
@@ -21014,7 +21030,7 @@
         <v>287591.54159978847</v>
       </c>
       <c r="G76" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>431387.31239968271</v>
       </c>
       <c r="H76" s="40">
@@ -21040,7 +21056,7 @@
       </c>
       <c r="N76" s="40"/>
       <c r="O76" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>306932.04480968358</v>
       </c>
       <c r="P76" s="35"/>
@@ -21139,27 +21155,27 @@
       <c r="DE76" s="35"/>
       <c r="DF76" s="35"/>
       <c r="DG76" s="30">
+        <f t="shared" si="80"/>
+        <v>440.44</v>
+      </c>
+      <c r="DH76" s="41">
+        <f t="shared" si="82"/>
+        <v>490.44</v>
+      </c>
+      <c r="DI76" s="41">
         <f t="shared" si="83"/>
-        <v>440.44</v>
-      </c>
-      <c r="DH76" s="41">
+        <v>390.44</v>
+      </c>
+      <c r="DJ76" s="41">
+        <f t="shared" si="84"/>
+        <v>540.44000000000005</v>
+      </c>
+      <c r="DK76" s="41">
         <f t="shared" si="85"/>
-        <v>490.44</v>
-      </c>
-      <c r="DI76" s="41">
-        <f t="shared" si="86"/>
-        <v>390.44</v>
-      </c>
-      <c r="DJ76" s="41">
-        <f t="shared" si="87"/>
-        <v>540.44000000000005</v>
-      </c>
-      <c r="DK76" s="41">
-        <f t="shared" si="88"/>
         <v>340.44</v>
       </c>
       <c r="DL76" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>445.1</v>
       </c>
     </row>
@@ -21183,7 +21199,7 @@
         <v>289019.77125724999</v>
       </c>
       <c r="G77" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>433529.65688587498</v>
       </c>
       <c r="H77" s="40">
@@ -21209,7 +21225,7 @@
       </c>
       <c r="N77" s="40"/>
       <c r="O77" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>316140.0061539741</v>
       </c>
       <c r="P77" s="35"/>
@@ -21308,27 +21324,27 @@
       <c r="DE77" s="35"/>
       <c r="DF77" s="35"/>
       <c r="DG77" s="30">
+        <f t="shared" si="80"/>
+        <v>440</v>
+      </c>
+      <c r="DH77" s="41">
+        <f t="shared" si="82"/>
+        <v>490</v>
+      </c>
+      <c r="DI77" s="41">
         <f t="shared" si="83"/>
-        <v>440</v>
-      </c>
-      <c r="DH77" s="41">
+        <v>390</v>
+      </c>
+      <c r="DJ77" s="41">
+        <f t="shared" si="84"/>
+        <v>540</v>
+      </c>
+      <c r="DK77" s="41">
         <f t="shared" si="85"/>
-        <v>490</v>
-      </c>
-      <c r="DI77" s="41">
-        <f t="shared" si="86"/>
-        <v>390</v>
-      </c>
-      <c r="DJ77" s="41">
-        <f t="shared" si="87"/>
-        <v>540</v>
-      </c>
-      <c r="DK77" s="41">
-        <f t="shared" si="88"/>
         <v>340</v>
       </c>
       <c r="DL77" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>446.875</v>
       </c>
     </row>
@@ -21352,7 +21368,7 @@
         <v>290259.97400767304</v>
       </c>
       <c r="G78" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>435389.96101150953</v>
       </c>
       <c r="H78" s="40">
@@ -21378,7 +21394,7 @@
       </c>
       <c r="N78" s="40"/>
       <c r="O78" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>325624.20633859333</v>
       </c>
       <c r="P78" s="35"/>
@@ -21477,27 +21493,27 @@
       <c r="DE78" s="35"/>
       <c r="DF78" s="35"/>
       <c r="DG78" s="30">
+        <f t="shared" si="80"/>
+        <v>439.44</v>
+      </c>
+      <c r="DH78" s="41">
+        <f t="shared" si="82"/>
+        <v>489.44</v>
+      </c>
+      <c r="DI78" s="41">
         <f t="shared" si="83"/>
-        <v>439.44</v>
-      </c>
-      <c r="DH78" s="41">
+        <v>389.44</v>
+      </c>
+      <c r="DJ78" s="41">
+        <f t="shared" si="84"/>
+        <v>539.44000000000005</v>
+      </c>
+      <c r="DK78" s="41">
         <f t="shared" si="85"/>
-        <v>489.44</v>
-      </c>
-      <c r="DI78" s="41">
-        <f t="shared" si="86"/>
-        <v>389.44</v>
-      </c>
-      <c r="DJ78" s="41">
-        <f t="shared" si="87"/>
-        <v>539.44000000000005</v>
-      </c>
-      <c r="DK78" s="41">
-        <f t="shared" si="88"/>
         <v>339.44</v>
       </c>
       <c r="DL78" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>448.6</v>
       </c>
     </row>
@@ -21521,7 +21537,7 @@
         <v>291714.58903338452</v>
       </c>
       <c r="G79" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>437571.88355007675</v>
       </c>
       <c r="H79" s="40">
@@ -21547,7 +21563,7 @@
       </c>
       <c r="N79" s="40"/>
       <c r="O79" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>335392.93252875115</v>
       </c>
       <c r="P79" s="35"/>
@@ -21646,27 +21662,27 @@
       <c r="DE79" s="35"/>
       <c r="DF79" s="35"/>
       <c r="DG79" s="30">
+        <f t="shared" si="80"/>
+        <v>438.76</v>
+      </c>
+      <c r="DH79" s="41">
+        <f t="shared" si="82"/>
+        <v>488.76</v>
+      </c>
+      <c r="DI79" s="41">
         <f t="shared" si="83"/>
-        <v>438.76</v>
-      </c>
-      <c r="DH79" s="41">
+        <v>388.76</v>
+      </c>
+      <c r="DJ79" s="41">
+        <f t="shared" si="84"/>
+        <v>538.76</v>
+      </c>
+      <c r="DK79" s="41">
         <f t="shared" si="85"/>
-        <v>488.76</v>
-      </c>
-      <c r="DI79" s="41">
-        <f t="shared" si="86"/>
-        <v>388.76</v>
-      </c>
-      <c r="DJ79" s="41">
-        <f t="shared" si="87"/>
-        <v>538.76</v>
-      </c>
-      <c r="DK79" s="41">
-        <f t="shared" si="88"/>
         <v>338.76</v>
       </c>
       <c r="DL79" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>450.27499999999998</v>
       </c>
     </row>
@@ -21690,7 +21706,7 @@
         <v>293201.74200478848</v>
       </c>
       <c r="G80" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>439802.61300718272</v>
       </c>
       <c r="H80" s="40">
@@ -21716,7 +21732,7 @@
       </c>
       <c r="N80" s="40"/>
       <c r="O80" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>345454.72050461371</v>
       </c>
       <c r="P80" s="35"/>
@@ -21815,27 +21831,27 @@
       <c r="DE80" s="35"/>
       <c r="DF80" s="35"/>
       <c r="DG80" s="30">
+        <f t="shared" si="80"/>
+        <v>437.96000000000004</v>
+      </c>
+      <c r="DH80" s="41">
+        <f t="shared" si="82"/>
+        <v>487.96000000000004</v>
+      </c>
+      <c r="DI80" s="41">
         <f t="shared" si="83"/>
-        <v>437.96000000000004</v>
-      </c>
-      <c r="DH80" s="41">
+        <v>387.96000000000004</v>
+      </c>
+      <c r="DJ80" s="41">
+        <f t="shared" si="84"/>
+        <v>537.96</v>
+      </c>
+      <c r="DK80" s="41">
         <f t="shared" si="85"/>
-        <v>487.96000000000004</v>
-      </c>
-      <c r="DI80" s="41">
-        <f t="shared" si="86"/>
-        <v>387.96000000000004</v>
-      </c>
-      <c r="DJ80" s="41">
-        <f t="shared" si="87"/>
-        <v>537.96</v>
-      </c>
-      <c r="DK80" s="41">
-        <f t="shared" si="88"/>
         <v>337.96000000000004</v>
       </c>
       <c r="DL80" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>451.9</v>
       </c>
     </row>
@@ -21859,7 +21875,7 @@
         <v>294634.99062694225</v>
       </c>
       <c r="G81" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>441952.48594041337</v>
       </c>
       <c r="H81" s="40">
@@ -21885,7 +21901,7 @@
       </c>
       <c r="N81" s="40"/>
       <c r="O81" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>355818.36211975216</v>
       </c>
       <c r="P81" s="35"/>
@@ -21984,27 +22000,27 @@
       <c r="DE81" s="35"/>
       <c r="DF81" s="35"/>
       <c r="DG81" s="30">
+        <f t="shared" si="80"/>
+        <v>437.04</v>
+      </c>
+      <c r="DH81" s="41">
+        <f t="shared" si="82"/>
+        <v>487.04</v>
+      </c>
+      <c r="DI81" s="41">
         <f t="shared" si="83"/>
-        <v>437.04</v>
-      </c>
-      <c r="DH81" s="41">
+        <v>387.04</v>
+      </c>
+      <c r="DJ81" s="41">
+        <f t="shared" si="84"/>
+        <v>537.04</v>
+      </c>
+      <c r="DK81" s="41">
         <f t="shared" si="85"/>
-        <v>487.04</v>
-      </c>
-      <c r="DI81" s="41">
-        <f t="shared" si="86"/>
-        <v>387.04</v>
-      </c>
-      <c r="DJ81" s="41">
-        <f t="shared" si="87"/>
-        <v>537.04</v>
-      </c>
-      <c r="DK81" s="41">
-        <f t="shared" si="88"/>
         <v>337.04</v>
       </c>
       <c r="DL81" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>453.47500000000002</v>
       </c>
     </row>
@@ -22028,7 +22044,7 @@
         <v>295798.30358890386</v>
       </c>
       <c r="G82" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>443697.45538335579</v>
       </c>
       <c r="H82" s="40">
@@ -22054,7 +22070,7 @@
       </c>
       <c r="N82" s="40"/>
       <c r="O82" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>366492.91298334475</v>
       </c>
       <c r="P82" s="35"/>
@@ -22153,27 +22169,27 @@
       <c r="DE82" s="35"/>
       <c r="DF82" s="35"/>
       <c r="DG82" s="30">
+        <f t="shared" si="80"/>
+        <v>436</v>
+      </c>
+      <c r="DH82" s="41">
+        <f t="shared" si="82"/>
+        <v>486</v>
+      </c>
+      <c r="DI82" s="41">
         <f t="shared" si="83"/>
-        <v>436</v>
-      </c>
-      <c r="DH82" s="41">
+        <v>386</v>
+      </c>
+      <c r="DJ82" s="41">
+        <f t="shared" si="84"/>
+        <v>536</v>
+      </c>
+      <c r="DK82" s="41">
         <f t="shared" si="85"/>
-        <v>486</v>
-      </c>
-      <c r="DI82" s="41">
-        <f t="shared" si="86"/>
-        <v>386</v>
-      </c>
-      <c r="DJ82" s="41">
-        <f t="shared" si="87"/>
-        <v>536</v>
-      </c>
-      <c r="DK82" s="41">
-        <f t="shared" si="88"/>
         <v>336</v>
       </c>
       <c r="DL82" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>455</v>
       </c>
     </row>
@@ -22197,7 +22213,7 @@
         <v>296473.69759578852</v>
       </c>
       <c r="G83" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>444710.54639368277</v>
       </c>
       <c r="H83" s="40">
@@ -22223,7 +22239,7 @@
       </c>
       <c r="N83" s="40"/>
       <c r="O83" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>377487.70037284511</v>
       </c>
       <c r="P83" s="35"/>
@@ -22322,27 +22338,27 @@
       <c r="DE83" s="35"/>
       <c r="DF83" s="35"/>
       <c r="DG83" s="30">
+        <f t="shared" si="80"/>
+        <v>434.84000000000003</v>
+      </c>
+      <c r="DH83" s="41">
+        <f t="shared" si="82"/>
+        <v>484.84000000000003</v>
+      </c>
+      <c r="DI83" s="41">
         <f t="shared" si="83"/>
-        <v>434.84000000000003</v>
-      </c>
-      <c r="DH83" s="41">
+        <v>384.84000000000003</v>
+      </c>
+      <c r="DJ83" s="41">
+        <f t="shared" si="84"/>
+        <v>534.84</v>
+      </c>
+      <c r="DK83" s="41">
         <f t="shared" si="85"/>
-        <v>484.84000000000003</v>
-      </c>
-      <c r="DI83" s="41">
-        <f t="shared" si="86"/>
-        <v>384.84000000000003</v>
-      </c>
-      <c r="DJ83" s="41">
-        <f t="shared" si="87"/>
-        <v>534.84</v>
-      </c>
-      <c r="DK83" s="41">
-        <f t="shared" si="88"/>
         <v>334.84000000000003</v>
       </c>
       <c r="DL83" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>456.47500000000002</v>
       </c>
     </row>
@@ -22366,7 +22382,7 @@
         <v>297110.72584648069</v>
       </c>
       <c r="G84" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>445666.08876972104</v>
       </c>
       <c r="H84" s="40">
@@ -22392,7 +22408,7 @@
       </c>
       <c r="N84" s="40"/>
       <c r="O84" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>388812.33138403046</v>
       </c>
       <c r="P84" s="35"/>
@@ -22491,27 +22507,27 @@
       <c r="DE84" s="35"/>
       <c r="DF84" s="35"/>
       <c r="DG84" s="30">
+        <f t="shared" si="80"/>
+        <v>433.56</v>
+      </c>
+      <c r="DH84" s="41">
+        <f t="shared" si="82"/>
+        <v>483.56</v>
+      </c>
+      <c r="DI84" s="41">
         <f t="shared" si="83"/>
-        <v>433.56</v>
-      </c>
-      <c r="DH84" s="41">
+        <v>383.56</v>
+      </c>
+      <c r="DJ84" s="41">
+        <f t="shared" si="84"/>
+        <v>533.55999999999995</v>
+      </c>
+      <c r="DK84" s="41">
         <f t="shared" si="85"/>
-        <v>483.56</v>
-      </c>
-      <c r="DI84" s="41">
-        <f t="shared" si="86"/>
-        <v>383.56</v>
-      </c>
-      <c r="DJ84" s="41">
-        <f t="shared" si="87"/>
-        <v>533.55999999999995</v>
-      </c>
-      <c r="DK84" s="41">
-        <f t="shared" si="88"/>
         <v>333.56</v>
       </c>
       <c r="DL84" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>457.9</v>
       </c>
     </row>
@@ -22535,7 +22551,7 @@
         <v>297946.23146432696</v>
       </c>
       <c r="G85" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>446919.34719649045</v>
       </c>
       <c r="H85" s="40">
@@ -22561,7 +22577,7 @@
       </c>
       <c r="N85" s="40"/>
       <c r="O85" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>400476.70132555137</v>
       </c>
       <c r="P85" s="35"/>
@@ -22660,27 +22676,27 @@
       <c r="DE85" s="35"/>
       <c r="DF85" s="35"/>
       <c r="DG85" s="30">
+        <f t="shared" si="80"/>
+        <v>432.16</v>
+      </c>
+      <c r="DH85" s="41">
+        <f t="shared" si="82"/>
+        <v>482.16</v>
+      </c>
+      <c r="DI85" s="41">
         <f t="shared" si="83"/>
-        <v>432.16</v>
-      </c>
-      <c r="DH85" s="41">
+        <v>382.16</v>
+      </c>
+      <c r="DJ85" s="41">
+        <f t="shared" si="84"/>
+        <v>532.16000000000008</v>
+      </c>
+      <c r="DK85" s="41">
         <f t="shared" si="85"/>
-        <v>482.16</v>
-      </c>
-      <c r="DI85" s="41">
-        <f t="shared" si="86"/>
-        <v>382.16</v>
-      </c>
-      <c r="DJ85" s="41">
-        <f t="shared" si="87"/>
-        <v>532.16000000000008</v>
-      </c>
-      <c r="DK85" s="41">
-        <f t="shared" si="88"/>
         <v>332.16</v>
       </c>
       <c r="DL85" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>459.27499999999998</v>
       </c>
     </row>
@@ -22704,7 +22720,7 @@
         <v>298760.39559890382</v>
       </c>
       <c r="G86" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>448140.59339835576</v>
       </c>
       <c r="H86" s="40">
@@ -22730,7 +22746,7 @@
       </c>
       <c r="N86" s="40"/>
       <c r="O86" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>412491.00236531795</v>
       </c>
       <c r="P86" s="35"/>
@@ -22829,27 +22845,27 @@
       <c r="DE86" s="35"/>
       <c r="DF86" s="35"/>
       <c r="DG86" s="30">
+        <f t="shared" si="80"/>
+        <v>430.64000000000004</v>
+      </c>
+      <c r="DH86" s="41">
+        <f t="shared" si="82"/>
+        <v>480.64000000000004</v>
+      </c>
+      <c r="DI86" s="41">
         <f t="shared" si="83"/>
-        <v>430.64000000000004</v>
-      </c>
-      <c r="DH86" s="41">
+        <v>380.64000000000004</v>
+      </c>
+      <c r="DJ86" s="41">
+        <f t="shared" si="84"/>
+        <v>530.6400000000001</v>
+      </c>
+      <c r="DK86" s="41">
         <f t="shared" si="85"/>
-        <v>480.64000000000004</v>
-      </c>
-      <c r="DI86" s="41">
-        <f t="shared" si="86"/>
-        <v>380.64000000000004</v>
-      </c>
-      <c r="DJ86" s="41">
-        <f t="shared" si="87"/>
-        <v>530.6400000000001</v>
-      </c>
-      <c r="DK86" s="41">
-        <f t="shared" si="88"/>
         <v>330.64000000000004</v>
       </c>
       <c r="DL86" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>460.6</v>
       </c>
     </row>
@@ -22873,7 +22889,7 @@
         <v>299449.86893426924</v>
       </c>
       <c r="G87" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>449174.80340140383</v>
       </c>
       <c r="H87" s="40">
@@ -22899,7 +22915,7 @@
       </c>
       <c r="N87" s="40"/>
       <c r="O87" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>424865.7324362775</v>
       </c>
       <c r="P87" s="35"/>
@@ -22998,19 +23014,19 @@
       <c r="DE87" s="35"/>
       <c r="DF87" s="35"/>
       <c r="DG87" s="30">
+        <f t="shared" si="80"/>
+        <v>429</v>
+      </c>
+      <c r="DH87" s="41">
+        <f t="shared" si="82"/>
+        <v>479</v>
+      </c>
+      <c r="DI87" s="41">
         <f t="shared" si="83"/>
-        <v>429</v>
-      </c>
-      <c r="DH87" s="41">
-        <f t="shared" si="85"/>
-        <v>479</v>
-      </c>
-      <c r="DI87" s="41">
-        <f t="shared" si="86"/>
         <v>379</v>
       </c>
       <c r="DJ87" s="41">
-        <f t="shared" si="87"/>
+        <f t="shared" si="84"/>
         <v>529</v>
       </c>
       <c r="DK87" s="41">
@@ -23018,7 +23034,7 @@
         <v>329</v>
       </c>
       <c r="DL87" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>461.875</v>
       </c>
     </row>
@@ -23042,7 +23058,7 @@
         <v>299966.31839198084</v>
       </c>
       <c r="G88" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>449949.47758797125</v>
       </c>
       <c r="H88" s="40">
@@ -23068,7 +23084,7 @@
       </c>
       <c r="N88" s="40"/>
       <c r="O88" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>437611.70440936583</v>
       </c>
       <c r="P88" s="35"/>
@@ -23167,27 +23183,27 @@
       <c r="DE88" s="35"/>
       <c r="DF88" s="35"/>
       <c r="DG88" s="30">
+        <f t="shared" si="80"/>
+        <v>427.24</v>
+      </c>
+      <c r="DH88" s="41">
+        <f t="shared" si="82"/>
+        <v>477.24</v>
+      </c>
+      <c r="DI88" s="41">
         <f t="shared" si="83"/>
-        <v>427.24</v>
-      </c>
-      <c r="DH88" s="41">
+        <v>377.24</v>
+      </c>
+      <c r="DJ88" s="41">
+        <f t="shared" si="84"/>
+        <v>527.24</v>
+      </c>
+      <c r="DK88" s="41">
         <f t="shared" si="85"/>
-        <v>477.24</v>
-      </c>
-      <c r="DI88" s="41">
-        <f t="shared" si="86"/>
-        <v>377.24</v>
-      </c>
-      <c r="DJ88" s="41">
-        <f t="shared" si="87"/>
-        <v>527.24</v>
-      </c>
-      <c r="DK88" s="41">
-        <f t="shared" si="88"/>
         <v>327.24</v>
       </c>
       <c r="DL88" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>463.1</v>
       </c>
     </row>
@@ -23211,7 +23227,7 @@
         <v>300451.16797598079</v>
       </c>
       <c r="G89" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>450676.75196397118</v>
       </c>
       <c r="H89" s="40">
@@ -23237,7 +23253,7 @@
       </c>
       <c r="N89" s="40"/>
       <c r="O89" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>450740.05554164684</v>
       </c>
       <c r="P89" s="35"/>
@@ -23336,27 +23352,27 @@
       <c r="DE89" s="35"/>
       <c r="DF89" s="35"/>
       <c r="DG89" s="30">
+        <f t="shared" si="80"/>
+        <v>425.36</v>
+      </c>
+      <c r="DH89" s="41">
+        <f t="shared" si="82"/>
+        <v>475.36</v>
+      </c>
+      <c r="DI89" s="41">
         <f t="shared" si="83"/>
-        <v>425.36</v>
-      </c>
-      <c r="DH89" s="41">
+        <v>375.36</v>
+      </c>
+      <c r="DJ89" s="41">
+        <f t="shared" si="84"/>
+        <v>525.36</v>
+      </c>
+      <c r="DK89" s="41">
         <f t="shared" si="85"/>
-        <v>475.36</v>
-      </c>
-      <c r="DI89" s="41">
-        <f t="shared" si="86"/>
-        <v>375.36</v>
-      </c>
-      <c r="DJ89" s="41">
-        <f t="shared" si="87"/>
-        <v>525.36</v>
-      </c>
-      <c r="DK89" s="41">
-        <f t="shared" si="88"/>
         <v>325.36</v>
       </c>
       <c r="DL89" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>464.27499999999998</v>
       </c>
     </row>
@@ -23380,7 +23396,7 @@
         <v>300644.56541461538</v>
       </c>
       <c r="G90" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>450966.84812192305</v>
       </c>
       <c r="H90" s="40">
@@ -23406,7 +23422,7 @@
       </c>
       <c r="N90" s="40"/>
       <c r="O90" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>464262.25720789627</v>
       </c>
       <c r="P90" s="35"/>
@@ -23505,27 +23521,27 @@
       <c r="DE90" s="35"/>
       <c r="DF90" s="35"/>
       <c r="DG90" s="30">
+        <f t="shared" si="80"/>
+        <v>423.36</v>
+      </c>
+      <c r="DH90" s="41">
+        <f t="shared" si="82"/>
+        <v>473.36</v>
+      </c>
+      <c r="DI90" s="41">
         <f t="shared" si="83"/>
-        <v>423.36</v>
-      </c>
-      <c r="DH90" s="41">
+        <v>373.36</v>
+      </c>
+      <c r="DJ90" s="41">
+        <f t="shared" si="84"/>
+        <v>523.36</v>
+      </c>
+      <c r="DK90" s="41">
         <f t="shared" si="85"/>
-        <v>473.36</v>
-      </c>
-      <c r="DI90" s="41">
-        <f t="shared" si="86"/>
-        <v>373.36</v>
-      </c>
-      <c r="DJ90" s="41">
-        <f t="shared" si="87"/>
-        <v>523.36</v>
-      </c>
-      <c r="DK90" s="41">
-        <f t="shared" si="88"/>
         <v>323.36</v>
       </c>
       <c r="DL90" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>465.4</v>
       </c>
     </row>
@@ -23549,7 +23565,7 @@
         <v>300585.73427825008</v>
       </c>
       <c r="G91" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>450878.60141737515</v>
       </c>
       <c r="H91" s="40">
@@ -23575,7 +23591,7 @@
       </c>
       <c r="N91" s="40"/>
       <c r="O91" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>478190.12492413318</v>
       </c>
       <c r="P91" s="35"/>
@@ -23674,27 +23690,27 @@
       <c r="DE91" s="35"/>
       <c r="DF91" s="35"/>
       <c r="DG91" s="30">
+        <f t="shared" si="80"/>
+        <v>421.24</v>
+      </c>
+      <c r="DH91" s="41">
+        <f t="shared" si="82"/>
+        <v>471.24</v>
+      </c>
+      <c r="DI91" s="41">
         <f t="shared" si="83"/>
-        <v>421.24</v>
-      </c>
-      <c r="DH91" s="41">
+        <v>371.24</v>
+      </c>
+      <c r="DJ91" s="41">
+        <f t="shared" si="84"/>
+        <v>521.24</v>
+      </c>
+      <c r="DK91" s="41">
         <f t="shared" si="85"/>
-        <v>471.24</v>
-      </c>
-      <c r="DI91" s="41">
-        <f t="shared" si="86"/>
-        <v>371.24</v>
-      </c>
-      <c r="DJ91" s="41">
-        <f t="shared" si="87"/>
-        <v>521.24</v>
-      </c>
-      <c r="DK91" s="41">
-        <f t="shared" si="88"/>
         <v>321.24</v>
       </c>
       <c r="DL91" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>466.47500000000002</v>
       </c>
     </row>
@@ -23718,7 +23734,7 @@
         <v>300450.77309375</v>
       </c>
       <c r="G92" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>450676.159640625</v>
       </c>
       <c r="H92" s="40">
@@ -23744,7 +23760,7 @@
       </c>
       <c r="N92" s="40"/>
       <c r="O92" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>492535.82867185719</v>
       </c>
       <c r="P92" s="35"/>
@@ -23843,27 +23859,27 @@
       <c r="DE92" s="35"/>
       <c r="DF92" s="35"/>
       <c r="DG92" s="30">
+        <f t="shared" si="80"/>
+        <v>419</v>
+      </c>
+      <c r="DH92" s="41">
+        <f t="shared" si="82"/>
+        <v>469</v>
+      </c>
+      <c r="DI92" s="41">
         <f t="shared" si="83"/>
-        <v>419</v>
-      </c>
-      <c r="DH92" s="41">
+        <v>369</v>
+      </c>
+      <c r="DJ92" s="41">
+        <f t="shared" si="84"/>
+        <v>519</v>
+      </c>
+      <c r="DK92" s="41">
         <f t="shared" si="85"/>
-        <v>469</v>
-      </c>
-      <c r="DI92" s="41">
-        <f t="shared" si="86"/>
-        <v>369</v>
-      </c>
-      <c r="DJ92" s="41">
-        <f t="shared" si="87"/>
-        <v>519</v>
-      </c>
-      <c r="DK92" s="41">
-        <f t="shared" si="88"/>
         <v>319</v>
       </c>
       <c r="DL92" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>467.5</v>
       </c>
     </row>
@@ -23887,7 +23903,7 @@
         <v>300234.22000299999</v>
       </c>
       <c r="G93" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>450351.33000449999</v>
       </c>
       <c r="H93" s="40">
@@ -23913,7 +23929,7 @@
       </c>
       <c r="N93" s="40"/>
       <c r="O93" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>507311.90353201295</v>
       </c>
       <c r="P93" s="35"/>
@@ -24012,27 +24028,27 @@
       <c r="DE93" s="35"/>
       <c r="DF93" s="35"/>
       <c r="DG93" s="30">
+        <f t="shared" si="80"/>
+        <v>416.64000000000004</v>
+      </c>
+      <c r="DH93" s="41">
+        <f t="shared" si="82"/>
+        <v>466.64000000000004</v>
+      </c>
+      <c r="DI93" s="41">
         <f t="shared" si="83"/>
-        <v>416.64000000000004</v>
-      </c>
-      <c r="DH93" s="41">
+        <v>366.64000000000004</v>
+      </c>
+      <c r="DJ93" s="41">
+        <f t="shared" si="84"/>
+        <v>516.6400000000001</v>
+      </c>
+      <c r="DK93" s="41">
         <f t="shared" si="85"/>
-        <v>466.64000000000004</v>
-      </c>
-      <c r="DI93" s="41">
-        <f t="shared" si="86"/>
-        <v>366.64000000000004</v>
-      </c>
-      <c r="DJ93" s="41">
-        <f t="shared" si="87"/>
-        <v>516.6400000000001</v>
-      </c>
-      <c r="DK93" s="41">
-        <f t="shared" si="88"/>
         <v>316.64000000000004</v>
       </c>
       <c r="DL93" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>468.47500000000002</v>
       </c>
     </row>
@@ -24056,7 +24072,7 @@
         <v>299670.06830878841</v>
       </c>
       <c r="G94" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>449505.10246318264</v>
       </c>
       <c r="H94" s="40">
@@ -24082,7 +24098,7 @@
       </c>
       <c r="N94" s="40"/>
       <c r="O94" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>522531.26063797338</v>
       </c>
       <c r="P94" s="35"/>
@@ -24181,27 +24197,27 @@
       <c r="DE94" s="35"/>
       <c r="DF94" s="35"/>
       <c r="DG94" s="30">
+        <f t="shared" si="80"/>
+        <v>414.16</v>
+      </c>
+      <c r="DH94" s="41">
+        <f t="shared" si="82"/>
+        <v>464.16</v>
+      </c>
+      <c r="DI94" s="41">
         <f t="shared" si="83"/>
-        <v>414.16</v>
-      </c>
-      <c r="DH94" s="41">
+        <v>364.16</v>
+      </c>
+      <c r="DJ94" s="41">
+        <f t="shared" si="84"/>
+        <v>514.16000000000008</v>
+      </c>
+      <c r="DK94" s="41">
         <f t="shared" si="85"/>
-        <v>464.16</v>
-      </c>
-      <c r="DI94" s="41">
-        <f t="shared" si="86"/>
-        <v>364.16</v>
-      </c>
-      <c r="DJ94" s="41">
-        <f t="shared" si="87"/>
-        <v>514.16000000000008</v>
-      </c>
-      <c r="DK94" s="41">
-        <f t="shared" si="88"/>
         <v>314.16000000000003</v>
       </c>
       <c r="DL94" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>469.4</v>
       </c>
     </row>
@@ -24225,7 +24241,7 @@
         <v>298939.26924846153</v>
       </c>
       <c r="G95" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>448408.90387269226</v>
       </c>
       <c r="H95" s="40">
@@ -24251,7 +24267,7 @@
       </c>
       <c r="N95" s="40"/>
       <c r="O95" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>538207.19845711254</v>
       </c>
       <c r="P95" s="35"/>
@@ -24350,27 +24366,27 @@
       <c r="DE95" s="35"/>
       <c r="DF95" s="35"/>
       <c r="DG95" s="30">
+        <f t="shared" si="80"/>
+        <v>411.56000000000006</v>
+      </c>
+      <c r="DH95" s="41">
+        <f t="shared" si="82"/>
+        <v>461.56000000000006</v>
+      </c>
+      <c r="DI95" s="41">
         <f t="shared" si="83"/>
-        <v>411.56000000000006</v>
-      </c>
-      <c r="DH95" s="41">
+        <v>361.56000000000006</v>
+      </c>
+      <c r="DJ95" s="41">
+        <f t="shared" si="84"/>
+        <v>511.56000000000006</v>
+      </c>
+      <c r="DK95" s="41">
         <f t="shared" si="85"/>
-        <v>461.56000000000006</v>
-      </c>
-      <c r="DI95" s="41">
-        <f t="shared" si="86"/>
-        <v>361.56000000000006</v>
-      </c>
-      <c r="DJ95" s="41">
-        <f t="shared" si="87"/>
-        <v>511.56000000000006</v>
-      </c>
-      <c r="DK95" s="41">
-        <f t="shared" si="88"/>
         <v>311.56000000000006</v>
       </c>
       <c r="DL95" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>470.27499999999998</v>
       </c>
     </row>
@@ -24394,7 +24410,7 @@
         <v>298111.91940063465</v>
       </c>
       <c r="G96" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>447167.87910095195</v>
       </c>
       <c r="H96" s="40">
@@ -24519,27 +24535,27 @@
       <c r="DE96" s="35"/>
       <c r="DF96" s="35"/>
       <c r="DG96" s="30">
+        <f t="shared" si="80"/>
+        <v>408.84000000000003</v>
+      </c>
+      <c r="DH96" s="41">
+        <f t="shared" si="82"/>
+        <v>458.84000000000003</v>
+      </c>
+      <c r="DI96" s="41">
         <f t="shared" si="83"/>
-        <v>408.84000000000003</v>
-      </c>
-      <c r="DH96" s="41">
+        <v>358.84000000000003</v>
+      </c>
+      <c r="DJ96" s="41">
+        <f t="shared" si="84"/>
+        <v>508.84000000000003</v>
+      </c>
+      <c r="DK96" s="41">
         <f t="shared" si="85"/>
-        <v>458.84000000000003</v>
-      </c>
-      <c r="DI96" s="41">
-        <f t="shared" si="86"/>
-        <v>358.84000000000003</v>
-      </c>
-      <c r="DJ96" s="41">
-        <f t="shared" si="87"/>
-        <v>508.84000000000003</v>
-      </c>
-      <c r="DK96" s="41">
-        <f t="shared" si="88"/>
         <v>308.84000000000003</v>
       </c>
       <c r="DL96" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>471.1</v>
       </c>
     </row>
@@ -24563,7 +24579,7 @@
         <v>297127.22601407696</v>
       </c>
       <c r="G97" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>445690.83902111545</v>
       </c>
       <c r="H97" s="40">
@@ -24589,7 +24605,7 @@
       </c>
       <c r="N97" s="40"/>
       <c r="O97" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>570984.01684315072</v>
       </c>
       <c r="P97" s="35"/>
@@ -24688,27 +24704,27 @@
       <c r="DE97" s="35"/>
       <c r="DF97" s="35"/>
       <c r="DG97" s="30">
+        <f t="shared" si="80"/>
+        <v>406</v>
+      </c>
+      <c r="DH97" s="41">
+        <f t="shared" si="82"/>
+        <v>456</v>
+      </c>
+      <c r="DI97" s="41">
         <f t="shared" si="83"/>
-        <v>406</v>
-      </c>
-      <c r="DH97" s="41">
+        <v>356</v>
+      </c>
+      <c r="DJ97" s="41">
+        <f t="shared" si="84"/>
+        <v>506</v>
+      </c>
+      <c r="DK97" s="41">
         <f t="shared" si="85"/>
-        <v>456</v>
-      </c>
-      <c r="DI97" s="41">
-        <f t="shared" si="86"/>
-        <v>356</v>
-      </c>
-      <c r="DJ97" s="41">
-        <f t="shared" si="87"/>
-        <v>506</v>
-      </c>
-      <c r="DK97" s="41">
-        <f t="shared" si="88"/>
         <v>306</v>
       </c>
       <c r="DL97" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>471.875</v>
       </c>
     </row>
@@ -24732,7 +24748,7 @@
         <v>296116.53741538466</v>
       </c>
       <c r="G98" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>444174.806123077</v>
       </c>
       <c r="H98" s="40">
@@ -24758,7 +24774,7 @@
       </c>
       <c r="N98" s="40"/>
       <c r="O98" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>588113.53734844527</v>
       </c>
       <c r="P98" s="35"/>
@@ -24857,27 +24873,27 @@
       <c r="DE98" s="35"/>
       <c r="DF98" s="35"/>
       <c r="DG98" s="30">
+        <f t="shared" si="80"/>
+        <v>403.03999999999996</v>
+      </c>
+      <c r="DH98" s="41">
+        <f t="shared" si="82"/>
+        <v>453.03999999999996</v>
+      </c>
+      <c r="DI98" s="41">
         <f t="shared" si="83"/>
-        <v>403.03999999999996</v>
-      </c>
-      <c r="DH98" s="41">
+        <v>353.03999999999996</v>
+      </c>
+      <c r="DJ98" s="41">
+        <f t="shared" si="84"/>
+        <v>503.03999999999996</v>
+      </c>
+      <c r="DK98" s="41">
         <f t="shared" si="85"/>
-        <v>453.03999999999996</v>
-      </c>
-      <c r="DI98" s="41">
-        <f t="shared" si="86"/>
-        <v>353.03999999999996</v>
-      </c>
-      <c r="DJ98" s="41">
-        <f t="shared" si="87"/>
-        <v>503.03999999999996</v>
-      </c>
-      <c r="DK98" s="41">
-        <f t="shared" si="88"/>
         <v>303.03999999999996</v>
       </c>
       <c r="DL98" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>472.6</v>
       </c>
     </row>
@@ -24901,7 +24917,7 @@
         <v>294852.25517648074</v>
       </c>
       <c r="G99" s="40">
-        <f t="shared" ref="G99:G109" si="89">F99*1.5</f>
+        <f t="shared" ref="G99:G109" si="86">F99*1.5</f>
         <v>442278.38276472111</v>
       </c>
       <c r="H99" s="40">
@@ -24927,7 +24943,7 @@
       </c>
       <c r="N99" s="40"/>
       <c r="O99" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>605756.94346889865</v>
       </c>
       <c r="P99" s="35"/>
@@ -25026,27 +25042,27 @@
       <c r="DE99" s="35"/>
       <c r="DF99" s="35"/>
       <c r="DG99" s="30">
-        <f t="shared" ref="DG99:DG109" si="90">-0.06*((A99-1963)^2)+8.5*(A99-1963)+140</f>
+        <f t="shared" ref="DG99:DG109" si="87">-0.06*((A99-1963)^2)+8.5*(A99-1963)+140</f>
         <v>399.96000000000004</v>
       </c>
       <c r="DH99" s="41">
+        <f t="shared" si="82"/>
+        <v>449.96000000000004</v>
+      </c>
+      <c r="DI99" s="41">
+        <f t="shared" si="83"/>
+        <v>349.96000000000004</v>
+      </c>
+      <c r="DJ99" s="41">
+        <f t="shared" si="84"/>
+        <v>499.96000000000004</v>
+      </c>
+      <c r="DK99" s="41">
         <f t="shared" si="85"/>
-        <v>449.96000000000004</v>
-      </c>
-      <c r="DI99" s="41">
-        <f t="shared" si="86"/>
-        <v>349.96000000000004</v>
-      </c>
-      <c r="DJ99" s="41">
-        <f t="shared" si="87"/>
-        <v>499.96000000000004</v>
-      </c>
-      <c r="DK99" s="41">
-        <f t="shared" si="88"/>
         <v>299.96000000000004</v>
       </c>
       <c r="DL99" s="30">
-        <f t="shared" ref="DL99:DL109" si="91">-0.025*((A99-1963)^2)+5.5*(A99-1963)+175</f>
+        <f t="shared" ref="DL99:DL109" si="88">-0.025*((A99-1963)^2)+5.5*(A99-1963)+175</f>
         <v>473.27499999999998</v>
       </c>
     </row>
@@ -25070,7 +25086,7 @@
         <v>294094.96934984619</v>
       </c>
       <c r="G100" s="40">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>441142.45402476925</v>
       </c>
       <c r="H100" s="40">
@@ -25096,7 +25112,7 @@
       </c>
       <c r="N100" s="40"/>
       <c r="O100" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>623929.65177296568</v>
       </c>
       <c r="P100" s="35"/>
@@ -25195,27 +25211,27 @@
       <c r="DE100" s="35"/>
       <c r="DF100" s="35"/>
       <c r="DG100" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="87"/>
         <v>396.76</v>
       </c>
       <c r="DH100" s="41">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>446.76</v>
       </c>
       <c r="DI100" s="41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="83"/>
         <v>346.76</v>
       </c>
       <c r="DJ100" s="41">
-        <f t="shared" ref="DJ100:DJ109" si="92">DG100+100</f>
+        <f t="shared" ref="DJ100:DJ109" si="89">DG100+100</f>
         <v>496.76</v>
       </c>
       <c r="DK100" s="41">
-        <f t="shared" ref="DK100:DK109" si="93">DG100-100</f>
+        <f t="shared" ref="DK100:DK109" si="90">DG100-100</f>
         <v>296.76</v>
       </c>
       <c r="DL100" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v>473.9</v>
       </c>
     </row>
@@ -25239,7 +25255,7 @@
         <v>293575.15749119228</v>
       </c>
       <c r="G101" s="40">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>440362.73623678845</v>
       </c>
       <c r="H101" s="40">
@@ -25265,7 +25281,7 @@
       </c>
       <c r="N101" s="40"/>
       <c r="O101" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>642647.54132615472</v>
       </c>
       <c r="P101" s="35"/>
@@ -25364,27 +25380,27 @@
       <c r="DE101" s="35"/>
       <c r="DF101" s="35"/>
       <c r="DG101" s="30">
+        <f t="shared" si="87"/>
+        <v>393.44000000000005</v>
+      </c>
+      <c r="DH101" s="41">
+        <f t="shared" si="82"/>
+        <v>443.44000000000005</v>
+      </c>
+      <c r="DI101" s="41">
+        <f t="shared" si="83"/>
+        <v>343.44000000000005</v>
+      </c>
+      <c r="DJ101" s="41">
+        <f t="shared" si="89"/>
+        <v>493.44000000000005</v>
+      </c>
+      <c r="DK101" s="41">
         <f t="shared" si="90"/>
-        <v>393.44000000000005</v>
-      </c>
-      <c r="DH101" s="41">
-        <f t="shared" si="85"/>
-        <v>443.44000000000005</v>
-      </c>
-      <c r="DI101" s="41">
-        <f t="shared" si="86"/>
-        <v>343.44000000000005</v>
-      </c>
-      <c r="DJ101" s="41">
-        <f t="shared" si="92"/>
-        <v>493.44000000000005</v>
-      </c>
-      <c r="DK101" s="41">
-        <f t="shared" si="93"/>
         <v>293.44000000000005</v>
       </c>
       <c r="DL101" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v>474.47500000000002</v>
       </c>
     </row>
@@ -25408,7 +25424,7 @@
         <v>293199.28718844237</v>
       </c>
       <c r="G102" s="40">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>439798.93078266352</v>
       </c>
       <c r="H102" s="40">
@@ -25434,7 +25450,7 @@
       </c>
       <c r="N102" s="40"/>
       <c r="O102" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>661926.96756593941</v>
       </c>
       <c r="P102" s="35"/>
@@ -25533,27 +25549,27 @@
       <c r="DE102" s="35"/>
       <c r="DF102" s="35"/>
       <c r="DG102" s="30">
+        <f t="shared" si="87"/>
+        <v>390</v>
+      </c>
+      <c r="DH102" s="41">
+        <f t="shared" si="82"/>
+        <v>440</v>
+      </c>
+      <c r="DI102" s="41">
+        <f t="shared" si="83"/>
+        <v>340</v>
+      </c>
+      <c r="DJ102" s="41">
+        <f t="shared" si="89"/>
+        <v>490</v>
+      </c>
+      <c r="DK102" s="41">
         <f t="shared" si="90"/>
-        <v>390</v>
-      </c>
-      <c r="DH102" s="41">
-        <f t="shared" si="85"/>
-        <v>440</v>
-      </c>
-      <c r="DI102" s="41">
-        <f t="shared" si="86"/>
-        <v>340</v>
-      </c>
-      <c r="DJ102" s="41">
-        <f t="shared" si="92"/>
-        <v>490</v>
-      </c>
-      <c r="DK102" s="41">
-        <f t="shared" si="93"/>
         <v>290</v>
       </c>
       <c r="DL102" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v>475</v>
       </c>
     </row>
@@ -25577,7 +25593,7 @@
         <v>293183.60543561535</v>
       </c>
       <c r="G103" s="40">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>439775.40815342299</v>
       </c>
       <c r="H103" s="40">
@@ -25603,7 +25619,7 @@
       </c>
       <c r="N103" s="40"/>
       <c r="O103" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>681784.77659291762</v>
       </c>
       <c r="P103" s="35"/>
@@ -25702,27 +25718,27 @@
       <c r="DE103" s="35"/>
       <c r="DF103" s="35"/>
       <c r="DG103" s="30">
+        <f t="shared" si="87"/>
+        <v>386.44000000000005</v>
+      </c>
+      <c r="DH103" s="41">
+        <f t="shared" si="82"/>
+        <v>436.44000000000005</v>
+      </c>
+      <c r="DI103" s="41">
+        <f t="shared" si="83"/>
+        <v>336.44000000000005</v>
+      </c>
+      <c r="DJ103" s="41">
+        <f t="shared" si="89"/>
+        <v>486.44000000000005</v>
+      </c>
+      <c r="DK103" s="41">
         <f t="shared" si="90"/>
-        <v>386.44000000000005</v>
-      </c>
-      <c r="DH103" s="41">
-        <f t="shared" si="85"/>
-        <v>436.44000000000005</v>
-      </c>
-      <c r="DI103" s="41">
-        <f t="shared" si="86"/>
-        <v>336.44000000000005</v>
-      </c>
-      <c r="DJ103" s="41">
-        <f t="shared" si="92"/>
-        <v>486.44000000000005</v>
-      </c>
-      <c r="DK103" s="41">
-        <f t="shared" si="93"/>
         <v>286.44000000000005</v>
       </c>
       <c r="DL103" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v>475.47500000000002</v>
       </c>
     </row>
@@ -25746,7 +25762,7 @@
         <v>293638.40015626926</v>
       </c>
       <c r="G104" s="40">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>440457.60023440386</v>
       </c>
       <c r="H104" s="40">
@@ -25772,7 +25788,7 @@
       </c>
       <c r="N104" s="40"/>
       <c r="O104" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>702238.31989070517</v>
       </c>
       <c r="P104" s="35"/>
@@ -25871,27 +25887,27 @@
       <c r="DE104" s="35"/>
       <c r="DF104" s="35"/>
       <c r="DG104" s="30">
+        <f t="shared" si="87"/>
+        <v>382.76</v>
+      </c>
+      <c r="DH104" s="41">
+        <f t="shared" si="82"/>
+        <v>432.76</v>
+      </c>
+      <c r="DI104" s="41">
+        <f t="shared" si="83"/>
+        <v>332.76</v>
+      </c>
+      <c r="DJ104" s="41">
+        <f t="shared" si="89"/>
+        <v>482.76</v>
+      </c>
+      <c r="DK104" s="41">
         <f t="shared" si="90"/>
-        <v>382.76</v>
-      </c>
-      <c r="DH104" s="41">
-        <f t="shared" si="85"/>
-        <v>432.76</v>
-      </c>
-      <c r="DI104" s="41">
-        <f t="shared" si="86"/>
-        <v>332.76</v>
-      </c>
-      <c r="DJ104" s="41">
-        <f t="shared" si="92"/>
-        <v>482.76</v>
-      </c>
-      <c r="DK104" s="41">
-        <f t="shared" si="93"/>
         <v>282.76</v>
       </c>
       <c r="DL104" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v>475.9</v>
       </c>
     </row>
@@ -25915,7 +25931,7 @@
         <v>294066.84327894234</v>
       </c>
       <c r="G105" s="40">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>441100.26491841348</v>
       </c>
       <c r="H105" s="40">
@@ -25941,7 +25957,7 @@
       </c>
       <c r="N105" s="40"/>
       <c r="O105" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>723305.46948742634</v>
       </c>
       <c r="P105" s="35"/>
@@ -26040,27 +26056,27 @@
       <c r="DE105" s="35"/>
       <c r="DF105" s="35"/>
       <c r="DG105" s="30">
+        <f t="shared" si="87"/>
+        <v>378.96000000000004</v>
+      </c>
+      <c r="DH105" s="41">
+        <f t="shared" si="82"/>
+        <v>428.96000000000004</v>
+      </c>
+      <c r="DI105" s="41">
+        <f t="shared" si="83"/>
+        <v>328.96000000000004</v>
+      </c>
+      <c r="DJ105" s="41">
+        <f t="shared" si="89"/>
+        <v>478.96000000000004</v>
+      </c>
+      <c r="DK105" s="41">
         <f t="shared" si="90"/>
-        <v>378.96000000000004</v>
-      </c>
-      <c r="DH105" s="41">
-        <f t="shared" si="85"/>
-        <v>428.96000000000004</v>
-      </c>
-      <c r="DI105" s="41">
-        <f t="shared" si="86"/>
-        <v>328.96000000000004</v>
-      </c>
-      <c r="DJ105" s="41">
-        <f t="shared" si="92"/>
-        <v>478.96000000000004</v>
-      </c>
-      <c r="DK105" s="41">
-        <f t="shared" si="93"/>
         <v>278.96000000000004</v>
       </c>
       <c r="DL105" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v>476.27499999999998</v>
       </c>
     </row>
@@ -26076,41 +26092,41 @@
       </c>
       <c r="D106" s="107"/>
       <c r="E106" s="40">
-        <f t="shared" ref="E106:E109" si="94">C106/26</f>
+        <f t="shared" ref="E106:E109" si="91">C106/26</f>
         <v>589274.47971750004</v>
       </c>
       <c r="F106" s="40">
-        <f t="shared" ref="F106:F109" si="95">E106/2</f>
+        <f t="shared" ref="F106:F109" si="92">E106/2</f>
         <v>294637.23985875002</v>
       </c>
       <c r="G106" s="40">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>441955.85978812503</v>
       </c>
       <c r="H106" s="40">
         <v>572749.20403999998</v>
       </c>
       <c r="I106" s="40">
-        <f t="shared" ref="I106:I109" si="96">H106/2</f>
+        <f t="shared" ref="I106:I109" si="93">H106/2</f>
         <v>286374.60201999999</v>
       </c>
       <c r="J106" s="40">
         <v>587641.95743900002</v>
       </c>
       <c r="K106" s="40">
-        <f t="shared" ref="K106:K109" si="97">J106/2</f>
+        <f t="shared" ref="K106:K109" si="94">J106/2</f>
         <v>293820.97871950001</v>
       </c>
       <c r="L106" s="40">
         <v>660813.28320900002</v>
       </c>
       <c r="M106" s="40">
-        <f t="shared" ref="M106:M109" si="98">L106/2</f>
+        <f t="shared" ref="M106:M109" si="95">L106/2</f>
         <v>330406.64160450001</v>
       </c>
       <c r="N106" s="40"/>
       <c r="O106" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>745004.63357204909</v>
       </c>
       <c r="P106" s="35"/>
@@ -26209,27 +26225,27 @@
       <c r="DE106" s="35"/>
       <c r="DF106" s="35"/>
       <c r="DG106" s="30">
+        <f t="shared" si="87"/>
+        <v>375.04000000000008</v>
+      </c>
+      <c r="DH106" s="41">
+        <f t="shared" si="82"/>
+        <v>425.04000000000008</v>
+      </c>
+      <c r="DI106" s="41">
+        <f t="shared" si="83"/>
+        <v>325.04000000000008</v>
+      </c>
+      <c r="DJ106" s="41">
+        <f t="shared" si="89"/>
+        <v>475.04000000000008</v>
+      </c>
+      <c r="DK106" s="41">
         <f t="shared" si="90"/>
-        <v>375.04000000000008</v>
-      </c>
-      <c r="DH106" s="41">
-        <f t="shared" si="85"/>
-        <v>425.04000000000008</v>
-      </c>
-      <c r="DI106" s="41">
-        <f t="shared" si="86"/>
-        <v>325.04000000000008</v>
-      </c>
-      <c r="DJ106" s="41">
-        <f t="shared" si="92"/>
-        <v>475.04000000000008</v>
-      </c>
-      <c r="DK106" s="41">
-        <f t="shared" si="93"/>
         <v>275.04000000000008</v>
       </c>
       <c r="DL106" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v>476.59999999999997</v>
       </c>
     </row>
@@ -26245,41 +26261,41 @@
       </c>
       <c r="D107" s="107"/>
       <c r="E107" s="40">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>590770.38460019231</v>
       </c>
       <c r="F107" s="40">
-        <f t="shared" si="95"/>
+        <f t="shared" si="92"/>
         <v>295385.19230009615</v>
       </c>
       <c r="G107" s="40">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>443077.78845014423</v>
       </c>
       <c r="H107" s="40">
         <v>579244.57840500004</v>
       </c>
       <c r="I107" s="40">
-        <f t="shared" si="96"/>
+        <f t="shared" si="93"/>
         <v>289622.28920250002</v>
       </c>
       <c r="J107" s="40">
         <v>589915.11751200003</v>
       </c>
       <c r="K107" s="40">
-        <f t="shared" si="97"/>
+        <f t="shared" si="94"/>
         <v>294957.55875600001</v>
       </c>
       <c r="L107" s="40">
         <v>647299.58405900002</v>
       </c>
       <c r="M107" s="40">
-        <f t="shared" si="98"/>
+        <f t="shared" si="95"/>
         <v>323649.79202950001</v>
       </c>
       <c r="N107" s="40"/>
       <c r="O107" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>767354.77257921058</v>
       </c>
       <c r="P107" s="35"/>
@@ -26378,27 +26394,27 @@
       <c r="DE107" s="35"/>
       <c r="DF107" s="35"/>
       <c r="DG107" s="30">
+        <f t="shared" si="87"/>
+        <v>371</v>
+      </c>
+      <c r="DH107" s="41">
+        <f t="shared" si="82"/>
+        <v>421</v>
+      </c>
+      <c r="DI107" s="41">
+        <f t="shared" si="83"/>
+        <v>321</v>
+      </c>
+      <c r="DJ107" s="41">
+        <f t="shared" si="89"/>
+        <v>471</v>
+      </c>
+      <c r="DK107" s="41">
         <f t="shared" si="90"/>
-        <v>371</v>
-      </c>
-      <c r="DH107" s="41">
-        <f t="shared" si="85"/>
-        <v>421</v>
-      </c>
-      <c r="DI107" s="41">
-        <f t="shared" si="86"/>
-        <v>321</v>
-      </c>
-      <c r="DJ107" s="41">
-        <f t="shared" si="92"/>
-        <v>471</v>
-      </c>
-      <c r="DK107" s="41">
-        <f t="shared" si="93"/>
         <v>271</v>
       </c>
       <c r="DL107" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v>476.875</v>
       </c>
     </row>
@@ -26414,41 +26430,41 @@
       </c>
       <c r="D108" s="107"/>
       <c r="E108" s="40">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>592912.05271953845</v>
       </c>
       <c r="F108" s="40">
-        <f t="shared" si="95"/>
+        <f t="shared" si="92"/>
         <v>296456.02635976922</v>
       </c>
       <c r="G108" s="40">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>444684.03953965381</v>
       </c>
       <c r="H108" s="40">
         <v>585443.35030000005</v>
       </c>
       <c r="I108" s="40">
-        <f t="shared" si="96"/>
+        <f t="shared" si="93"/>
         <v>292721.67515000002</v>
       </c>
       <c r="J108" s="40">
         <v>592964.33088200004</v>
       </c>
       <c r="K108" s="40">
-        <f t="shared" si="97"/>
+        <f t="shared" si="94"/>
         <v>296482.16544100002</v>
       </c>
       <c r="L108" s="40">
         <v>631249.16354600003</v>
       </c>
       <c r="M108" s="40">
-        <f t="shared" si="98"/>
+        <f t="shared" si="95"/>
         <v>315624.58177300001</v>
       </c>
       <c r="N108" s="40"/>
       <c r="O108" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>790375.41575658694</v>
       </c>
       <c r="P108" s="35"/>
@@ -26547,27 +26563,27 @@
       <c r="DE108" s="35"/>
       <c r="DF108" s="35"/>
       <c r="DG108" s="30">
+        <f t="shared" si="87"/>
+        <v>366.84000000000003</v>
+      </c>
+      <c r="DH108" s="41">
+        <f t="shared" si="82"/>
+        <v>416.84000000000003</v>
+      </c>
+      <c r="DI108" s="41">
+        <f t="shared" si="83"/>
+        <v>316.84000000000003</v>
+      </c>
+      <c r="DJ108" s="41">
+        <f t="shared" si="89"/>
+        <v>466.84000000000003</v>
+      </c>
+      <c r="DK108" s="41">
         <f t="shared" si="90"/>
-        <v>366.84000000000003</v>
-      </c>
-      <c r="DH108" s="41">
-        <f t="shared" si="85"/>
-        <v>416.84000000000003</v>
-      </c>
-      <c r="DI108" s="41">
-        <f t="shared" si="86"/>
-        <v>316.84000000000003</v>
-      </c>
-      <c r="DJ108" s="41">
-        <f t="shared" si="92"/>
-        <v>466.84000000000003</v>
-      </c>
-      <c r="DK108" s="41">
-        <f t="shared" si="93"/>
         <v>266.84000000000003</v>
       </c>
       <c r="DL108" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v>477.09999999999997</v>
       </c>
     </row>
@@ -26583,41 +26599,41 @@
       </c>
       <c r="D109" s="107"/>
       <c r="E109" s="40">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>595761.53824365383</v>
       </c>
       <c r="F109" s="40">
-        <f t="shared" si="95"/>
+        <f t="shared" si="92"/>
         <v>297880.76912182692</v>
       </c>
       <c r="G109" s="40">
-        <f t="shared" si="89"/>
+        <f t="shared" si="86"/>
         <v>446821.15368274041</v>
       </c>
       <c r="H109" s="40">
         <v>591170.35224299994</v>
       </c>
       <c r="I109" s="40">
-        <f t="shared" si="96"/>
+        <f t="shared" si="93"/>
         <v>295585.17612149997</v>
       </c>
       <c r="J109" s="40">
         <v>596784.95242700004</v>
       </c>
       <c r="K109" s="40">
-        <f t="shared" si="97"/>
+        <f t="shared" si="94"/>
         <v>298392.47621350002</v>
       </c>
       <c r="L109" s="40">
         <v>621442.19025300001</v>
       </c>
       <c r="M109" s="40">
-        <f t="shared" si="98"/>
+        <f t="shared" si="95"/>
         <v>310721.0951265</v>
       </c>
       <c r="N109" s="40"/>
       <c r="O109" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>814086.67822928459</v>
       </c>
       <c r="P109" s="35"/>
@@ -26716,27 +26732,27 @@
       <c r="DE109" s="35"/>
       <c r="DF109" s="35"/>
       <c r="DG109" s="30">
+        <f t="shared" si="87"/>
+        <v>362.56000000000006</v>
+      </c>
+      <c r="DH109" s="41">
+        <f t="shared" si="82"/>
+        <v>412.56000000000006</v>
+      </c>
+      <c r="DI109" s="41">
+        <f t="shared" si="83"/>
+        <v>312.56000000000006</v>
+      </c>
+      <c r="DJ109" s="41">
+        <f t="shared" si="89"/>
+        <v>462.56000000000006</v>
+      </c>
+      <c r="DK109" s="41">
         <f t="shared" si="90"/>
-        <v>362.56000000000006</v>
-      </c>
-      <c r="DH109" s="41">
-        <f t="shared" si="85"/>
-        <v>412.56000000000006</v>
-      </c>
-      <c r="DI109" s="41">
-        <f t="shared" si="86"/>
-        <v>312.56000000000006</v>
-      </c>
-      <c r="DJ109" s="41">
-        <f t="shared" si="92"/>
-        <v>462.56000000000006</v>
-      </c>
-      <c r="DK109" s="41">
-        <f t="shared" si="93"/>
         <v>262.56000000000006</v>
       </c>
       <c r="DL109" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="88"/>
         <v>477.27499999999998</v>
       </c>
     </row>
@@ -27535,10 +27551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE8937A-1E0F-4ADF-B1DF-65595A6CD4E4}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="A51" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27557,51 +27573,51 @@
   <sheetData>
     <row r="1" spans="1:16" ht="37" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="56" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="J1" s="58" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="L1" s="59" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="M1" s="59" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="N1" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="O1" s="135" t="s">
-        <v>142</v>
-      </c>
-      <c r="P1" s="136"/>
+        <v>217</v>
+      </c>
+      <c r="O1" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" s="137"/>
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.4">
       <c r="A2" s="60" t="s">
@@ -27975,7 +27991,7 @@
         <v>1744.49</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="P8" s="70">
         <f>AVERAGE(Yearly!BS60)*20</f>
@@ -28030,7 +28046,7 @@
         <v>1755.27</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="P9" s="9">
         <f>SUM(P2:P8)</f>
@@ -30544,7 +30560,7 @@
     </row>
     <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A62" s="61" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B62" s="63">
         <v>138.74</v>
@@ -30592,7 +30608,7 @@
     </row>
     <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A63" s="61" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B63" s="63">
         <v>141.43299999999999</v>
@@ -30606,18 +30622,18 @@
       </c>
       <c r="E63" s="63">
         <f>AVERAGE(L63:N63)</f>
-        <v>1620.3333333333333</v>
+        <v>1618.3333333333333</v>
       </c>
       <c r="F63" s="63">
         <v>165418</v>
       </c>
       <c r="G63" s="10">
         <f>ABS(((E63*100/D63)-100)*-1)</f>
-        <v>13.165416220078612</v>
+        <v>13.272597356198659</v>
       </c>
       <c r="H63" s="6">
         <f>D63+(E63-E62)</f>
-        <v>1869.3333333333333</v>
+        <v>1867.3333333333333</v>
       </c>
       <c r="I63" s="52">
         <v>1853</v>
@@ -30629,18 +30645,18 @@
         <v>1876</v>
       </c>
       <c r="L63" s="50">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="M63" s="50">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="N63" s="50">
-        <v>1652</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A64" s="61" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B64" s="6">
         <v>143.86000000000001</v>
@@ -30652,12 +30668,21 @@
         <f>AVERAGE(I64:K64)</f>
         <v>1892.3333333333333</v>
       </c>
-      <c r="E64" s="6"/>
+      <c r="E64" s="63">
+        <f>AVERAGE(L64:N64)</f>
+        <v>1597</v>
+      </c>
       <c r="F64" s="6">
         <v>168380</v>
       </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="5"/>
+      <c r="G64" s="10">
+        <f>ABS(((E64*100/D64)-100)*-1)</f>
+        <v>15.606834595737183</v>
+      </c>
+      <c r="H64" s="6">
+        <f>D64+(E64-E63)</f>
+        <v>1871</v>
+      </c>
       <c r="I64" s="52">
         <v>1888</v>
       </c>
@@ -30667,19 +30692,23 @@
       <c r="K64" s="52">
         <v>1893</v>
       </c>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
+      <c r="L64" s="50">
+        <v>1695</v>
+      </c>
+      <c r="M64" s="50">
+        <v>1499</v>
+      </c>
       <c r="N64" s="50"/>
     </row>
     <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A65" s="61" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
       <c r="D65" s="6">
         <f>AVERAGE(I65:K65)</f>
-        <v>1919.5</v>
+        <v>1920</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6">
@@ -30693,10 +30722,15 @@
       <c r="J65" s="52">
         <v>1929</v>
       </c>
-      <c r="K65" s="52"/>
+      <c r="K65" s="52">
+        <v>1921</v>
+      </c>
       <c r="L65" s="50"/>
       <c r="M65" s="50"/>
       <c r="N65" s="50"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E66" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -30720,7 +30754,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="68" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="65" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
@@ -30734,7 +30768,7 @@
     </row>
     <row r="2" spans="1:12" s="68" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="66" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
